--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cryst\OneDrive\デスクトップ\システム開発演習\000-要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFCD888-ECBD-4644-9AF5-1CDA5C94F596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36DFD32-4EF5-491C-A980-969826FCEE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール (テンプレート)" sheetId="13" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="67">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -455,6 +453,191 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ロク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>小項目</t>
+    <rPh sb="0" eb="3">
+      <t>ショウコウモク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>商品検索</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ショッピングカート</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>会員登録・ログイン</t>
+    <rPh sb="0" eb="4">
+      <t>カイイントウロク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>会員変更・退会</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイカイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>機能一覧</t>
+    <rPh sb="0" eb="4">
+      <t>キノウイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入履歴</t>
+    <rPh sb="0" eb="4">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>画面遷移図</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>イベント定義書</t>
+  </si>
+  <si>
+    <t>会員登録・会員変更・ログイン</t>
+    <rPh sb="5" eb="7">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>購入履歴・退会</t>
+    <rPh sb="0" eb="4">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイカイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>商品検索・ショッピングカート</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>jsp</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>servlet</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DTO</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DAO</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>会員機能
+ログイン画面、会員登録画面、変更画面</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>カイイントウロク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショッピング機能（決算部分）
+カート画面、購入画面</t>
+    <rPh sb="9" eb="11">
+      <t>ケッサン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショッピング機能（履歴部分）
+購入履歴・キャンセル</t>
+    <rPh sb="9" eb="11">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員機能
+退会</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋山</t>
+    <rPh sb="0" eb="2">
+      <t>アキヤマ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1404,15 +1587,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1569,11 +1743,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1749,6 +1938,414 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1758,6 +2355,81 @@
     <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1767,115 +2439,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1887,239 +2454,20 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2142,13 +2490,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2217,13 +2565,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2823,2459 +3171,4833 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN32"/>
+  <dimension ref="A1:BO64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AF45" sqref="AF45"/>
+      <selection pane="bottomRight" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="3" customWidth="1"/>
-    <col min="7" max="30" width="3.125" style="3" customWidth="1"/>
-    <col min="31" max="66" width="3.125" style="1" customWidth="1"/>
-    <col min="67" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="3" customWidth="1"/>
+    <col min="8" max="31" width="3.109375" style="3" customWidth="1"/>
+    <col min="32" max="67" width="3.109375" style="1" customWidth="1"/>
+    <col min="68" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:67" ht="10.5" customHeight="1">
+      <c r="A1" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="82" t="s">
+      <c r="D1" s="207"/>
+      <c r="E1" s="212" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="G1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="61">
+      <c r="H1" s="197">
         <v>45536</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="61">
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="198"/>
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="198"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="198"/>
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="198"/>
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="198"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="198"/>
+      <c r="AJ1" s="198"/>
+      <c r="AK1" s="199"/>
+      <c r="AL1" s="197">
         <v>45566</v>
       </c>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="62"/>
-      <c r="BA1" s="62"/>
-      <c r="BB1" s="62"/>
-      <c r="BC1" s="62"/>
-      <c r="BD1" s="62"/>
-      <c r="BE1" s="62"/>
-      <c r="BF1" s="62"/>
-      <c r="BG1" s="62"/>
-      <c r="BH1" s="62"/>
-      <c r="BI1" s="62"/>
-      <c r="BJ1" s="62"/>
-      <c r="BK1" s="62"/>
-      <c r="BL1" s="62"/>
-      <c r="BM1" s="62"/>
-      <c r="BN1" s="63"/>
-    </row>
-    <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="46">
+      <c r="AM1" s="198"/>
+      <c r="AN1" s="198"/>
+      <c r="AO1" s="198"/>
+      <c r="AP1" s="198"/>
+      <c r="AQ1" s="198"/>
+      <c r="AR1" s="198"/>
+      <c r="AS1" s="198"/>
+      <c r="AT1" s="198"/>
+      <c r="AU1" s="198"/>
+      <c r="AV1" s="198"/>
+      <c r="AW1" s="198"/>
+      <c r="AX1" s="198"/>
+      <c r="AY1" s="198"/>
+      <c r="AZ1" s="198"/>
+      <c r="BA1" s="198"/>
+      <c r="BB1" s="198"/>
+      <c r="BC1" s="198"/>
+      <c r="BD1" s="198"/>
+      <c r="BE1" s="198"/>
+      <c r="BF1" s="198"/>
+      <c r="BG1" s="198"/>
+      <c r="BH1" s="198"/>
+      <c r="BI1" s="198"/>
+      <c r="BJ1" s="198"/>
+      <c r="BK1" s="198"/>
+      <c r="BL1" s="198"/>
+      <c r="BM1" s="198"/>
+      <c r="BN1" s="198"/>
+      <c r="BO1" s="199"/>
+    </row>
+    <row r="2" spans="1:67" ht="10.5" customHeight="1">
+      <c r="A2" s="201"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="46">
         <v>45537</v>
       </c>
-      <c r="H2" s="4">
-        <f>G2+1</f>
+      <c r="I2" s="4">
+        <f>H2+1</f>
         <v>45538</v>
       </c>
-      <c r="I2" s="4">
-        <f t="shared" ref="I2:BN2" si="0">H2+1</f>
+      <c r="J2" s="4">
+        <f t="shared" ref="J2:BO2" si="0">I2+1</f>
         <v>45539</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <f t="shared" si="0"/>
         <v>45540</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <f t="shared" si="0"/>
         <v>45541</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <f t="shared" si="0"/>
         <v>45542</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <f t="shared" si="0"/>
         <v>45543</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <f t="shared" si="0"/>
         <v>45544</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
         <f t="shared" si="0"/>
         <v>45545</v>
       </c>
-      <c r="P2" s="4">
+      <c r="Q2" s="4">
         <f t="shared" si="0"/>
         <v>45546</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="R2" s="4">
         <f t="shared" si="0"/>
         <v>45547</v>
       </c>
-      <c r="R2" s="4">
+      <c r="S2" s="4">
         <f t="shared" si="0"/>
         <v>45548</v>
       </c>
-      <c r="S2" s="4">
+      <c r="T2" s="4">
         <f t="shared" si="0"/>
         <v>45549</v>
       </c>
-      <c r="T2" s="4">
+      <c r="U2" s="4">
         <f t="shared" si="0"/>
         <v>45550</v>
       </c>
-      <c r="U2" s="4">
+      <c r="V2" s="4">
         <f t="shared" si="0"/>
         <v>45551</v>
       </c>
-      <c r="V2" s="4">
+      <c r="W2" s="4">
         <f t="shared" si="0"/>
         <v>45552</v>
       </c>
-      <c r="W2" s="4">
+      <c r="X2" s="4">
         <f t="shared" si="0"/>
         <v>45553</v>
       </c>
-      <c r="X2" s="4">
+      <c r="Y2" s="4">
         <f t="shared" si="0"/>
         <v>45554</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Z2" s="4">
         <f t="shared" si="0"/>
         <v>45555</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="AA2" s="4">
         <f t="shared" si="0"/>
         <v>45556</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AB2" s="4">
         <f t="shared" si="0"/>
         <v>45557</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AC2" s="4">
         <f t="shared" si="0"/>
         <v>45558</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AD2" s="4">
         <f t="shared" si="0"/>
         <v>45559</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AE2" s="4">
         <f t="shared" si="0"/>
         <v>45560</v>
       </c>
-      <c r="AE2" s="4">
+      <c r="AF2" s="4">
         <f t="shared" si="0"/>
         <v>45561</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AG2" s="4">
         <f t="shared" si="0"/>
         <v>45562</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AH2" s="4">
         <f t="shared" si="0"/>
         <v>45563</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AI2" s="4">
         <f t="shared" si="0"/>
         <v>45564</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AJ2" s="4">
         <f t="shared" si="0"/>
         <v>45565</v>
       </c>
-      <c r="AJ2" s="47">
+      <c r="AK2" s="47">
         <f t="shared" si="0"/>
         <v>45566</v>
       </c>
-      <c r="AK2" s="46">
+      <c r="AL2" s="46">
         <f t="shared" si="0"/>
         <v>45567</v>
       </c>
-      <c r="AL2" s="4">
+      <c r="AM2" s="4">
         <f t="shared" si="0"/>
         <v>45568</v>
       </c>
-      <c r="AM2" s="4">
+      <c r="AN2" s="4">
         <f t="shared" si="0"/>
         <v>45569</v>
       </c>
-      <c r="AN2" s="4">
+      <c r="AO2" s="4">
         <f t="shared" si="0"/>
         <v>45570</v>
       </c>
-      <c r="AO2" s="4">
+      <c r="AP2" s="4">
         <f t="shared" si="0"/>
         <v>45571</v>
       </c>
-      <c r="AP2" s="4">
+      <c r="AQ2" s="4">
         <f t="shared" si="0"/>
         <v>45572</v>
       </c>
-      <c r="AQ2" s="4">
+      <c r="AR2" s="4">
         <f t="shared" si="0"/>
         <v>45573</v>
       </c>
-      <c r="AR2" s="4">
+      <c r="AS2" s="4">
         <f t="shared" si="0"/>
         <v>45574</v>
       </c>
-      <c r="AS2" s="4">
+      <c r="AT2" s="4">
         <f t="shared" si="0"/>
         <v>45575</v>
       </c>
-      <c r="AT2" s="4">
+      <c r="AU2" s="4">
         <f t="shared" si="0"/>
         <v>45576</v>
       </c>
-      <c r="AU2" s="4">
+      <c r="AV2" s="4">
         <f t="shared" si="0"/>
         <v>45577</v>
       </c>
-      <c r="AV2" s="4">
+      <c r="AW2" s="4">
         <f t="shared" si="0"/>
         <v>45578</v>
       </c>
-      <c r="AW2" s="4">
+      <c r="AX2" s="4">
         <f t="shared" si="0"/>
         <v>45579</v>
       </c>
-      <c r="AX2" s="4">
+      <c r="AY2" s="4">
         <f t="shared" si="0"/>
         <v>45580</v>
       </c>
-      <c r="AY2" s="4">
+      <c r="AZ2" s="4">
         <f t="shared" si="0"/>
         <v>45581</v>
       </c>
-      <c r="AZ2" s="4">
+      <c r="BA2" s="4">
         <f t="shared" si="0"/>
         <v>45582</v>
       </c>
-      <c r="BA2" s="4">
+      <c r="BB2" s="4">
         <f t="shared" si="0"/>
         <v>45583</v>
       </c>
-      <c r="BB2" s="4">
+      <c r="BC2" s="4">
         <f t="shared" si="0"/>
         <v>45584</v>
       </c>
-      <c r="BC2" s="4">
+      <c r="BD2" s="4">
         <f t="shared" si="0"/>
         <v>45585</v>
       </c>
-      <c r="BD2" s="4">
+      <c r="BE2" s="4">
         <f t="shared" si="0"/>
         <v>45586</v>
       </c>
-      <c r="BE2" s="4">
+      <c r="BF2" s="4">
         <f t="shared" si="0"/>
         <v>45587</v>
       </c>
-      <c r="BF2" s="4">
+      <c r="BG2" s="4">
         <f t="shared" si="0"/>
         <v>45588</v>
       </c>
-      <c r="BG2" s="4">
+      <c r="BH2" s="4">
         <f t="shared" si="0"/>
         <v>45589</v>
       </c>
-      <c r="BH2" s="4">
+      <c r="BI2" s="4">
         <f t="shared" si="0"/>
         <v>45590</v>
       </c>
-      <c r="BI2" s="4">
+      <c r="BJ2" s="4">
         <f t="shared" si="0"/>
         <v>45591</v>
       </c>
-      <c r="BJ2" s="4">
+      <c r="BK2" s="4">
         <f t="shared" si="0"/>
         <v>45592</v>
       </c>
-      <c r="BK2" s="4">
+      <c r="BL2" s="4">
         <f t="shared" si="0"/>
         <v>45593</v>
       </c>
-      <c r="BL2" s="4">
+      <c r="BM2" s="4">
         <f t="shared" si="0"/>
         <v>45594</v>
       </c>
-      <c r="BM2" s="4">
+      <c r="BN2" s="4">
         <f t="shared" si="0"/>
         <v>45595</v>
       </c>
-      <c r="BN2" s="47">
+      <c r="BO2" s="47">
         <f t="shared" si="0"/>
         <v>45596</v>
       </c>
     </row>
-    <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="48" t="s">
+    <row r="3" spans="1:67" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A3" s="202"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="I3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="J3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="K3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="L3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="M3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="57" t="s">
+      <c r="N3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="O3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="57" t="s">
+      <c r="P3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="56" t="s">
+      <c r="Q3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="57" t="s">
+      <c r="R3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="57" t="s">
+      <c r="S3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="56" t="s">
+      <c r="T3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="57" t="s">
+      <c r="U3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="56" t="s">
+      <c r="V3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="57" t="s">
+      <c r="W3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="56" t="s">
+      <c r="X3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="57" t="s">
+      <c r="Y3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="57" t="s">
+      <c r="Z3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="56" t="s">
+      <c r="AA3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="57" t="s">
+      <c r="AB3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" s="56" t="s">
+      <c r="AC3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="57" t="s">
+      <c r="AD3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AD3" s="56" t="s">
+      <c r="AE3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="57" t="s">
+      <c r="AF3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="AF3" s="57" t="s">
+      <c r="AG3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AG3" s="56" t="s">
+      <c r="AH3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AH3" s="57" t="s">
+      <c r="AI3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AI3" s="56" t="s">
+      <c r="AJ3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AJ3" s="160" t="s">
+      <c r="AK3" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="AK3" s="183" t="s">
+      <c r="AL3" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="AL3" s="57" t="s">
+      <c r="AM3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="AM3" s="57" t="s">
+      <c r="AN3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="184" t="s">
+      <c r="AO3" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="AO3" s="57" t="s">
+      <c r="AP3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AP3" s="184" t="s">
+      <c r="AQ3" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="AQ3" s="57" t="s">
+      <c r="AR3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AR3" s="184" t="s">
+      <c r="AS3" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="AS3" s="57" t="s">
+      <c r="AT3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="AT3" s="57" t="s">
+      <c r="AU3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AU3" s="184" t="s">
+      <c r="AV3" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="AV3" s="57" t="s">
+      <c r="AW3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AW3" s="184" t="s">
+      <c r="AX3" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="AX3" s="57" t="s">
+      <c r="AY3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AY3" s="184" t="s">
+      <c r="AZ3" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="AZ3" s="57" t="s">
+      <c r="BA3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="BA3" s="57" t="s">
+      <c r="BB3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BB3" s="184" t="s">
+      <c r="BC3" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="BC3" s="57" t="s">
+      <c r="BD3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BD3" s="184" t="s">
+      <c r="BE3" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="BE3" s="57" t="s">
+      <c r="BF3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BF3" s="184" t="s">
+      <c r="BG3" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="BG3" s="57" t="s">
+      <c r="BH3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="BH3" s="57" t="s">
+      <c r="BI3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BI3" s="184" t="s">
+      <c r="BJ3" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="BJ3" s="57" t="s">
+      <c r="BK3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BK3" s="184" t="s">
+      <c r="BL3" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="BL3" s="57" t="s">
+      <c r="BM3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BM3" s="184" t="s">
+      <c r="BN3" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="BN3" s="160" t="s">
+      <c r="BO3" s="79" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="90">
+    <row r="4" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A4" s="190">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="10"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="193" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="195"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="18"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="18"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="12"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="10"/>
+      <c r="V4" s="18"/>
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
       <c r="Y4" s="10"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="18"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="12"/>
       <c r="AB4" s="18"/>
-      <c r="AC4" s="10"/>
+      <c r="AC4" s="18"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
       <c r="AF4" s="10"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="161"/>
-      <c r="AK4" s="172"/>
-      <c r="AL4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="80"/>
+      <c r="AL4" s="90"/>
       <c r="AM4" s="10"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="18"/>
       <c r="AQ4" s="10"/>
       <c r="AR4" s="10"/>
       <c r="AS4" s="10"/>
       <c r="AT4" s="10"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="18"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="12"/>
       <c r="AW4" s="18"/>
-      <c r="AX4" s="10"/>
+      <c r="AX4" s="18"/>
       <c r="AY4" s="10"/>
       <c r="AZ4" s="10"/>
       <c r="BA4" s="10"/>
-      <c r="BB4" s="12"/>
-      <c r="BC4" s="18"/>
-      <c r="BD4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="18"/>
       <c r="BE4" s="10"/>
       <c r="BF4" s="10"/>
       <c r="BG4" s="10"/>
       <c r="BH4" s="10"/>
-      <c r="BI4" s="12"/>
-      <c r="BJ4" s="18"/>
-      <c r="BK4" s="10"/>
+      <c r="BI4" s="10"/>
+      <c r="BJ4" s="12"/>
+      <c r="BK4" s="18"/>
       <c r="BL4" s="10"/>
       <c r="BM4" s="10"/>
-      <c r="BN4" s="161"/>
-    </row>
-    <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="91"/>
+      <c r="BN4" s="10"/>
+      <c r="BO4" s="80"/>
+    </row>
+    <row r="5" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A5" s="144"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="9"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="22"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="22"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="16"/>
       <c r="U5" s="22"/>
-      <c r="V5" s="9"/>
+      <c r="V5" s="22"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="22"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="16"/>
       <c r="AB5" s="22"/>
-      <c r="AC5" s="9"/>
+      <c r="AC5" s="22"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="9"/>
       <c r="AF5" s="9"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="162"/>
-      <c r="AK5" s="173"/>
-      <c r="AL5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="81"/>
+      <c r="AL5" s="91"/>
       <c r="AM5" s="9"/>
-      <c r="AN5" s="16"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="22"/>
       <c r="AQ5" s="9"/>
       <c r="AR5" s="9"/>
       <c r="AS5" s="9"/>
       <c r="AT5" s="9"/>
-      <c r="AU5" s="16"/>
-      <c r="AV5" s="22"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="16"/>
       <c r="AW5" s="22"/>
-      <c r="AX5" s="9"/>
+      <c r="AX5" s="22"/>
       <c r="AY5" s="9"/>
       <c r="AZ5" s="9"/>
       <c r="BA5" s="9"/>
-      <c r="BB5" s="16"/>
-      <c r="BC5" s="22"/>
-      <c r="BD5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="16"/>
+      <c r="BD5" s="22"/>
       <c r="BE5" s="9"/>
       <c r="BF5" s="9"/>
       <c r="BG5" s="9"/>
       <c r="BH5" s="9"/>
-      <c r="BI5" s="16"/>
-      <c r="BJ5" s="22"/>
-      <c r="BK5" s="9"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="16"/>
+      <c r="BK5" s="22"/>
       <c r="BL5" s="9"/>
       <c r="BM5" s="9"/>
-      <c r="BN5" s="162"/>
-    </row>
-    <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="108">
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="81"/>
+    </row>
+    <row r="6" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A6" s="130">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="153"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="19"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="186" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="188"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="13"/>
       <c r="U6" s="19"/>
-      <c r="V6" s="7"/>
+      <c r="V6" s="19"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="19"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="13"/>
       <c r="AB6" s="19"/>
-      <c r="AC6" s="7"/>
+      <c r="AC6" s="19"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="163"/>
-      <c r="AK6" s="174"/>
-      <c r="AL6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="82"/>
+      <c r="AL6" s="92"/>
       <c r="AM6" s="7"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="19"/>
       <c r="AQ6" s="7"/>
       <c r="AR6" s="7"/>
       <c r="AS6" s="7"/>
       <c r="AT6" s="7"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="19"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="13"/>
       <c r="AW6" s="19"/>
-      <c r="AX6" s="7"/>
+      <c r="AX6" s="19"/>
       <c r="AY6" s="7"/>
       <c r="AZ6" s="7"/>
       <c r="BA6" s="7"/>
-      <c r="BB6" s="13"/>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="7"/>
+      <c r="BB6" s="7"/>
+      <c r="BC6" s="13"/>
+      <c r="BD6" s="19"/>
       <c r="BE6" s="7"/>
       <c r="BF6" s="7"/>
       <c r="BG6" s="7"/>
       <c r="BH6" s="7"/>
-      <c r="BI6" s="13"/>
-      <c r="BJ6" s="19"/>
-      <c r="BK6" s="7"/>
+      <c r="BI6" s="7"/>
+      <c r="BJ6" s="13"/>
+      <c r="BK6" s="19"/>
       <c r="BL6" s="7"/>
       <c r="BM6" s="7"/>
-      <c r="BN6" s="163"/>
-    </row>
-    <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="91"/>
+      <c r="BN6" s="7"/>
+      <c r="BO6" s="82"/>
+    </row>
+    <row r="7" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A7" s="144"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="154"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="154"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="154"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="26"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="25"/>
       <c r="U7" s="26"/>
-      <c r="V7" s="24"/>
+      <c r="V7" s="26"/>
       <c r="W7" s="24"/>
       <c r="X7" s="24"/>
       <c r="Y7" s="24"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="26"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="25"/>
       <c r="AB7" s="26"/>
-      <c r="AC7" s="24"/>
+      <c r="AC7" s="26"/>
       <c r="AD7" s="24"/>
       <c r="AE7" s="24"/>
       <c r="AF7" s="24"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="164"/>
-      <c r="AK7" s="175"/>
-      <c r="AL7" s="24"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="93"/>
       <c r="AM7" s="24"/>
-      <c r="AN7" s="25"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="24"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="26"/>
       <c r="AQ7" s="24"/>
       <c r="AR7" s="24"/>
       <c r="AS7" s="24"/>
       <c r="AT7" s="24"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="26"/>
+      <c r="AU7" s="24"/>
+      <c r="AV7" s="25"/>
       <c r="AW7" s="26"/>
-      <c r="AX7" s="24"/>
+      <c r="AX7" s="26"/>
       <c r="AY7" s="24"/>
       <c r="AZ7" s="24"/>
       <c r="BA7" s="24"/>
-      <c r="BB7" s="25"/>
-      <c r="BC7" s="26"/>
-      <c r="BD7" s="24"/>
+      <c r="BB7" s="24"/>
+      <c r="BC7" s="25"/>
+      <c r="BD7" s="26"/>
       <c r="BE7" s="24"/>
       <c r="BF7" s="24"/>
       <c r="BG7" s="24"/>
       <c r="BH7" s="24"/>
-      <c r="BI7" s="25"/>
-      <c r="BJ7" s="26"/>
-      <c r="BK7" s="24"/>
+      <c r="BI7" s="24"/>
+      <c r="BJ7" s="25"/>
+      <c r="BK7" s="26"/>
       <c r="BL7" s="24"/>
       <c r="BM7" s="24"/>
-      <c r="BN7" s="164"/>
-    </row>
-    <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="117">
+      <c r="BN7" s="24"/>
+      <c r="BO7" s="83"/>
+    </row>
+    <row r="8" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A8" s="142">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="118" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="155"/>
-      <c r="R8" s="155"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="21"/>
+      <c r="C8" s="179" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="180"/>
+      <c r="E8" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="178" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="185"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="15"/>
       <c r="U8" s="21"/>
-      <c r="V8" s="6"/>
+      <c r="V8" s="21"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="21"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="15"/>
       <c r="AB8" s="21"/>
-      <c r="AC8" s="6"/>
+      <c r="AC8" s="21"/>
       <c r="AD8" s="6"/>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="165"/>
-      <c r="AK8" s="176"/>
-      <c r="AL8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="84"/>
+      <c r="AL8" s="94"/>
       <c r="AM8" s="6"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="21"/>
       <c r="AQ8" s="6"/>
       <c r="AR8" s="6"/>
       <c r="AS8" s="6"/>
       <c r="AT8" s="6"/>
-      <c r="AU8" s="15"/>
-      <c r="AV8" s="21"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="15"/>
       <c r="AW8" s="21"/>
-      <c r="AX8" s="6"/>
+      <c r="AX8" s="21"/>
       <c r="AY8" s="6"/>
       <c r="AZ8" s="6"/>
       <c r="BA8" s="6"/>
-      <c r="BB8" s="15"/>
-      <c r="BC8" s="21"/>
-      <c r="BD8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="15"/>
+      <c r="BD8" s="21"/>
       <c r="BE8" s="6"/>
       <c r="BF8" s="6"/>
       <c r="BG8" s="6"/>
       <c r="BH8" s="6"/>
-      <c r="BI8" s="15"/>
-      <c r="BJ8" s="21"/>
-      <c r="BK8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="15"/>
+      <c r="BK8" s="21"/>
       <c r="BL8" s="6"/>
       <c r="BM8" s="6"/>
-      <c r="BN8" s="165"/>
-    </row>
-    <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="154"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="156"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="166"/>
-      <c r="AK9" s="177"/>
-      <c r="AL9" s="43"/>
-      <c r="AM9" s="43"/>
-      <c r="AN9" s="44"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="43"/>
-      <c r="AQ9" s="43"/>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="43"/>
-      <c r="AT9" s="43"/>
-      <c r="AU9" s="44"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="43"/>
-      <c r="AY9" s="43"/>
-      <c r="AZ9" s="43"/>
-      <c r="BA9" s="43"/>
-      <c r="BB9" s="44"/>
-      <c r="BC9" s="45"/>
-      <c r="BD9" s="43"/>
-      <c r="BE9" s="43"/>
-      <c r="BF9" s="43"/>
-      <c r="BG9" s="43"/>
-      <c r="BH9" s="43"/>
-      <c r="BI9" s="44"/>
-      <c r="BJ9" s="45"/>
-      <c r="BK9" s="43"/>
-      <c r="BL9" s="43"/>
-      <c r="BM9" s="43"/>
-      <c r="BN9" s="166"/>
-    </row>
-    <row r="10" spans="1:66" ht="12" customHeight="1">
-      <c r="A10" s="88">
-        <v>4</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="157"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="152"/>
-      <c r="R10" s="152"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="22"/>
+      <c r="BN8" s="6"/>
+      <c r="BO8" s="84"/>
+    </row>
+    <row r="9" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A9" s="143"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="81"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="22"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+      <c r="BH9" s="9"/>
+      <c r="BI9" s="9"/>
+      <c r="BJ9" s="16"/>
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="9"/>
+      <c r="BM9" s="9"/>
+      <c r="BN9" s="9"/>
+      <c r="BO9" s="81"/>
+    </row>
+    <row r="10" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A10" s="143"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="125"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="16"/>
       <c r="U10" s="22"/>
-      <c r="V10" s="9"/>
+      <c r="V10" s="22"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="22"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="16"/>
       <c r="AB10" s="22"/>
-      <c r="AC10" s="9"/>
+      <c r="AC10" s="22"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
       <c r="AF10" s="9"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="162"/>
-      <c r="AK10" s="173"/>
-      <c r="AL10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="81"/>
+      <c r="AL10" s="91"/>
       <c r="AM10" s="9"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="22"/>
       <c r="AQ10" s="9"/>
       <c r="AR10" s="9"/>
       <c r="AS10" s="9"/>
       <c r="AT10" s="9"/>
-      <c r="AU10" s="16"/>
-      <c r="AV10" s="22"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="16"/>
       <c r="AW10" s="22"/>
-      <c r="AX10" s="9"/>
+      <c r="AX10" s="22"/>
       <c r="AY10" s="9"/>
       <c r="AZ10" s="9"/>
       <c r="BA10" s="9"/>
-      <c r="BB10" s="16"/>
-      <c r="BC10" s="22"/>
-      <c r="BD10" s="9"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="22"/>
       <c r="BE10" s="9"/>
       <c r="BF10" s="9"/>
       <c r="BG10" s="9"/>
       <c r="BH10" s="9"/>
-      <c r="BI10" s="16"/>
-      <c r="BJ10" s="22"/>
-      <c r="BK10" s="9"/>
+      <c r="BI10" s="9"/>
+      <c r="BJ10" s="16"/>
+      <c r="BK10" s="22"/>
       <c r="BL10" s="9"/>
       <c r="BM10" s="9"/>
-      <c r="BN10" s="162"/>
-    </row>
-    <row r="11" spans="1:66" ht="12" customHeight="1">
-      <c r="A11" s="89"/>
+      <c r="BN10" s="9"/>
+      <c r="BO10" s="81"/>
+    </row>
+    <row r="11" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A11" s="143"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="152"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="22"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="16"/>
       <c r="U11" s="22"/>
-      <c r="V11" s="9"/>
+      <c r="V11" s="22"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="22"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="16"/>
       <c r="AB11" s="22"/>
-      <c r="AC11" s="9"/>
+      <c r="AC11" s="22"/>
       <c r="AD11" s="9"/>
       <c r="AE11" s="9"/>
       <c r="AF11" s="9"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="162"/>
-      <c r="AK11" s="173"/>
-      <c r="AL11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="81"/>
+      <c r="AL11" s="91"/>
       <c r="AM11" s="9"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="22"/>
-      <c r="AP11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="22"/>
       <c r="AQ11" s="9"/>
       <c r="AR11" s="9"/>
       <c r="AS11" s="9"/>
       <c r="AT11" s="9"/>
-      <c r="AU11" s="16"/>
-      <c r="AV11" s="22"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="16"/>
       <c r="AW11" s="22"/>
-      <c r="AX11" s="9"/>
+      <c r="AX11" s="22"/>
       <c r="AY11" s="9"/>
       <c r="AZ11" s="9"/>
       <c r="BA11" s="9"/>
-      <c r="BB11" s="16"/>
-      <c r="BC11" s="22"/>
-      <c r="BD11" s="9"/>
+      <c r="BB11" s="9"/>
+      <c r="BC11" s="16"/>
+      <c r="BD11" s="22"/>
       <c r="BE11" s="9"/>
       <c r="BF11" s="9"/>
       <c r="BG11" s="9"/>
       <c r="BH11" s="9"/>
-      <c r="BI11" s="16"/>
-      <c r="BJ11" s="22"/>
-      <c r="BK11" s="9"/>
+      <c r="BI11" s="9"/>
+      <c r="BJ11" s="16"/>
+      <c r="BK11" s="22"/>
       <c r="BL11" s="9"/>
       <c r="BM11" s="9"/>
-      <c r="BN11" s="162"/>
-    </row>
-    <row r="12" spans="1:66" ht="12" customHeight="1">
-      <c r="A12" s="117">
-        <v>5</v>
-      </c>
+      <c r="BN11" s="9"/>
+      <c r="BO11" s="81"/>
+    </row>
+    <row r="12" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A12" s="143"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="109" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="19"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="114" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="125"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="13"/>
       <c r="U12" s="19"/>
-      <c r="V12" s="7"/>
+      <c r="V12" s="19"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="19"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="13"/>
       <c r="AB12" s="19"/>
-      <c r="AC12" s="7"/>
+      <c r="AC12" s="19"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
       <c r="AF12" s="7"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="163"/>
-      <c r="AK12" s="174"/>
-      <c r="AL12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="82"/>
+      <c r="AL12" s="92"/>
       <c r="AM12" s="7"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="19"/>
-      <c r="AP12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="19"/>
       <c r="AQ12" s="7"/>
       <c r="AR12" s="7"/>
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="19"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="13"/>
       <c r="AW12" s="19"/>
-      <c r="AX12" s="7"/>
+      <c r="AX12" s="19"/>
       <c r="AY12" s="7"/>
       <c r="AZ12" s="7"/>
       <c r="BA12" s="7"/>
-      <c r="BB12" s="13"/>
-      <c r="BC12" s="19"/>
-      <c r="BD12" s="7"/>
+      <c r="BB12" s="7"/>
+      <c r="BC12" s="13"/>
+      <c r="BD12" s="19"/>
       <c r="BE12" s="7"/>
       <c r="BF12" s="7"/>
       <c r="BG12" s="7"/>
       <c r="BH12" s="7"/>
-      <c r="BI12" s="13"/>
-      <c r="BJ12" s="19"/>
-      <c r="BK12" s="7"/>
+      <c r="BI12" s="7"/>
+      <c r="BJ12" s="13"/>
+      <c r="BK12" s="19"/>
       <c r="BL12" s="7"/>
       <c r="BM12" s="7"/>
-      <c r="BN12" s="163"/>
-    </row>
-    <row r="13" spans="1:66" ht="12" customHeight="1">
-      <c r="A13" s="88"/>
+      <c r="BN12" s="7"/>
+      <c r="BO12" s="82"/>
+    </row>
+    <row r="13" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A13" s="143"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="164"/>
-      <c r="AK13" s="175"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="25"/>
-      <c r="AO13" s="26"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="24"/>
-      <c r="AT13" s="24"/>
-      <c r="AU13" s="25"/>
-      <c r="AV13" s="26"/>
-      <c r="AW13" s="26"/>
-      <c r="AX13" s="24"/>
-      <c r="AY13" s="24"/>
-      <c r="AZ13" s="24"/>
-      <c r="BA13" s="24"/>
-      <c r="BB13" s="25"/>
-      <c r="BC13" s="26"/>
-      <c r="BD13" s="24"/>
-      <c r="BE13" s="24"/>
-      <c r="BF13" s="24"/>
-      <c r="BG13" s="24"/>
-      <c r="BH13" s="24"/>
-      <c r="BI13" s="25"/>
-      <c r="BJ13" s="26"/>
-      <c r="BK13" s="24"/>
-      <c r="BL13" s="24"/>
-      <c r="BM13" s="24"/>
-      <c r="BN13" s="164"/>
-    </row>
-    <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="130">
-        <v>6</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="155"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="155"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="165"/>
-      <c r="AK14" s="176"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="15"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="6"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="6"/>
-      <c r="BA14" s="6"/>
-      <c r="BB14" s="15"/>
-      <c r="BC14" s="21"/>
-      <c r="BD14" s="6"/>
-      <c r="BE14" s="6"/>
-      <c r="BF14" s="6"/>
-      <c r="BG14" s="6"/>
-      <c r="BH14" s="6"/>
-      <c r="BI14" s="15"/>
-      <c r="BJ14" s="21"/>
-      <c r="BK14" s="6"/>
-      <c r="BL14" s="6"/>
-      <c r="BM14" s="6"/>
-      <c r="BN14" s="165"/>
-    </row>
-    <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="130"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="82"/>
+      <c r="AL13" s="92"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="7"/>
+      <c r="AT13" s="7"/>
+      <c r="AU13" s="7"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="19"/>
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="7"/>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="7"/>
+      <c r="BC13" s="13"/>
+      <c r="BD13" s="19"/>
+      <c r="BE13" s="7"/>
+      <c r="BF13" s="7"/>
+      <c r="BG13" s="7"/>
+      <c r="BH13" s="7"/>
+      <c r="BI13" s="7"/>
+      <c r="BJ13" s="13"/>
+      <c r="BK13" s="19"/>
+      <c r="BL13" s="7"/>
+      <c r="BM13" s="7"/>
+      <c r="BN13" s="7"/>
+      <c r="BO13" s="82"/>
+    </row>
+    <row r="14" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A14" s="143"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="125"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="82"/>
+      <c r="AL14" s="92"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="7"/>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="7"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="19"/>
+      <c r="AX14" s="19"/>
+      <c r="AY14" s="7"/>
+      <c r="AZ14" s="7"/>
+      <c r="BA14" s="7"/>
+      <c r="BB14" s="7"/>
+      <c r="BC14" s="13"/>
+      <c r="BD14" s="19"/>
+      <c r="BE14" s="7"/>
+      <c r="BF14" s="7"/>
+      <c r="BG14" s="7"/>
+      <c r="BH14" s="7"/>
+      <c r="BI14" s="7"/>
+      <c r="BJ14" s="13"/>
+      <c r="BK14" s="19"/>
+      <c r="BL14" s="7"/>
+      <c r="BM14" s="7"/>
+      <c r="BN14" s="7"/>
+      <c r="BO14" s="82"/>
+    </row>
+    <row r="15" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A15" s="143"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="154"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="164"/>
-      <c r="AK15" s="175"/>
-      <c r="AL15" s="24"/>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="26"/>
-      <c r="AP15" s="24"/>
-      <c r="AQ15" s="24"/>
-      <c r="AR15" s="24"/>
-      <c r="AS15" s="24"/>
-      <c r="AT15" s="24"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="26"/>
-      <c r="AW15" s="26"/>
-      <c r="AX15" s="24"/>
-      <c r="AY15" s="24"/>
-      <c r="AZ15" s="24"/>
-      <c r="BA15" s="24"/>
-      <c r="BB15" s="25"/>
-      <c r="BC15" s="26"/>
-      <c r="BD15" s="24"/>
-      <c r="BE15" s="24"/>
-      <c r="BF15" s="24"/>
-      <c r="BG15" s="24"/>
-      <c r="BH15" s="24"/>
-      <c r="BI15" s="25"/>
-      <c r="BJ15" s="26"/>
-      <c r="BK15" s="24"/>
-      <c r="BL15" s="24"/>
-      <c r="BM15" s="24"/>
-      <c r="BN15" s="164"/>
-    </row>
-    <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="130">
-        <v>7</v>
-      </c>
+      <c r="C15" s="174"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="82"/>
+      <c r="AL15" s="92"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="7"/>
+      <c r="AR15" s="7"/>
+      <c r="AS15" s="7"/>
+      <c r="AT15" s="7"/>
+      <c r="AU15" s="7"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="19"/>
+      <c r="AX15" s="19"/>
+      <c r="AY15" s="7"/>
+      <c r="AZ15" s="7"/>
+      <c r="BA15" s="7"/>
+      <c r="BB15" s="7"/>
+      <c r="BC15" s="13"/>
+      <c r="BD15" s="19"/>
+      <c r="BE15" s="7"/>
+      <c r="BF15" s="7"/>
+      <c r="BG15" s="7"/>
+      <c r="BH15" s="7"/>
+      <c r="BI15" s="7"/>
+      <c r="BJ15" s="13"/>
+      <c r="BK15" s="19"/>
+      <c r="BL15" s="7"/>
+      <c r="BM15" s="7"/>
+      <c r="BN15" s="7"/>
+      <c r="BO15" s="82"/>
+    </row>
+    <row r="16" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A16" s="143"/>
       <c r="B16" s="36"/>
-      <c r="C16" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="153"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="19"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="125"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="13"/>
       <c r="U16" s="19"/>
-      <c r="V16" s="7"/>
+      <c r="V16" s="19"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="19"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="13"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="7"/>
+      <c r="AC16" s="19"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="163"/>
-      <c r="AK16" s="174"/>
-      <c r="AL16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="82"/>
+      <c r="AL16" s="92"/>
       <c r="AM16" s="7"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="19"/>
-      <c r="AP16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="19"/>
       <c r="AQ16" s="7"/>
       <c r="AR16" s="7"/>
       <c r="AS16" s="7"/>
       <c r="AT16" s="7"/>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="19"/>
+      <c r="AU16" s="7"/>
+      <c r="AV16" s="13"/>
       <c r="AW16" s="19"/>
-      <c r="AX16" s="7"/>
+      <c r="AX16" s="19"/>
       <c r="AY16" s="7"/>
       <c r="AZ16" s="7"/>
       <c r="BA16" s="7"/>
-      <c r="BB16" s="13"/>
-      <c r="BC16" s="19"/>
-      <c r="BD16" s="7"/>
+      <c r="BB16" s="7"/>
+      <c r="BC16" s="13"/>
+      <c r="BD16" s="19"/>
       <c r="BE16" s="7"/>
       <c r="BF16" s="7"/>
       <c r="BG16" s="7"/>
       <c r="BH16" s="7"/>
-      <c r="BI16" s="13"/>
-      <c r="BJ16" s="19"/>
-      <c r="BK16" s="7"/>
+      <c r="BI16" s="7"/>
+      <c r="BJ16" s="13"/>
+      <c r="BK16" s="19"/>
       <c r="BL16" s="7"/>
       <c r="BM16" s="7"/>
-      <c r="BN16" s="163"/>
-    </row>
-    <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="130"/>
+      <c r="BN16" s="7"/>
+      <c r="BO16" s="82"/>
+    </row>
+    <row r="17" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A17" s="143"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="154"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="164"/>
-      <c r="AK17" s="175"/>
-      <c r="AL17" s="24"/>
-      <c r="AM17" s="24"/>
-      <c r="AN17" s="25"/>
-      <c r="AO17" s="26"/>
-      <c r="AP17" s="24"/>
-      <c r="AQ17" s="24"/>
-      <c r="AR17" s="24"/>
-      <c r="AS17" s="24"/>
-      <c r="AT17" s="24"/>
-      <c r="AU17" s="25"/>
-      <c r="AV17" s="26"/>
-      <c r="AW17" s="26"/>
-      <c r="AX17" s="24"/>
-      <c r="AY17" s="24"/>
-      <c r="AZ17" s="24"/>
-      <c r="BA17" s="24"/>
-      <c r="BB17" s="25"/>
-      <c r="BC17" s="26"/>
-      <c r="BD17" s="24"/>
-      <c r="BE17" s="24"/>
-      <c r="BF17" s="24"/>
-      <c r="BG17" s="24"/>
-      <c r="BH17" s="24"/>
-      <c r="BI17" s="25"/>
-      <c r="BJ17" s="26"/>
-      <c r="BK17" s="24"/>
-      <c r="BL17" s="24"/>
-      <c r="BM17" s="24"/>
-      <c r="BN17" s="164"/>
-    </row>
-    <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="130">
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="82"/>
+      <c r="AL17" s="92"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="13"/>
+      <c r="AP17" s="19"/>
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="7"/>
+      <c r="AS17" s="7"/>
+      <c r="AT17" s="7"/>
+      <c r="AU17" s="7"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="7"/>
+      <c r="AZ17" s="7"/>
+      <c r="BA17" s="7"/>
+      <c r="BB17" s="7"/>
+      <c r="BC17" s="13"/>
+      <c r="BD17" s="19"/>
+      <c r="BE17" s="7"/>
+      <c r="BF17" s="7"/>
+      <c r="BG17" s="7"/>
+      <c r="BH17" s="7"/>
+      <c r="BI17" s="7"/>
+      <c r="BJ17" s="13"/>
+      <c r="BK17" s="19"/>
+      <c r="BL17" s="7"/>
+      <c r="BM17" s="7"/>
+      <c r="BN17" s="7"/>
+      <c r="BO17" s="82"/>
+    </row>
+    <row r="18" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A18" s="143"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="181" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="182"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="125"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="82"/>
+      <c r="AL18" s="92"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="13"/>
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="7"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="19"/>
+      <c r="AX18" s="19"/>
+      <c r="AY18" s="7"/>
+      <c r="AZ18" s="7"/>
+      <c r="BA18" s="7"/>
+      <c r="BB18" s="7"/>
+      <c r="BC18" s="13"/>
+      <c r="BD18" s="19"/>
+      <c r="BE18" s="7"/>
+      <c r="BF18" s="7"/>
+      <c r="BG18" s="7"/>
+      <c r="BH18" s="7"/>
+      <c r="BI18" s="7"/>
+      <c r="BJ18" s="13"/>
+      <c r="BK18" s="19"/>
+      <c r="BL18" s="7"/>
+      <c r="BM18" s="7"/>
+      <c r="BN18" s="7"/>
+      <c r="BO18" s="82"/>
+    </row>
+    <row r="19" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A19" s="143"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="82"/>
+      <c r="AL19" s="92"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="13"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="7"/>
+      <c r="AV19" s="13"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="7"/>
+      <c r="AZ19" s="7"/>
+      <c r="BA19" s="7"/>
+      <c r="BB19" s="7"/>
+      <c r="BC19" s="13"/>
+      <c r="BD19" s="19"/>
+      <c r="BE19" s="7"/>
+      <c r="BF19" s="7"/>
+      <c r="BG19" s="7"/>
+      <c r="BH19" s="7"/>
+      <c r="BI19" s="7"/>
+      <c r="BJ19" s="13"/>
+      <c r="BK19" s="19"/>
+      <c r="BL19" s="7"/>
+      <c r="BM19" s="7"/>
+      <c r="BN19" s="7"/>
+      <c r="BO19" s="82"/>
+    </row>
+    <row r="20" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A20" s="143"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="181" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="182"/>
+      <c r="E20" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="125"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="107"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="82"/>
+      <c r="AL20" s="92"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="13"/>
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="7"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="7"/>
+      <c r="AZ20" s="7"/>
+      <c r="BA20" s="7"/>
+      <c r="BB20" s="7"/>
+      <c r="BC20" s="13"/>
+      <c r="BD20" s="19"/>
+      <c r="BE20" s="7"/>
+      <c r="BF20" s="7"/>
+      <c r="BG20" s="7"/>
+      <c r="BH20" s="7"/>
+      <c r="BI20" s="7"/>
+      <c r="BJ20" s="13"/>
+      <c r="BK20" s="19"/>
+      <c r="BL20" s="7"/>
+      <c r="BM20" s="7"/>
+      <c r="BN20" s="7"/>
+      <c r="BO20" s="82"/>
+    </row>
+    <row r="21" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A21" s="143"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="174"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="108"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="107"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="82"/>
+      <c r="AL21" s="92"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="13"/>
+      <c r="AP21" s="19"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="7"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="19"/>
+      <c r="AX21" s="19"/>
+      <c r="AY21" s="7"/>
+      <c r="AZ21" s="7"/>
+      <c r="BA21" s="7"/>
+      <c r="BB21" s="7"/>
+      <c r="BC21" s="13"/>
+      <c r="BD21" s="19"/>
+      <c r="BE21" s="7"/>
+      <c r="BF21" s="7"/>
+      <c r="BG21" s="7"/>
+      <c r="BH21" s="7"/>
+      <c r="BI21" s="7"/>
+      <c r="BJ21" s="13"/>
+      <c r="BK21" s="19"/>
+      <c r="BL21" s="7"/>
+      <c r="BM21" s="7"/>
+      <c r="BN21" s="7"/>
+      <c r="BO21" s="82"/>
+    </row>
+    <row r="22" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A22" s="143"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="125"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="108"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="107"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="82"/>
+      <c r="AL22" s="92"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="13"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="7"/>
+      <c r="AV22" s="13"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="7"/>
+      <c r="AZ22" s="7"/>
+      <c r="BA22" s="7"/>
+      <c r="BB22" s="7"/>
+      <c r="BC22" s="13"/>
+      <c r="BD22" s="19"/>
+      <c r="BE22" s="7"/>
+      <c r="BF22" s="7"/>
+      <c r="BG22" s="7"/>
+      <c r="BH22" s="7"/>
+      <c r="BI22" s="7"/>
+      <c r="BJ22" s="13"/>
+      <c r="BK22" s="19"/>
+      <c r="BL22" s="7"/>
+      <c r="BM22" s="7"/>
+      <c r="BN22" s="7"/>
+      <c r="BO22" s="82"/>
+    </row>
+    <row r="23" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A23" s="143"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="117"/>
+      <c r="Y23" s="117"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="24"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="24"/>
+      <c r="AK23" s="83"/>
+      <c r="AL23" s="93"/>
+      <c r="AM23" s="24"/>
+      <c r="AN23" s="24"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="24"/>
+      <c r="AR23" s="24"/>
+      <c r="AS23" s="24"/>
+      <c r="AT23" s="24"/>
+      <c r="AU23" s="24"/>
+      <c r="AV23" s="25"/>
+      <c r="AW23" s="26"/>
+      <c r="AX23" s="26"/>
+      <c r="AY23" s="24"/>
+      <c r="AZ23" s="24"/>
+      <c r="BA23" s="24"/>
+      <c r="BB23" s="24"/>
+      <c r="BC23" s="25"/>
+      <c r="BD23" s="26"/>
+      <c r="BE23" s="24"/>
+      <c r="BF23" s="24"/>
+      <c r="BG23" s="24"/>
+      <c r="BH23" s="24"/>
+      <c r="BI23" s="24"/>
+      <c r="BJ23" s="25"/>
+      <c r="BK23" s="26"/>
+      <c r="BL23" s="24"/>
+      <c r="BM23" s="24"/>
+      <c r="BN23" s="24"/>
+      <c r="BO23" s="83"/>
+    </row>
+    <row r="24" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A24" s="143"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="125"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="117"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="24"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="83"/>
+      <c r="AL24" s="93"/>
+      <c r="AM24" s="24"/>
+      <c r="AN24" s="24"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="24"/>
+      <c r="AR24" s="24"/>
+      <c r="AS24" s="24"/>
+      <c r="AT24" s="24"/>
+      <c r="AU24" s="24"/>
+      <c r="AV24" s="25"/>
+      <c r="AW24" s="26"/>
+      <c r="AX24" s="26"/>
+      <c r="AY24" s="24"/>
+      <c r="AZ24" s="24"/>
+      <c r="BA24" s="24"/>
+      <c r="BB24" s="24"/>
+      <c r="BC24" s="25"/>
+      <c r="BD24" s="26"/>
+      <c r="BE24" s="24"/>
+      <c r="BF24" s="24"/>
+      <c r="BG24" s="24"/>
+      <c r="BH24" s="24"/>
+      <c r="BI24" s="24"/>
+      <c r="BJ24" s="25"/>
+      <c r="BK24" s="26"/>
+      <c r="BL24" s="24"/>
+      <c r="BM24" s="24"/>
+      <c r="BN24" s="24"/>
+      <c r="BO24" s="83"/>
+    </row>
+    <row r="25" spans="1:67" ht="13.5" customHeight="1">
+      <c r="A25" s="163"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="118"/>
+      <c r="Z25" s="118"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="23"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="111"/>
+      <c r="AL25" s="112"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="17"/>
+      <c r="AP25" s="23"/>
+      <c r="AQ25" s="8"/>
+      <c r="AR25" s="8"/>
+      <c r="AS25" s="8"/>
+      <c r="AT25" s="8"/>
+      <c r="AU25" s="8"/>
+      <c r="AV25" s="17"/>
+      <c r="AW25" s="23"/>
+      <c r="AX25" s="23"/>
+      <c r="AY25" s="8"/>
+      <c r="AZ25" s="8"/>
+      <c r="BA25" s="8"/>
+      <c r="BB25" s="8"/>
+      <c r="BC25" s="17"/>
+      <c r="BD25" s="23"/>
+      <c r="BE25" s="8"/>
+      <c r="BF25" s="8"/>
+      <c r="BG25" s="8"/>
+      <c r="BH25" s="8"/>
+      <c r="BI25" s="8"/>
+      <c r="BJ25" s="17"/>
+      <c r="BK25" s="23"/>
+      <c r="BL25" s="8"/>
+      <c r="BM25" s="8"/>
+      <c r="BN25" s="8"/>
+      <c r="BO25" s="111"/>
+    </row>
+    <row r="26" spans="1:67" ht="12" customHeight="1">
+      <c r="A26" s="143">
+        <v>4</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="174" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="175"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="178" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="165"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="116"/>
+      <c r="AE26" s="116"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="22"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="81"/>
+      <c r="AL26" s="91"/>
+      <c r="AM26" s="9"/>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="16"/>
+      <c r="AP26" s="22"/>
+      <c r="AQ26" s="9"/>
+      <c r="AR26" s="9"/>
+      <c r="AS26" s="9"/>
+      <c r="AT26" s="9"/>
+      <c r="AU26" s="9"/>
+      <c r="AV26" s="16"/>
+      <c r="AW26" s="22"/>
+      <c r="AX26" s="22"/>
+      <c r="AY26" s="9"/>
+      <c r="AZ26" s="9"/>
+      <c r="BA26" s="9"/>
+      <c r="BB26" s="9"/>
+      <c r="BC26" s="16"/>
+      <c r="BD26" s="22"/>
+      <c r="BE26" s="9"/>
+      <c r="BF26" s="9"/>
+      <c r="BG26" s="9"/>
+      <c r="BH26" s="9"/>
+      <c r="BI26" s="9"/>
+      <c r="BJ26" s="16"/>
+      <c r="BK26" s="22"/>
+      <c r="BL26" s="9"/>
+      <c r="BM26" s="9"/>
+      <c r="BN26" s="9"/>
+      <c r="BO26" s="81"/>
+    </row>
+    <row r="27" spans="1:67" ht="12" customHeight="1">
+      <c r="A27" s="163"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="176"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="22"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="81"/>
+      <c r="AL27" s="91"/>
+      <c r="AM27" s="9"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="16"/>
+      <c r="AP27" s="22"/>
+      <c r="AQ27" s="9"/>
+      <c r="AR27" s="9"/>
+      <c r="AS27" s="9"/>
+      <c r="AT27" s="9"/>
+      <c r="AU27" s="9"/>
+      <c r="AV27" s="16"/>
+      <c r="AW27" s="22"/>
+      <c r="AX27" s="22"/>
+      <c r="AY27" s="9"/>
+      <c r="AZ27" s="9"/>
+      <c r="BA27" s="9"/>
+      <c r="BB27" s="9"/>
+      <c r="BC27" s="16"/>
+      <c r="BD27" s="22"/>
+      <c r="BE27" s="9"/>
+      <c r="BF27" s="9"/>
+      <c r="BG27" s="9"/>
+      <c r="BH27" s="9"/>
+      <c r="BI27" s="9"/>
+      <c r="BJ27" s="16"/>
+      <c r="BK27" s="22"/>
+      <c r="BL27" s="9"/>
+      <c r="BM27" s="9"/>
+      <c r="BN27" s="9"/>
+      <c r="BO27" s="81"/>
+    </row>
+    <row r="28" spans="1:67" ht="12" customHeight="1">
+      <c r="A28" s="142">
+        <v>5</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="167" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="154"/>
+      <c r="E28" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="125"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="107"/>
+      <c r="AG28" s="107"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="107"/>
+      <c r="AK28" s="121"/>
+      <c r="AL28" s="92"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="19"/>
+      <c r="AQ28" s="7"/>
+      <c r="AR28" s="7"/>
+      <c r="AS28" s="7"/>
+      <c r="AT28" s="7"/>
+      <c r="AU28" s="7"/>
+      <c r="AV28" s="13"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="7"/>
+      <c r="AZ28" s="7"/>
+      <c r="BA28" s="7"/>
+      <c r="BB28" s="7"/>
+      <c r="BC28" s="13"/>
+      <c r="BD28" s="19"/>
+      <c r="BE28" s="7"/>
+      <c r="BF28" s="7"/>
+      <c r="BG28" s="7"/>
+      <c r="BH28" s="7"/>
+      <c r="BI28" s="7"/>
+      <c r="BJ28" s="13"/>
+      <c r="BK28" s="19"/>
+      <c r="BL28" s="7"/>
+      <c r="BM28" s="7"/>
+      <c r="BN28" s="7"/>
+      <c r="BO28" s="82"/>
+    </row>
+    <row r="29" spans="1:67" ht="12" customHeight="1">
+      <c r="A29" s="143"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="24"/>
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="117"/>
+      <c r="AG29" s="117"/>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="117"/>
+      <c r="AK29" s="120"/>
+      <c r="AL29" s="93"/>
+      <c r="AM29" s="24"/>
+      <c r="AN29" s="24"/>
+      <c r="AO29" s="25"/>
+      <c r="AP29" s="26"/>
+      <c r="AQ29" s="24"/>
+      <c r="AR29" s="24"/>
+      <c r="AS29" s="24"/>
+      <c r="AT29" s="24"/>
+      <c r="AU29" s="24"/>
+      <c r="AV29" s="25"/>
+      <c r="AW29" s="26"/>
+      <c r="AX29" s="26"/>
+      <c r="AY29" s="24"/>
+      <c r="AZ29" s="24"/>
+      <c r="BA29" s="24"/>
+      <c r="BB29" s="24"/>
+      <c r="BC29" s="25"/>
+      <c r="BD29" s="26"/>
+      <c r="BE29" s="24"/>
+      <c r="BF29" s="24"/>
+      <c r="BG29" s="24"/>
+      <c r="BH29" s="24"/>
+      <c r="BI29" s="24"/>
+      <c r="BJ29" s="25"/>
+      <c r="BK29" s="26"/>
+      <c r="BL29" s="24"/>
+      <c r="BM29" s="24"/>
+      <c r="BN29" s="24"/>
+      <c r="BO29" s="83"/>
+    </row>
+    <row r="30" spans="1:67" ht="12" customHeight="1">
+      <c r="A30" s="143"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="125"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="24"/>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="117"/>
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="117"/>
+      <c r="AK30" s="120"/>
+      <c r="AL30" s="93"/>
+      <c r="AM30" s="24"/>
+      <c r="AN30" s="24"/>
+      <c r="AO30" s="25"/>
+      <c r="AP30" s="26"/>
+      <c r="AQ30" s="24"/>
+      <c r="AR30" s="24"/>
+      <c r="AS30" s="24"/>
+      <c r="AT30" s="24"/>
+      <c r="AU30" s="24"/>
+      <c r="AV30" s="25"/>
+      <c r="AW30" s="26"/>
+      <c r="AX30" s="26"/>
+      <c r="AY30" s="24"/>
+      <c r="AZ30" s="24"/>
+      <c r="BA30" s="24"/>
+      <c r="BB30" s="24"/>
+      <c r="BC30" s="25"/>
+      <c r="BD30" s="26"/>
+      <c r="BE30" s="24"/>
+      <c r="BF30" s="24"/>
+      <c r="BG30" s="24"/>
+      <c r="BH30" s="24"/>
+      <c r="BI30" s="24"/>
+      <c r="BJ30" s="25"/>
+      <c r="BK30" s="26"/>
+      <c r="BL30" s="24"/>
+      <c r="BM30" s="24"/>
+      <c r="BN30" s="24"/>
+      <c r="BO30" s="83"/>
+    </row>
+    <row r="31" spans="1:67" ht="12" customHeight="1">
+      <c r="A31" s="143"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="172"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="75"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="117"/>
+      <c r="AG31" s="117"/>
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="26"/>
+      <c r="AJ31" s="117"/>
+      <c r="AK31" s="120"/>
+      <c r="AL31" s="93"/>
+      <c r="AM31" s="24"/>
+      <c r="AN31" s="24"/>
+      <c r="AO31" s="25"/>
+      <c r="AP31" s="26"/>
+      <c r="AQ31" s="24"/>
+      <c r="AR31" s="24"/>
+      <c r="AS31" s="24"/>
+      <c r="AT31" s="24"/>
+      <c r="AU31" s="24"/>
+      <c r="AV31" s="25"/>
+      <c r="AW31" s="26"/>
+      <c r="AX31" s="26"/>
+      <c r="AY31" s="24"/>
+      <c r="AZ31" s="24"/>
+      <c r="BA31" s="24"/>
+      <c r="BB31" s="24"/>
+      <c r="BC31" s="25"/>
+      <c r="BD31" s="26"/>
+      <c r="BE31" s="24"/>
+      <c r="BF31" s="24"/>
+      <c r="BG31" s="24"/>
+      <c r="BH31" s="24"/>
+      <c r="BI31" s="24"/>
+      <c r="BJ31" s="25"/>
+      <c r="BK31" s="26"/>
+      <c r="BL31" s="24"/>
+      <c r="BM31" s="24"/>
+      <c r="BN31" s="24"/>
+      <c r="BO31" s="83"/>
+    </row>
+    <row r="32" spans="1:67" ht="12" customHeight="1">
+      <c r="A32" s="143"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="172"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="125"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="75"/>
+      <c r="S32" s="75"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="24"/>
+      <c r="AE32" s="24"/>
+      <c r="AF32" s="117"/>
+      <c r="AG32" s="42"/>
+      <c r="AH32" s="25"/>
+      <c r="AI32" s="26"/>
+      <c r="AJ32" s="117"/>
+      <c r="AK32" s="120"/>
+      <c r="AL32" s="93"/>
+      <c r="AM32" s="24"/>
+      <c r="AN32" s="24"/>
+      <c r="AO32" s="25"/>
+      <c r="AP32" s="26"/>
+      <c r="AQ32" s="24"/>
+      <c r="AR32" s="24"/>
+      <c r="AS32" s="24"/>
+      <c r="AT32" s="24"/>
+      <c r="AU32" s="24"/>
+      <c r="AV32" s="25"/>
+      <c r="AW32" s="26"/>
+      <c r="AX32" s="26"/>
+      <c r="AY32" s="24"/>
+      <c r="AZ32" s="24"/>
+      <c r="BA32" s="24"/>
+      <c r="BB32" s="24"/>
+      <c r="BC32" s="25"/>
+      <c r="BD32" s="26"/>
+      <c r="BE32" s="24"/>
+      <c r="BF32" s="24"/>
+      <c r="BG32" s="24"/>
+      <c r="BH32" s="24"/>
+      <c r="BI32" s="24"/>
+      <c r="BJ32" s="25"/>
+      <c r="BK32" s="26"/>
+      <c r="BL32" s="24"/>
+      <c r="BM32" s="24"/>
+      <c r="BN32" s="24"/>
+      <c r="BO32" s="83"/>
+    </row>
+    <row r="33" spans="1:67" ht="12" customHeight="1">
+      <c r="A33" s="143"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="75"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="117"/>
+      <c r="AG33" s="117"/>
+      <c r="AH33" s="25"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="117"/>
+      <c r="AK33" s="120"/>
+      <c r="AL33" s="93"/>
+      <c r="AM33" s="24"/>
+      <c r="AN33" s="24"/>
+      <c r="AO33" s="25"/>
+      <c r="AP33" s="26"/>
+      <c r="AQ33" s="24"/>
+      <c r="AR33" s="24"/>
+      <c r="AS33" s="24"/>
+      <c r="AT33" s="24"/>
+      <c r="AU33" s="24"/>
+      <c r="AV33" s="25"/>
+      <c r="AW33" s="26"/>
+      <c r="AX33" s="26"/>
+      <c r="AY33" s="24"/>
+      <c r="AZ33" s="24"/>
+      <c r="BA33" s="24"/>
+      <c r="BB33" s="24"/>
+      <c r="BC33" s="25"/>
+      <c r="BD33" s="26"/>
+      <c r="BE33" s="24"/>
+      <c r="BF33" s="24"/>
+      <c r="BG33" s="24"/>
+      <c r="BH33" s="24"/>
+      <c r="BI33" s="24"/>
+      <c r="BJ33" s="25"/>
+      <c r="BK33" s="26"/>
+      <c r="BL33" s="24"/>
+      <c r="BM33" s="24"/>
+      <c r="BN33" s="24"/>
+      <c r="BO33" s="83"/>
+    </row>
+    <row r="34" spans="1:67" ht="12" customHeight="1">
+      <c r="A34" s="143"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="172"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="125"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="75"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="24"/>
+      <c r="AE34" s="24"/>
+      <c r="AF34" s="117"/>
+      <c r="AG34" s="42"/>
+      <c r="AH34" s="25"/>
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="42"/>
+      <c r="AK34" s="120"/>
+      <c r="AL34" s="123"/>
+      <c r="AM34" s="24"/>
+      <c r="AN34" s="24"/>
+      <c r="AO34" s="25"/>
+      <c r="AP34" s="26"/>
+      <c r="AQ34" s="24"/>
+      <c r="AR34" s="24"/>
+      <c r="AS34" s="24"/>
+      <c r="AT34" s="24"/>
+      <c r="AU34" s="24"/>
+      <c r="AV34" s="25"/>
+      <c r="AW34" s="26"/>
+      <c r="AX34" s="26"/>
+      <c r="AY34" s="24"/>
+      <c r="AZ34" s="24"/>
+      <c r="BA34" s="24"/>
+      <c r="BB34" s="24"/>
+      <c r="BC34" s="25"/>
+      <c r="BD34" s="26"/>
+      <c r="BE34" s="24"/>
+      <c r="BF34" s="24"/>
+      <c r="BG34" s="24"/>
+      <c r="BH34" s="24"/>
+      <c r="BI34" s="24"/>
+      <c r="BJ34" s="25"/>
+      <c r="BK34" s="26"/>
+      <c r="BL34" s="24"/>
+      <c r="BM34" s="24"/>
+      <c r="BN34" s="24"/>
+      <c r="BO34" s="83"/>
+    </row>
+    <row r="35" spans="1:67" ht="12" customHeight="1">
+      <c r="A35" s="143"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="172"/>
+      <c r="D35" s="173"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="75"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="24"/>
+      <c r="AE35" s="24"/>
+      <c r="AF35" s="117"/>
+      <c r="AG35" s="117"/>
+      <c r="AH35" s="25"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="117"/>
+      <c r="AK35" s="120"/>
+      <c r="AL35" s="93"/>
+      <c r="AM35" s="24"/>
+      <c r="AN35" s="24"/>
+      <c r="AO35" s="25"/>
+      <c r="AP35" s="26"/>
+      <c r="AQ35" s="24"/>
+      <c r="AR35" s="24"/>
+      <c r="AS35" s="24"/>
+      <c r="AT35" s="24"/>
+      <c r="AU35" s="24"/>
+      <c r="AV35" s="25"/>
+      <c r="AW35" s="26"/>
+      <c r="AX35" s="26"/>
+      <c r="AY35" s="24"/>
+      <c r="AZ35" s="24"/>
+      <c r="BA35" s="24"/>
+      <c r="BB35" s="24"/>
+      <c r="BC35" s="25"/>
+      <c r="BD35" s="26"/>
+      <c r="BE35" s="24"/>
+      <c r="BF35" s="24"/>
+      <c r="BG35" s="24"/>
+      <c r="BH35" s="24"/>
+      <c r="BI35" s="24"/>
+      <c r="BJ35" s="25"/>
+      <c r="BK35" s="26"/>
+      <c r="BL35" s="24"/>
+      <c r="BM35" s="24"/>
+      <c r="BN35" s="24"/>
+      <c r="BO35" s="83"/>
+    </row>
+    <row r="36" spans="1:67" ht="12" customHeight="1">
+      <c r="A36" s="143"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="172"/>
+      <c r="D36" s="173"/>
+      <c r="E36" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="125"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="75"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="24"/>
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="117"/>
+      <c r="AG36" s="117"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="117"/>
+      <c r="AK36" s="119"/>
+      <c r="AL36" s="122"/>
+      <c r="AM36" s="117"/>
+      <c r="AN36" s="24"/>
+      <c r="AO36" s="25"/>
+      <c r="AP36" s="26"/>
+      <c r="AQ36" s="24"/>
+      <c r="AR36" s="24"/>
+      <c r="AS36" s="24"/>
+      <c r="AT36" s="24"/>
+      <c r="AU36" s="24"/>
+      <c r="AV36" s="25"/>
+      <c r="AW36" s="26"/>
+      <c r="AX36" s="26"/>
+      <c r="AY36" s="24"/>
+      <c r="AZ36" s="24"/>
+      <c r="BA36" s="24"/>
+      <c r="BB36" s="24"/>
+      <c r="BC36" s="25"/>
+      <c r="BD36" s="26"/>
+      <c r="BE36" s="24"/>
+      <c r="BF36" s="24"/>
+      <c r="BG36" s="24"/>
+      <c r="BH36" s="24"/>
+      <c r="BI36" s="24"/>
+      <c r="BJ36" s="25"/>
+      <c r="BK36" s="26"/>
+      <c r="BL36" s="24"/>
+      <c r="BM36" s="24"/>
+      <c r="BN36" s="24"/>
+      <c r="BO36" s="83"/>
+    </row>
+    <row r="37" spans="1:67" ht="12" customHeight="1">
+      <c r="A37" s="143"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="172"/>
+      <c r="D37" s="173"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="75"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="24"/>
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="117"/>
+      <c r="AG37" s="117"/>
+      <c r="AH37" s="25"/>
+      <c r="AI37" s="26"/>
+      <c r="AJ37" s="117"/>
+      <c r="AK37" s="120"/>
+      <c r="AL37" s="93"/>
+      <c r="AM37" s="24"/>
+      <c r="AN37" s="24"/>
+      <c r="AO37" s="25"/>
+      <c r="AP37" s="26"/>
+      <c r="AQ37" s="24"/>
+      <c r="AR37" s="24"/>
+      <c r="AS37" s="24"/>
+      <c r="AT37" s="24"/>
+      <c r="AU37" s="24"/>
+      <c r="AV37" s="25"/>
+      <c r="AW37" s="26"/>
+      <c r="AX37" s="26"/>
+      <c r="AY37" s="24"/>
+      <c r="AZ37" s="24"/>
+      <c r="BA37" s="24"/>
+      <c r="BB37" s="24"/>
+      <c r="BC37" s="25"/>
+      <c r="BD37" s="26"/>
+      <c r="BE37" s="24"/>
+      <c r="BF37" s="24"/>
+      <c r="BG37" s="24"/>
+      <c r="BH37" s="24"/>
+      <c r="BI37" s="24"/>
+      <c r="BJ37" s="25"/>
+      <c r="BK37" s="26"/>
+      <c r="BL37" s="24"/>
+      <c r="BM37" s="24"/>
+      <c r="BN37" s="24"/>
+      <c r="BO37" s="83"/>
+    </row>
+    <row r="38" spans="1:67" ht="12" customHeight="1">
+      <c r="A38" s="143"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="172"/>
+      <c r="D38" s="173"/>
+      <c r="E38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="127" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="125"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="75"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="24"/>
+      <c r="AE38" s="24"/>
+      <c r="AF38" s="117"/>
+      <c r="AG38" s="117"/>
+      <c r="AH38" s="25"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="117"/>
+      <c r="AK38" s="120"/>
+      <c r="AL38" s="122"/>
+      <c r="AM38" s="24"/>
+      <c r="AN38" s="117"/>
+      <c r="AO38" s="25"/>
+      <c r="AP38" s="26"/>
+      <c r="AQ38" s="24"/>
+      <c r="AR38" s="24"/>
+      <c r="AS38" s="24"/>
+      <c r="AT38" s="24"/>
+      <c r="AU38" s="24"/>
+      <c r="AV38" s="25"/>
+      <c r="AW38" s="26"/>
+      <c r="AX38" s="26"/>
+      <c r="AY38" s="24"/>
+      <c r="AZ38" s="24"/>
+      <c r="BA38" s="24"/>
+      <c r="BB38" s="24"/>
+      <c r="BC38" s="25"/>
+      <c r="BD38" s="26"/>
+      <c r="BE38" s="24"/>
+      <c r="BF38" s="24"/>
+      <c r="BG38" s="24"/>
+      <c r="BH38" s="24"/>
+      <c r="BI38" s="24"/>
+      <c r="BJ38" s="25"/>
+      <c r="BK38" s="26"/>
+      <c r="BL38" s="24"/>
+      <c r="BM38" s="24"/>
+      <c r="BN38" s="24"/>
+      <c r="BO38" s="83"/>
+    </row>
+    <row r="39" spans="1:67" ht="12" customHeight="1">
+      <c r="A39" s="143"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="172"/>
+      <c r="D39" s="173"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="75"/>
+      <c r="R39" s="75"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="24"/>
+      <c r="AE39" s="24"/>
+      <c r="AF39" s="24"/>
+      <c r="AG39" s="24"/>
+      <c r="AH39" s="25"/>
+      <c r="AI39" s="26"/>
+      <c r="AJ39" s="117"/>
+      <c r="AK39" s="120"/>
+      <c r="AL39" s="93"/>
+      <c r="AM39" s="24"/>
+      <c r="AN39" s="24"/>
+      <c r="AO39" s="25"/>
+      <c r="AP39" s="26"/>
+      <c r="AQ39" s="24"/>
+      <c r="AR39" s="24"/>
+      <c r="AS39" s="24"/>
+      <c r="AT39" s="24"/>
+      <c r="AU39" s="24"/>
+      <c r="AV39" s="25"/>
+      <c r="AW39" s="26"/>
+      <c r="AX39" s="26"/>
+      <c r="AY39" s="24"/>
+      <c r="AZ39" s="24"/>
+      <c r="BA39" s="24"/>
+      <c r="BB39" s="24"/>
+      <c r="BC39" s="25"/>
+      <c r="BD39" s="26"/>
+      <c r="BE39" s="24"/>
+      <c r="BF39" s="24"/>
+      <c r="BG39" s="24"/>
+      <c r="BH39" s="24"/>
+      <c r="BI39" s="24"/>
+      <c r="BJ39" s="25"/>
+      <c r="BK39" s="26"/>
+      <c r="BL39" s="24"/>
+      <c r="BM39" s="24"/>
+      <c r="BN39" s="24"/>
+      <c r="BO39" s="83"/>
+    </row>
+    <row r="40" spans="1:67" ht="12" customHeight="1">
+      <c r="A40" s="166">
+        <v>6</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="134" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="135"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="164" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="165"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="76"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="76"/>
+      <c r="R40" s="76"/>
+      <c r="S40" s="76"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="15"/>
+      <c r="AI40" s="21"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="84"/>
+      <c r="AL40" s="94"/>
+      <c r="AM40" s="40"/>
+      <c r="AN40" s="40"/>
+      <c r="AO40" s="15"/>
+      <c r="AP40" s="21"/>
+      <c r="AQ40" s="124"/>
+      <c r="AR40" s="124"/>
+      <c r="AS40" s="6"/>
+      <c r="AT40" s="6"/>
+      <c r="AU40" s="6"/>
+      <c r="AV40" s="15"/>
+      <c r="AW40" s="21"/>
+      <c r="AX40" s="21"/>
+      <c r="AY40" s="6"/>
+      <c r="AZ40" s="6"/>
+      <c r="BA40" s="6"/>
+      <c r="BB40" s="6"/>
+      <c r="BC40" s="15"/>
+      <c r="BD40" s="21"/>
+      <c r="BE40" s="6"/>
+      <c r="BF40" s="6"/>
+      <c r="BG40" s="6"/>
+      <c r="BH40" s="6"/>
+      <c r="BI40" s="6"/>
+      <c r="BJ40" s="15"/>
+      <c r="BK40" s="21"/>
+      <c r="BL40" s="6"/>
+      <c r="BM40" s="6"/>
+      <c r="BN40" s="6"/>
+      <c r="BO40" s="84"/>
+    </row>
+    <row r="41" spans="1:67" ht="12" customHeight="1">
+      <c r="A41" s="166"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="155"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="128"/>
+      <c r="G41" s="162"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="75"/>
+      <c r="S41" s="75"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="24"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="24"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="26"/>
+      <c r="AD41" s="24"/>
+      <c r="AE41" s="24"/>
+      <c r="AF41" s="24"/>
+      <c r="AG41" s="24"/>
+      <c r="AH41" s="25"/>
+      <c r="AI41" s="26"/>
+      <c r="AJ41" s="24"/>
+      <c r="AK41" s="83"/>
+      <c r="AL41" s="93"/>
+      <c r="AM41" s="24"/>
+      <c r="AN41" s="24"/>
+      <c r="AO41" s="25"/>
+      <c r="AP41" s="26"/>
+      <c r="AQ41" s="24"/>
+      <c r="AR41" s="24"/>
+      <c r="AS41" s="24"/>
+      <c r="AT41" s="24"/>
+      <c r="AU41" s="24"/>
+      <c r="AV41" s="25"/>
+      <c r="AW41" s="26"/>
+      <c r="AX41" s="26"/>
+      <c r="AY41" s="24"/>
+      <c r="AZ41" s="24"/>
+      <c r="BA41" s="24"/>
+      <c r="BB41" s="24"/>
+      <c r="BC41" s="25"/>
+      <c r="BD41" s="26"/>
+      <c r="BE41" s="24"/>
+      <c r="BF41" s="24"/>
+      <c r="BG41" s="24"/>
+      <c r="BH41" s="24"/>
+      <c r="BI41" s="24"/>
+      <c r="BJ41" s="25"/>
+      <c r="BK41" s="26"/>
+      <c r="BL41" s="24"/>
+      <c r="BM41" s="24"/>
+      <c r="BN41" s="24"/>
+      <c r="BO41" s="83"/>
+    </row>
+    <row r="42" spans="1:67" ht="12" customHeight="1">
+      <c r="A42" s="166">
+        <v>7</v>
+      </c>
+      <c r="B42" s="36"/>
+      <c r="C42" s="167" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="154"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="160" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="161"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="74"/>
+      <c r="S42" s="74"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="13"/>
+      <c r="AI42" s="19"/>
+      <c r="AJ42" s="7"/>
+      <c r="AK42" s="82"/>
+      <c r="AL42" s="92"/>
+      <c r="AM42" s="7"/>
+      <c r="AN42" s="7"/>
+      <c r="AO42" s="13"/>
+      <c r="AP42" s="19"/>
+      <c r="AQ42" s="30"/>
+      <c r="AR42" s="30"/>
+      <c r="AS42" s="107"/>
+      <c r="AT42" s="7"/>
+      <c r="AU42" s="7"/>
+      <c r="AV42" s="13"/>
+      <c r="AW42" s="19"/>
+      <c r="AX42" s="19"/>
+      <c r="AY42" s="7"/>
+      <c r="AZ42" s="7"/>
+      <c r="BA42" s="7"/>
+      <c r="BB42" s="7"/>
+      <c r="BC42" s="13"/>
+      <c r="BD42" s="19"/>
+      <c r="BE42" s="7"/>
+      <c r="BF42" s="7"/>
+      <c r="BG42" s="7"/>
+      <c r="BH42" s="7"/>
+      <c r="BI42" s="7"/>
+      <c r="BJ42" s="13"/>
+      <c r="BK42" s="19"/>
+      <c r="BL42" s="7"/>
+      <c r="BM42" s="7"/>
+      <c r="BN42" s="7"/>
+      <c r="BO42" s="82"/>
+    </row>
+    <row r="43" spans="1:67" ht="12" customHeight="1">
+      <c r="A43" s="166"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="155"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="162"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="75"/>
+      <c r="P43" s="75"/>
+      <c r="Q43" s="75"/>
+      <c r="R43" s="75"/>
+      <c r="S43" s="75"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="24"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="26"/>
+      <c r="AC43" s="26"/>
+      <c r="AD43" s="24"/>
+      <c r="AE43" s="24"/>
+      <c r="AF43" s="24"/>
+      <c r="AG43" s="24"/>
+      <c r="AH43" s="25"/>
+      <c r="AI43" s="26"/>
+      <c r="AJ43" s="24"/>
+      <c r="AK43" s="83"/>
+      <c r="AL43" s="93"/>
+      <c r="AM43" s="24"/>
+      <c r="AN43" s="24"/>
+      <c r="AO43" s="25"/>
+      <c r="AP43" s="26"/>
+      <c r="AQ43" s="24"/>
+      <c r="AR43" s="24"/>
+      <c r="AS43" s="24"/>
+      <c r="AT43" s="24"/>
+      <c r="AU43" s="24"/>
+      <c r="AV43" s="25"/>
+      <c r="AW43" s="26"/>
+      <c r="AX43" s="26"/>
+      <c r="AY43" s="24"/>
+      <c r="AZ43" s="24"/>
+      <c r="BA43" s="24"/>
+      <c r="BB43" s="24"/>
+      <c r="BC43" s="25"/>
+      <c r="BD43" s="26"/>
+      <c r="BE43" s="24"/>
+      <c r="BF43" s="24"/>
+      <c r="BG43" s="24"/>
+      <c r="BH43" s="24"/>
+      <c r="BI43" s="24"/>
+      <c r="BJ43" s="25"/>
+      <c r="BK43" s="26"/>
+      <c r="BL43" s="24"/>
+      <c r="BM43" s="24"/>
+      <c r="BN43" s="24"/>
+      <c r="BO43" s="83"/>
+    </row>
+    <row r="44" spans="1:67" ht="12" customHeight="1">
+      <c r="A44" s="166">
         <v>8</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="109" t="s">
+      <c r="B44" s="36"/>
+      <c r="C44" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="154"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="154"/>
-      <c r="W18" s="154"/>
-      <c r="X18" s="154"/>
-      <c r="Y18" s="154"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="154"/>
-      <c r="AD18" s="154"/>
-      <c r="AE18" s="154"/>
-      <c r="AF18" s="154"/>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="154"/>
-      <c r="AJ18" s="167"/>
-      <c r="AK18" s="178"/>
-      <c r="AL18" s="154"/>
-      <c r="AM18" s="154"/>
-      <c r="AN18" s="25"/>
-      <c r="AO18" s="26"/>
-      <c r="AP18" s="154"/>
-      <c r="AQ18" s="154"/>
-      <c r="AR18" s="154"/>
-      <c r="AS18" s="154"/>
-      <c r="AT18" s="154"/>
-      <c r="AU18" s="25"/>
-      <c r="AV18" s="26"/>
-      <c r="AW18" s="26"/>
-      <c r="AX18" s="154"/>
-      <c r="AY18" s="154"/>
-      <c r="AZ18" s="154"/>
-      <c r="BA18" s="154"/>
-      <c r="BB18" s="25"/>
-      <c r="BC18" s="26"/>
-      <c r="BD18" s="154"/>
-      <c r="BE18" s="154"/>
-      <c r="BF18" s="154"/>
-      <c r="BG18" s="154"/>
-      <c r="BH18" s="154"/>
-      <c r="BI18" s="25"/>
-      <c r="BJ18" s="26"/>
-      <c r="BK18" s="154"/>
-      <c r="BL18" s="154"/>
-      <c r="BM18" s="154"/>
-      <c r="BN18" s="167"/>
-    </row>
-    <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="130"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="158"/>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="158"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="158"/>
-      <c r="W19" s="158"/>
-      <c r="X19" s="158"/>
-      <c r="Y19" s="158"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="158"/>
-      <c r="AE19" s="158"/>
-      <c r="AF19" s="158"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="158"/>
-      <c r="AJ19" s="168"/>
-      <c r="AK19" s="179"/>
-      <c r="AL19" s="158"/>
-      <c r="AM19" s="158"/>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="23"/>
-      <c r="AP19" s="158"/>
-      <c r="AQ19" s="158"/>
-      <c r="AR19" s="158"/>
-      <c r="AS19" s="158"/>
-      <c r="AT19" s="158"/>
-      <c r="AU19" s="17"/>
-      <c r="AV19" s="23"/>
-      <c r="AW19" s="23"/>
-      <c r="AX19" s="158"/>
-      <c r="AY19" s="158"/>
-      <c r="AZ19" s="158"/>
-      <c r="BA19" s="158"/>
-      <c r="BB19" s="17"/>
-      <c r="BC19" s="23"/>
-      <c r="BD19" s="158"/>
-      <c r="BE19" s="158"/>
-      <c r="BF19" s="158"/>
-      <c r="BG19" s="158"/>
-      <c r="BH19" s="158"/>
-      <c r="BI19" s="17"/>
-      <c r="BJ19" s="23"/>
-      <c r="BK19" s="158"/>
-      <c r="BL19" s="158"/>
-      <c r="BM19" s="158"/>
-      <c r="BN19" s="168"/>
-    </row>
-    <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="117">
+      <c r="D44" s="154"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="160" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="161"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="75"/>
+      <c r="P44" s="75"/>
+      <c r="Q44" s="75"/>
+      <c r="R44" s="75"/>
+      <c r="S44" s="75"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="75"/>
+      <c r="X44" s="75"/>
+      <c r="Y44" s="75"/>
+      <c r="Z44" s="75"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="75"/>
+      <c r="AE44" s="75"/>
+      <c r="AF44" s="75"/>
+      <c r="AG44" s="75"/>
+      <c r="AH44" s="25"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="75"/>
+      <c r="AK44" s="85"/>
+      <c r="AL44" s="95"/>
+      <c r="AM44" s="75"/>
+      <c r="AN44" s="75"/>
+      <c r="AO44" s="25"/>
+      <c r="AP44" s="26"/>
+      <c r="AQ44" s="75"/>
+      <c r="AR44" s="42"/>
+      <c r="AS44" s="42"/>
+      <c r="AT44" s="117"/>
+      <c r="AU44" s="75"/>
+      <c r="AV44" s="25"/>
+      <c r="AW44" s="26"/>
+      <c r="AX44" s="26"/>
+      <c r="AY44" s="75"/>
+      <c r="AZ44" s="75"/>
+      <c r="BA44" s="75"/>
+      <c r="BB44" s="75"/>
+      <c r="BC44" s="25"/>
+      <c r="BD44" s="26"/>
+      <c r="BE44" s="75"/>
+      <c r="BF44" s="75"/>
+      <c r="BG44" s="75"/>
+      <c r="BH44" s="75"/>
+      <c r="BI44" s="75"/>
+      <c r="BJ44" s="25"/>
+      <c r="BK44" s="26"/>
+      <c r="BL44" s="75"/>
+      <c r="BM44" s="75"/>
+      <c r="BN44" s="75"/>
+      <c r="BO44" s="85"/>
+    </row>
+    <row r="45" spans="1:67" ht="12" customHeight="1">
+      <c r="A45" s="166"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="169"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="77"/>
+      <c r="Q45" s="77"/>
+      <c r="R45" s="77"/>
+      <c r="S45" s="77"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="23"/>
+      <c r="W45" s="77"/>
+      <c r="X45" s="77"/>
+      <c r="Y45" s="77"/>
+      <c r="Z45" s="77"/>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="23"/>
+      <c r="AC45" s="23"/>
+      <c r="AD45" s="77"/>
+      <c r="AE45" s="77"/>
+      <c r="AF45" s="77"/>
+      <c r="AG45" s="77"/>
+      <c r="AH45" s="17"/>
+      <c r="AI45" s="23"/>
+      <c r="AJ45" s="77"/>
+      <c r="AK45" s="86"/>
+      <c r="AL45" s="96"/>
+      <c r="AM45" s="77"/>
+      <c r="AN45" s="77"/>
+      <c r="AO45" s="17"/>
+      <c r="AP45" s="23"/>
+      <c r="AQ45" s="77"/>
+      <c r="AR45" s="77"/>
+      <c r="AS45" s="77"/>
+      <c r="AT45" s="77"/>
+      <c r="AU45" s="77"/>
+      <c r="AV45" s="17"/>
+      <c r="AW45" s="23"/>
+      <c r="AX45" s="23"/>
+      <c r="AY45" s="77"/>
+      <c r="AZ45" s="77"/>
+      <c r="BA45" s="77"/>
+      <c r="BB45" s="77"/>
+      <c r="BC45" s="17"/>
+      <c r="BD45" s="23"/>
+      <c r="BE45" s="77"/>
+      <c r="BF45" s="77"/>
+      <c r="BG45" s="77"/>
+      <c r="BH45" s="77"/>
+      <c r="BI45" s="77"/>
+      <c r="BJ45" s="17"/>
+      <c r="BK45" s="23"/>
+      <c r="BL45" s="77"/>
+      <c r="BM45" s="77"/>
+      <c r="BN45" s="77"/>
+      <c r="BO45" s="86"/>
+    </row>
+    <row r="46" spans="1:67" ht="12" customHeight="1">
+      <c r="A46" s="142">
         <v>9</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B46" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="131" t="s">
+      <c r="C46" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="155"/>
-      <c r="O20" s="155"/>
-      <c r="P20" s="155"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="155"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="155"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="155"/>
-      <c r="AD20" s="155"/>
-      <c r="AE20" s="155"/>
-      <c r="AF20" s="155"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="21"/>
-      <c r="AI20" s="155"/>
-      <c r="AJ20" s="169"/>
-      <c r="AK20" s="180"/>
-      <c r="AL20" s="155"/>
-      <c r="AM20" s="155"/>
-      <c r="AN20" s="15"/>
-      <c r="AO20" s="21"/>
-      <c r="AP20" s="155"/>
-      <c r="AQ20" s="155"/>
-      <c r="AR20" s="155"/>
-      <c r="AS20" s="155"/>
-      <c r="AT20" s="155"/>
-      <c r="AU20" s="15"/>
-      <c r="AV20" s="21"/>
-      <c r="AW20" s="21"/>
-      <c r="AX20" s="155"/>
-      <c r="AY20" s="155"/>
-      <c r="AZ20" s="155"/>
-      <c r="BA20" s="155"/>
-      <c r="BB20" s="15"/>
-      <c r="BC20" s="21"/>
-      <c r="BD20" s="155"/>
-      <c r="BE20" s="155"/>
-      <c r="BF20" s="155"/>
-      <c r="BG20" s="155"/>
-      <c r="BH20" s="155"/>
-      <c r="BI20" s="15"/>
-      <c r="BJ20" s="21"/>
-      <c r="BK20" s="155"/>
-      <c r="BL20" s="155"/>
-      <c r="BM20" s="155"/>
-      <c r="BN20" s="169"/>
-    </row>
-    <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="89"/>
-      <c r="B21" s="36" t="s">
+      <c r="D46" s="135"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="164" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" s="165"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="76"/>
+      <c r="P46" s="76"/>
+      <c r="Q46" s="76"/>
+      <c r="R46" s="76"/>
+      <c r="S46" s="76"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="76"/>
+      <c r="X46" s="76"/>
+      <c r="Y46" s="76"/>
+      <c r="Z46" s="76"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="21"/>
+      <c r="AC46" s="21"/>
+      <c r="AD46" s="76"/>
+      <c r="AE46" s="76"/>
+      <c r="AF46" s="76"/>
+      <c r="AG46" s="76"/>
+      <c r="AH46" s="15"/>
+      <c r="AI46" s="21"/>
+      <c r="AJ46" s="76"/>
+      <c r="AK46" s="87"/>
+      <c r="AL46" s="97"/>
+      <c r="AM46" s="76"/>
+      <c r="AN46" s="76"/>
+      <c r="AO46" s="15"/>
+      <c r="AP46" s="21"/>
+      <c r="AQ46" s="76"/>
+      <c r="AR46" s="76"/>
+      <c r="AS46" s="76"/>
+      <c r="AT46" s="40"/>
+      <c r="AU46" s="76"/>
+      <c r="AV46" s="15"/>
+      <c r="AW46" s="21"/>
+      <c r="AX46" s="21"/>
+      <c r="AY46" s="76"/>
+      <c r="AZ46" s="76"/>
+      <c r="BA46" s="76"/>
+      <c r="BB46" s="76"/>
+      <c r="BC46" s="15"/>
+      <c r="BD46" s="21"/>
+      <c r="BE46" s="76"/>
+      <c r="BF46" s="76"/>
+      <c r="BG46" s="76"/>
+      <c r="BH46" s="76"/>
+      <c r="BI46" s="76"/>
+      <c r="BJ46" s="15"/>
+      <c r="BK46" s="21"/>
+      <c r="BL46" s="76"/>
+      <c r="BM46" s="76"/>
+      <c r="BN46" s="76"/>
+      <c r="BO46" s="87"/>
+    </row>
+    <row r="47" spans="1:67" ht="12" customHeight="1">
+      <c r="A47" s="163"/>
+      <c r="B47" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="153"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="153"/>
-      <c r="W21" s="153"/>
-      <c r="X21" s="153"/>
-      <c r="Y21" s="153"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="153"/>
-      <c r="AD21" s="153"/>
-      <c r="AE21" s="153"/>
-      <c r="AF21" s="153"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="153"/>
-      <c r="AJ21" s="170"/>
-      <c r="AK21" s="181"/>
-      <c r="AL21" s="153"/>
-      <c r="AM21" s="153"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="19"/>
-      <c r="AP21" s="153"/>
-      <c r="AQ21" s="153"/>
-      <c r="AR21" s="153"/>
-      <c r="AS21" s="153"/>
-      <c r="AT21" s="153"/>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="19"/>
-      <c r="AW21" s="19"/>
-      <c r="AX21" s="153"/>
-      <c r="AY21" s="153"/>
-      <c r="AZ21" s="153"/>
-      <c r="BA21" s="153"/>
-      <c r="BB21" s="13"/>
-      <c r="BC21" s="19"/>
-      <c r="BD21" s="153"/>
-      <c r="BE21" s="153"/>
-      <c r="BF21" s="153"/>
-      <c r="BG21" s="153"/>
-      <c r="BH21" s="153"/>
-      <c r="BI21" s="13"/>
-      <c r="BJ21" s="19"/>
-      <c r="BK21" s="153"/>
-      <c r="BL21" s="153"/>
-      <c r="BM21" s="153"/>
-      <c r="BN21" s="170"/>
-    </row>
-    <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="117">
+      <c r="C47" s="155"/>
+      <c r="D47" s="156"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="74"/>
+      <c r="R47" s="74"/>
+      <c r="S47" s="74"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="74"/>
+      <c r="X47" s="74"/>
+      <c r="Y47" s="74"/>
+      <c r="Z47" s="74"/>
+      <c r="AA47" s="13"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="74"/>
+      <c r="AE47" s="74"/>
+      <c r="AF47" s="74"/>
+      <c r="AG47" s="74"/>
+      <c r="AH47" s="13"/>
+      <c r="AI47" s="19"/>
+      <c r="AJ47" s="74"/>
+      <c r="AK47" s="88"/>
+      <c r="AL47" s="98"/>
+      <c r="AM47" s="74"/>
+      <c r="AN47" s="74"/>
+      <c r="AO47" s="13"/>
+      <c r="AP47" s="19"/>
+      <c r="AQ47" s="74"/>
+      <c r="AR47" s="74"/>
+      <c r="AS47" s="74"/>
+      <c r="AT47" s="74"/>
+      <c r="AU47" s="74"/>
+      <c r="AV47" s="13"/>
+      <c r="AW47" s="19"/>
+      <c r="AX47" s="19"/>
+      <c r="AY47" s="74"/>
+      <c r="AZ47" s="74"/>
+      <c r="BA47" s="74"/>
+      <c r="BB47" s="74"/>
+      <c r="BC47" s="13"/>
+      <c r="BD47" s="19"/>
+      <c r="BE47" s="74"/>
+      <c r="BF47" s="74"/>
+      <c r="BG47" s="74"/>
+      <c r="BH47" s="74"/>
+      <c r="BI47" s="74"/>
+      <c r="BJ47" s="13"/>
+      <c r="BK47" s="19"/>
+      <c r="BL47" s="74"/>
+      <c r="BM47" s="74"/>
+      <c r="BN47" s="74"/>
+      <c r="BO47" s="88"/>
+    </row>
+    <row r="48" spans="1:67" ht="12" customHeight="1">
+      <c r="A48" s="142">
         <v>10</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="143" t="s">
+      <c r="B48" s="36"/>
+      <c r="C48" s="153" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="154"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="160" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" s="161"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="74"/>
+      <c r="R48" s="74"/>
+      <c r="S48" s="74"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="74"/>
+      <c r="X48" s="74"/>
+      <c r="Y48" s="74"/>
+      <c r="Z48" s="74"/>
+      <c r="AA48" s="13"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="74"/>
+      <c r="AE48" s="74"/>
+      <c r="AF48" s="74"/>
+      <c r="AG48" s="74"/>
+      <c r="AH48" s="13"/>
+      <c r="AI48" s="19"/>
+      <c r="AJ48" s="74"/>
+      <c r="AK48" s="88"/>
+      <c r="AL48" s="98"/>
+      <c r="AM48" s="74"/>
+      <c r="AN48" s="74"/>
+      <c r="AO48" s="13"/>
+      <c r="AP48" s="19"/>
+      <c r="AQ48" s="74"/>
+      <c r="AR48" s="74"/>
+      <c r="AS48" s="74"/>
+      <c r="AT48" s="107"/>
+      <c r="AU48" s="30"/>
+      <c r="AV48" s="13"/>
+      <c r="AW48" s="19"/>
+      <c r="AX48" s="19"/>
+      <c r="AY48" s="30"/>
+      <c r="AZ48" s="107"/>
+      <c r="BA48" s="74"/>
+      <c r="BB48" s="74"/>
+      <c r="BC48" s="13"/>
+      <c r="BD48" s="19"/>
+      <c r="BE48" s="74"/>
+      <c r="BF48" s="74"/>
+      <c r="BG48" s="74"/>
+      <c r="BH48" s="74"/>
+      <c r="BI48" s="74"/>
+      <c r="BJ48" s="13"/>
+      <c r="BK48" s="19"/>
+      <c r="BL48" s="74"/>
+      <c r="BM48" s="74"/>
+      <c r="BN48" s="74"/>
+      <c r="BO48" s="88"/>
+    </row>
+    <row r="49" spans="1:67" ht="12" customHeight="1">
+      <c r="A49" s="163"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="156"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="162"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="74"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="74"/>
+      <c r="R49" s="74"/>
+      <c r="S49" s="74"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="74"/>
+      <c r="X49" s="74"/>
+      <c r="Y49" s="74"/>
+      <c r="Z49" s="74"/>
+      <c r="AA49" s="13"/>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="19"/>
+      <c r="AD49" s="74"/>
+      <c r="AE49" s="74"/>
+      <c r="AF49" s="74"/>
+      <c r="AG49" s="74"/>
+      <c r="AH49" s="13"/>
+      <c r="AI49" s="19"/>
+      <c r="AJ49" s="74"/>
+      <c r="AK49" s="88"/>
+      <c r="AL49" s="98"/>
+      <c r="AM49" s="74"/>
+      <c r="AN49" s="74"/>
+      <c r="AO49" s="13"/>
+      <c r="AP49" s="19"/>
+      <c r="AQ49" s="74"/>
+      <c r="AR49" s="74"/>
+      <c r="AS49" s="74"/>
+      <c r="AT49" s="74"/>
+      <c r="AU49" s="74"/>
+      <c r="AV49" s="13"/>
+      <c r="AW49" s="19"/>
+      <c r="AX49" s="19"/>
+      <c r="AY49" s="74"/>
+      <c r="AZ49" s="74"/>
+      <c r="BA49" s="74"/>
+      <c r="BB49" s="74"/>
+      <c r="BC49" s="13"/>
+      <c r="BD49" s="19"/>
+      <c r="BE49" s="74"/>
+      <c r="BF49" s="74"/>
+      <c r="BG49" s="74"/>
+      <c r="BH49" s="74"/>
+      <c r="BI49" s="74"/>
+      <c r="BJ49" s="13"/>
+      <c r="BK49" s="19"/>
+      <c r="BL49" s="74"/>
+      <c r="BM49" s="74"/>
+      <c r="BN49" s="74"/>
+      <c r="BO49" s="88"/>
+    </row>
+    <row r="50" spans="1:67" ht="12" customHeight="1">
+      <c r="A50" s="142">
         <v>11</v>
       </c>
-      <c r="D22" s="110"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="153"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="153"/>
-      <c r="W22" s="153"/>
-      <c r="X22" s="153"/>
-      <c r="Y22" s="153"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="153"/>
-      <c r="AD22" s="153"/>
-      <c r="AE22" s="153"/>
-      <c r="AF22" s="153"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="153"/>
-      <c r="AJ22" s="170"/>
-      <c r="AK22" s="181"/>
-      <c r="AL22" s="153"/>
-      <c r="AM22" s="153"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="19"/>
-      <c r="AP22" s="153"/>
-      <c r="AQ22" s="153"/>
-      <c r="AR22" s="153"/>
-      <c r="AS22" s="153"/>
-      <c r="AT22" s="153"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="19"/>
-      <c r="AW22" s="19"/>
-      <c r="AX22" s="153"/>
-      <c r="AY22" s="153"/>
-      <c r="AZ22" s="153"/>
-      <c r="BA22" s="153"/>
-      <c r="BB22" s="13"/>
-      <c r="BC22" s="19"/>
-      <c r="BD22" s="153"/>
-      <c r="BE22" s="153"/>
-      <c r="BF22" s="153"/>
-      <c r="BG22" s="153"/>
-      <c r="BH22" s="153"/>
-      <c r="BI22" s="13"/>
-      <c r="BJ22" s="19"/>
-      <c r="BK22" s="153"/>
-      <c r="BL22" s="153"/>
-      <c r="BM22" s="153"/>
-      <c r="BN22" s="170"/>
-    </row>
-    <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="89"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="153"/>
-      <c r="W23" s="153"/>
-      <c r="X23" s="153"/>
-      <c r="Y23" s="153"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="153"/>
-      <c r="AD23" s="153"/>
-      <c r="AE23" s="153"/>
-      <c r="AF23" s="153"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="153"/>
-      <c r="AJ23" s="170"/>
-      <c r="AK23" s="181"/>
-      <c r="AL23" s="153"/>
-      <c r="AM23" s="153"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="19"/>
-      <c r="AP23" s="153"/>
-      <c r="AQ23" s="153"/>
-      <c r="AR23" s="153"/>
-      <c r="AS23" s="153"/>
-      <c r="AT23" s="153"/>
-      <c r="AU23" s="13"/>
-      <c r="AV23" s="19"/>
-      <c r="AW23" s="19"/>
-      <c r="AX23" s="153"/>
-      <c r="AY23" s="153"/>
-      <c r="AZ23" s="153"/>
-      <c r="BA23" s="153"/>
-      <c r="BB23" s="13"/>
-      <c r="BC23" s="19"/>
-      <c r="BD23" s="153"/>
-      <c r="BE23" s="153"/>
-      <c r="BF23" s="153"/>
-      <c r="BG23" s="153"/>
-      <c r="BH23" s="153"/>
-      <c r="BI23" s="13"/>
-      <c r="BJ23" s="19"/>
-      <c r="BK23" s="153"/>
-      <c r="BL23" s="153"/>
-      <c r="BM23" s="153"/>
-      <c r="BN23" s="170"/>
-    </row>
-    <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="117">
+      <c r="B50" s="36"/>
+      <c r="C50" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="143" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="110"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="154"/>
-      <c r="W24" s="154"/>
-      <c r="X24" s="154"/>
-      <c r="Y24" s="154"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="154"/>
-      <c r="AD24" s="154"/>
-      <c r="AE24" s="154"/>
-      <c r="AF24" s="154"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="154"/>
-      <c r="AJ24" s="167"/>
-      <c r="AK24" s="178"/>
-      <c r="AL24" s="154"/>
-      <c r="AM24" s="154"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="26"/>
-      <c r="AP24" s="154"/>
-      <c r="AQ24" s="154"/>
-      <c r="AR24" s="154"/>
-      <c r="AS24" s="154"/>
-      <c r="AT24" s="154"/>
-      <c r="AU24" s="25"/>
-      <c r="AV24" s="26"/>
-      <c r="AW24" s="26"/>
-      <c r="AX24" s="154"/>
-      <c r="AY24" s="154"/>
-      <c r="AZ24" s="154"/>
-      <c r="BA24" s="154"/>
-      <c r="BB24" s="25"/>
-      <c r="BC24" s="26"/>
-      <c r="BD24" s="154"/>
-      <c r="BE24" s="154"/>
-      <c r="BF24" s="154"/>
-      <c r="BG24" s="154"/>
-      <c r="BH24" s="154"/>
-      <c r="BI24" s="25"/>
-      <c r="BJ24" s="26"/>
-      <c r="BK24" s="154"/>
-      <c r="BL24" s="154"/>
-      <c r="BM24" s="154"/>
-      <c r="BN24" s="167"/>
-    </row>
-    <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="89"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="158"/>
-      <c r="R25" s="158"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="158"/>
-      <c r="W25" s="158"/>
-      <c r="X25" s="158"/>
-      <c r="Y25" s="158"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="158"/>
-      <c r="AD25" s="158"/>
-      <c r="AE25" s="158"/>
-      <c r="AF25" s="158"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="158"/>
-      <c r="AJ25" s="168"/>
-      <c r="AK25" s="179"/>
-      <c r="AL25" s="158"/>
-      <c r="AM25" s="158"/>
-      <c r="AN25" s="17"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="158"/>
-      <c r="AQ25" s="158"/>
-      <c r="AR25" s="158"/>
-      <c r="AS25" s="158"/>
-      <c r="AT25" s="158"/>
-      <c r="AU25" s="17"/>
-      <c r="AV25" s="23"/>
-      <c r="AW25" s="23"/>
-      <c r="AX25" s="158"/>
-      <c r="AY25" s="158"/>
-      <c r="AZ25" s="158"/>
-      <c r="BA25" s="158"/>
-      <c r="BB25" s="17"/>
-      <c r="BC25" s="23"/>
-      <c r="BD25" s="158"/>
-      <c r="BE25" s="158"/>
-      <c r="BF25" s="158"/>
-      <c r="BG25" s="158"/>
-      <c r="BH25" s="158"/>
-      <c r="BI25" s="17"/>
-      <c r="BJ25" s="23"/>
-      <c r="BK25" s="158"/>
-      <c r="BL25" s="158"/>
-      <c r="BM25" s="158"/>
-      <c r="BN25" s="168"/>
-    </row>
-    <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="108">
+      <c r="D50" s="154"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="160" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="161"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="75"/>
+      <c r="P50" s="75"/>
+      <c r="Q50" s="75"/>
+      <c r="R50" s="75"/>
+      <c r="S50" s="75"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="26"/>
+      <c r="W50" s="75"/>
+      <c r="X50" s="75"/>
+      <c r="Y50" s="75"/>
+      <c r="Z50" s="75"/>
+      <c r="AA50" s="25"/>
+      <c r="AB50" s="26"/>
+      <c r="AC50" s="26"/>
+      <c r="AD50" s="75"/>
+      <c r="AE50" s="75"/>
+      <c r="AF50" s="75"/>
+      <c r="AG50" s="75"/>
+      <c r="AH50" s="25"/>
+      <c r="AI50" s="26"/>
+      <c r="AJ50" s="75"/>
+      <c r="AK50" s="85"/>
+      <c r="AL50" s="95"/>
+      <c r="AM50" s="75"/>
+      <c r="AN50" s="75"/>
+      <c r="AO50" s="25"/>
+      <c r="AP50" s="26"/>
+      <c r="AQ50" s="75"/>
+      <c r="AR50" s="75"/>
+      <c r="AS50" s="75"/>
+      <c r="AT50" s="75"/>
+      <c r="AU50" s="75"/>
+      <c r="AV50" s="25"/>
+      <c r="AW50" s="26"/>
+      <c r="AX50" s="26"/>
+      <c r="AY50" s="42"/>
+      <c r="AZ50" s="42"/>
+      <c r="BA50" s="117"/>
+      <c r="BB50" s="117"/>
+      <c r="BC50" s="25"/>
+      <c r="BD50" s="26"/>
+      <c r="BE50" s="117"/>
+      <c r="BF50" s="117"/>
+      <c r="BG50" s="117"/>
+      <c r="BH50" s="75"/>
+      <c r="BI50" s="75"/>
+      <c r="BJ50" s="25"/>
+      <c r="BK50" s="26"/>
+      <c r="BL50" s="75"/>
+      <c r="BM50" s="75"/>
+      <c r="BN50" s="75"/>
+      <c r="BO50" s="85"/>
+    </row>
+    <row r="51" spans="1:67" ht="12" customHeight="1">
+      <c r="A51" s="143"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="155"/>
+      <c r="D51" s="156"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="128"/>
+      <c r="G51" s="162"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="75"/>
+      <c r="P51" s="75"/>
+      <c r="Q51" s="75"/>
+      <c r="R51" s="75"/>
+      <c r="S51" s="75"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26"/>
+      <c r="W51" s="75"/>
+      <c r="X51" s="75"/>
+      <c r="Y51" s="75"/>
+      <c r="Z51" s="75"/>
+      <c r="AA51" s="25"/>
+      <c r="AB51" s="26"/>
+      <c r="AC51" s="26"/>
+      <c r="AD51" s="75"/>
+      <c r="AE51" s="75"/>
+      <c r="AF51" s="75"/>
+      <c r="AG51" s="75"/>
+      <c r="AH51" s="25"/>
+      <c r="AI51" s="26"/>
+      <c r="AJ51" s="75"/>
+      <c r="AK51" s="85"/>
+      <c r="AL51" s="95"/>
+      <c r="AM51" s="75"/>
+      <c r="AN51" s="75"/>
+      <c r="AO51" s="25"/>
+      <c r="AP51" s="26"/>
+      <c r="AQ51" s="75"/>
+      <c r="AR51" s="75"/>
+      <c r="AS51" s="75"/>
+      <c r="AT51" s="75"/>
+      <c r="AU51" s="75"/>
+      <c r="AV51" s="25"/>
+      <c r="AW51" s="26"/>
+      <c r="AX51" s="26"/>
+      <c r="AY51" s="75"/>
+      <c r="AZ51" s="75"/>
+      <c r="BA51" s="117"/>
+      <c r="BB51" s="117"/>
+      <c r="BC51" s="25"/>
+      <c r="BD51" s="26"/>
+      <c r="BE51" s="117"/>
+      <c r="BF51" s="117"/>
+      <c r="BG51" s="117"/>
+      <c r="BH51" s="75"/>
+      <c r="BI51" s="75"/>
+      <c r="BJ51" s="25"/>
+      <c r="BK51" s="26"/>
+      <c r="BL51" s="75"/>
+      <c r="BM51" s="75"/>
+      <c r="BN51" s="75"/>
+      <c r="BO51" s="85"/>
+    </row>
+    <row r="52" spans="1:67" ht="12" customHeight="1">
+      <c r="A52" s="143"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="157"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="160" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="161"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="75"/>
+      <c r="P52" s="75"/>
+      <c r="Q52" s="75"/>
+      <c r="R52" s="75"/>
+      <c r="S52" s="75"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="26"/>
+      <c r="V52" s="26"/>
+      <c r="W52" s="75"/>
+      <c r="X52" s="75"/>
+      <c r="Y52" s="75"/>
+      <c r="Z52" s="75"/>
+      <c r="AA52" s="25"/>
+      <c r="AB52" s="26"/>
+      <c r="AC52" s="26"/>
+      <c r="AD52" s="75"/>
+      <c r="AE52" s="75"/>
+      <c r="AF52" s="75"/>
+      <c r="AG52" s="75"/>
+      <c r="AH52" s="25"/>
+      <c r="AI52" s="26"/>
+      <c r="AJ52" s="75"/>
+      <c r="AK52" s="85"/>
+      <c r="AL52" s="95"/>
+      <c r="AM52" s="75"/>
+      <c r="AN52" s="75"/>
+      <c r="AO52" s="25"/>
+      <c r="AP52" s="26"/>
+      <c r="AQ52" s="75"/>
+      <c r="AR52" s="75"/>
+      <c r="AS52" s="75"/>
+      <c r="AT52" s="75"/>
+      <c r="AU52" s="75"/>
+      <c r="AV52" s="25"/>
+      <c r="AW52" s="26"/>
+      <c r="AX52" s="26"/>
+      <c r="AY52" s="75"/>
+      <c r="AZ52" s="75"/>
+      <c r="BA52" s="42"/>
+      <c r="BB52" s="42"/>
+      <c r="BC52" s="25"/>
+      <c r="BD52" s="26"/>
+      <c r="BE52" s="42"/>
+      <c r="BF52" s="117"/>
+      <c r="BG52" s="117"/>
+      <c r="BH52" s="75"/>
+      <c r="BI52" s="75"/>
+      <c r="BJ52" s="25"/>
+      <c r="BK52" s="26"/>
+      <c r="BL52" s="75"/>
+      <c r="BM52" s="75"/>
+      <c r="BN52" s="75"/>
+      <c r="BO52" s="85"/>
+    </row>
+    <row r="53" spans="1:67" ht="12" customHeight="1">
+      <c r="A53" s="143"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="158"/>
+      <c r="D53" s="159"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="162"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="75"/>
+      <c r="P53" s="75"/>
+      <c r="Q53" s="75"/>
+      <c r="R53" s="75"/>
+      <c r="S53" s="75"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="26"/>
+      <c r="V53" s="26"/>
+      <c r="W53" s="75"/>
+      <c r="X53" s="75"/>
+      <c r="Y53" s="75"/>
+      <c r="Z53" s="75"/>
+      <c r="AA53" s="25"/>
+      <c r="AB53" s="26"/>
+      <c r="AC53" s="26"/>
+      <c r="AD53" s="75"/>
+      <c r="AE53" s="75"/>
+      <c r="AF53" s="75"/>
+      <c r="AG53" s="75"/>
+      <c r="AH53" s="25"/>
+      <c r="AI53" s="26"/>
+      <c r="AJ53" s="75"/>
+      <c r="AK53" s="85"/>
+      <c r="AL53" s="95"/>
+      <c r="AM53" s="75"/>
+      <c r="AN53" s="75"/>
+      <c r="AO53" s="25"/>
+      <c r="AP53" s="26"/>
+      <c r="AQ53" s="75"/>
+      <c r="AR53" s="75"/>
+      <c r="AS53" s="75"/>
+      <c r="AT53" s="75"/>
+      <c r="AU53" s="75"/>
+      <c r="AV53" s="25"/>
+      <c r="AW53" s="26"/>
+      <c r="AX53" s="26"/>
+      <c r="AY53" s="75"/>
+      <c r="AZ53" s="75"/>
+      <c r="BA53" s="117"/>
+      <c r="BB53" s="117"/>
+      <c r="BC53" s="25"/>
+      <c r="BD53" s="26"/>
+      <c r="BE53" s="117"/>
+      <c r="BF53" s="117"/>
+      <c r="BG53" s="117"/>
+      <c r="BH53" s="75"/>
+      <c r="BI53" s="75"/>
+      <c r="BJ53" s="25"/>
+      <c r="BK53" s="26"/>
+      <c r="BL53" s="75"/>
+      <c r="BM53" s="75"/>
+      <c r="BN53" s="75"/>
+      <c r="BO53" s="85"/>
+    </row>
+    <row r="54" spans="1:67" ht="12" customHeight="1">
+      <c r="A54" s="143"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="153" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="154"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="160" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="161"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="75"/>
+      <c r="P54" s="75"/>
+      <c r="Q54" s="75"/>
+      <c r="R54" s="75"/>
+      <c r="S54" s="75"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="26"/>
+      <c r="V54" s="26"/>
+      <c r="W54" s="75"/>
+      <c r="X54" s="75"/>
+      <c r="Y54" s="75"/>
+      <c r="Z54" s="75"/>
+      <c r="AA54" s="25"/>
+      <c r="AB54" s="26"/>
+      <c r="AC54" s="26"/>
+      <c r="AD54" s="75"/>
+      <c r="AE54" s="75"/>
+      <c r="AF54" s="75"/>
+      <c r="AG54" s="75"/>
+      <c r="AH54" s="25"/>
+      <c r="AI54" s="26"/>
+      <c r="AJ54" s="75"/>
+      <c r="AK54" s="85"/>
+      <c r="AL54" s="95"/>
+      <c r="AM54" s="75"/>
+      <c r="AN54" s="75"/>
+      <c r="AO54" s="25"/>
+      <c r="AP54" s="26"/>
+      <c r="AQ54" s="75"/>
+      <c r="AR54" s="75"/>
+      <c r="AS54" s="75"/>
+      <c r="AT54" s="75"/>
+      <c r="AU54" s="75"/>
+      <c r="AV54" s="25"/>
+      <c r="AW54" s="26"/>
+      <c r="AX54" s="26"/>
+      <c r="AY54" s="75"/>
+      <c r="AZ54" s="75"/>
+      <c r="BA54" s="117"/>
+      <c r="BB54" s="117"/>
+      <c r="BC54" s="25"/>
+      <c r="BD54" s="26"/>
+      <c r="BE54" s="117"/>
+      <c r="BF54" s="42"/>
+      <c r="BG54" s="42"/>
+      <c r="BH54" s="75"/>
+      <c r="BI54" s="75"/>
+      <c r="BJ54" s="25"/>
+      <c r="BK54" s="26"/>
+      <c r="BL54" s="75"/>
+      <c r="BM54" s="75"/>
+      <c r="BN54" s="75"/>
+      <c r="BO54" s="85"/>
+    </row>
+    <row r="55" spans="1:67" ht="12" customHeight="1">
+      <c r="A55" s="143"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="155"/>
+      <c r="D55" s="156"/>
+      <c r="E55" s="103"/>
+      <c r="F55" s="128"/>
+      <c r="G55" s="162"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="75"/>
+      <c r="P55" s="75"/>
+      <c r="Q55" s="75"/>
+      <c r="R55" s="75"/>
+      <c r="S55" s="75"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="26"/>
+      <c r="V55" s="26"/>
+      <c r="W55" s="75"/>
+      <c r="X55" s="75"/>
+      <c r="Y55" s="75"/>
+      <c r="Z55" s="75"/>
+      <c r="AA55" s="25"/>
+      <c r="AB55" s="26"/>
+      <c r="AC55" s="26"/>
+      <c r="AD55" s="75"/>
+      <c r="AE55" s="75"/>
+      <c r="AF55" s="75"/>
+      <c r="AG55" s="75"/>
+      <c r="AH55" s="25"/>
+      <c r="AI55" s="26"/>
+      <c r="AJ55" s="75"/>
+      <c r="AK55" s="85"/>
+      <c r="AL55" s="95"/>
+      <c r="AM55" s="75"/>
+      <c r="AN55" s="75"/>
+      <c r="AO55" s="25"/>
+      <c r="AP55" s="26"/>
+      <c r="AQ55" s="75"/>
+      <c r="AR55" s="75"/>
+      <c r="AS55" s="75"/>
+      <c r="AT55" s="75"/>
+      <c r="AU55" s="75"/>
+      <c r="AV55" s="25"/>
+      <c r="AW55" s="26"/>
+      <c r="AX55" s="26"/>
+      <c r="AY55" s="75"/>
+      <c r="AZ55" s="75"/>
+      <c r="BA55" s="117"/>
+      <c r="BB55" s="117"/>
+      <c r="BC55" s="25"/>
+      <c r="BD55" s="26"/>
+      <c r="BE55" s="117"/>
+      <c r="BF55" s="117"/>
+      <c r="BG55" s="117"/>
+      <c r="BH55" s="75"/>
+      <c r="BI55" s="75"/>
+      <c r="BJ55" s="25"/>
+      <c r="BK55" s="26"/>
+      <c r="BL55" s="75"/>
+      <c r="BM55" s="75"/>
+      <c r="BN55" s="75"/>
+      <c r="BO55" s="85"/>
+    </row>
+    <row r="56" spans="1:67" ht="12" customHeight="1">
+      <c r="A56" s="143"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="153" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="154"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="160" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" s="161"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="75"/>
+      <c r="P56" s="75"/>
+      <c r="Q56" s="75"/>
+      <c r="R56" s="75"/>
+      <c r="S56" s="75"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="26"/>
+      <c r="V56" s="26"/>
+      <c r="W56" s="75"/>
+      <c r="X56" s="75"/>
+      <c r="Y56" s="75"/>
+      <c r="Z56" s="75"/>
+      <c r="AA56" s="25"/>
+      <c r="AB56" s="26"/>
+      <c r="AC56" s="26"/>
+      <c r="AD56" s="75"/>
+      <c r="AE56" s="75"/>
+      <c r="AF56" s="75"/>
+      <c r="AG56" s="75"/>
+      <c r="AH56" s="25"/>
+      <c r="AI56" s="26"/>
+      <c r="AJ56" s="75"/>
+      <c r="AK56" s="85"/>
+      <c r="AL56" s="95"/>
+      <c r="AM56" s="75"/>
+      <c r="AN56" s="75"/>
+      <c r="AO56" s="25"/>
+      <c r="AP56" s="26"/>
+      <c r="AQ56" s="75"/>
+      <c r="AR56" s="75"/>
+      <c r="AS56" s="75"/>
+      <c r="AT56" s="75"/>
+      <c r="AU56" s="75"/>
+      <c r="AV56" s="25"/>
+      <c r="AW56" s="26"/>
+      <c r="AX56" s="26"/>
+      <c r="AY56" s="75"/>
+      <c r="AZ56" s="75"/>
+      <c r="BA56" s="117"/>
+      <c r="BB56" s="117"/>
+      <c r="BC56" s="25"/>
+      <c r="BD56" s="26"/>
+      <c r="BE56" s="117"/>
+      <c r="BF56" s="117"/>
+      <c r="BG56" s="117"/>
+      <c r="BH56" s="42"/>
+      <c r="BI56" s="75"/>
+      <c r="BJ56" s="25"/>
+      <c r="BK56" s="26"/>
+      <c r="BL56" s="75"/>
+      <c r="BM56" s="75"/>
+      <c r="BN56" s="75"/>
+      <c r="BO56" s="85"/>
+    </row>
+    <row r="57" spans="1:67" ht="12" customHeight="1">
+      <c r="A57" s="143"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="155"/>
+      <c r="D57" s="156"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="128"/>
+      <c r="G57" s="162"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="75"/>
+      <c r="P57" s="75"/>
+      <c r="Q57" s="75"/>
+      <c r="R57" s="75"/>
+      <c r="S57" s="75"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="26"/>
+      <c r="V57" s="26"/>
+      <c r="W57" s="75"/>
+      <c r="X57" s="75"/>
+      <c r="Y57" s="75"/>
+      <c r="Z57" s="75"/>
+      <c r="AA57" s="25"/>
+      <c r="AB57" s="26"/>
+      <c r="AC57" s="26"/>
+      <c r="AD57" s="75"/>
+      <c r="AE57" s="75"/>
+      <c r="AF57" s="75"/>
+      <c r="AG57" s="75"/>
+      <c r="AH57" s="25"/>
+      <c r="AI57" s="26"/>
+      <c r="AJ57" s="75"/>
+      <c r="AK57" s="85"/>
+      <c r="AL57" s="95"/>
+      <c r="AM57" s="75"/>
+      <c r="AN57" s="75"/>
+      <c r="AO57" s="25"/>
+      <c r="AP57" s="26"/>
+      <c r="AQ57" s="75"/>
+      <c r="AR57" s="75"/>
+      <c r="AS57" s="75"/>
+      <c r="AT57" s="75"/>
+      <c r="AU57" s="75"/>
+      <c r="AV57" s="25"/>
+      <c r="AW57" s="26"/>
+      <c r="AX57" s="26"/>
+      <c r="AY57" s="75"/>
+      <c r="AZ57" s="75"/>
+      <c r="BA57" s="117"/>
+      <c r="BB57" s="117"/>
+      <c r="BC57" s="25"/>
+      <c r="BD57" s="26"/>
+      <c r="BE57" s="117"/>
+      <c r="BF57" s="117"/>
+      <c r="BG57" s="117"/>
+      <c r="BH57" s="75"/>
+      <c r="BI57" s="75"/>
+      <c r="BJ57" s="25"/>
+      <c r="BK57" s="26"/>
+      <c r="BL57" s="75"/>
+      <c r="BM57" s="75"/>
+      <c r="BN57" s="75"/>
+      <c r="BO57" s="85"/>
+    </row>
+    <row r="58" spans="1:67" ht="12" customHeight="1">
+      <c r="A58" s="130">
         <v>12</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B58" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="135" t="s">
+      <c r="C58" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="136"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="155"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="155"/>
-      <c r="X26" s="155"/>
-      <c r="Y26" s="155"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="155"/>
-      <c r="AD26" s="155"/>
-      <c r="AE26" s="155"/>
-      <c r="AF26" s="155"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="21"/>
-      <c r="AI26" s="155"/>
-      <c r="AJ26" s="169"/>
-      <c r="AK26" s="180"/>
-      <c r="AL26" s="155"/>
-      <c r="AM26" s="155"/>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="21"/>
-      <c r="AP26" s="155"/>
-      <c r="AQ26" s="155"/>
-      <c r="AR26" s="155"/>
-      <c r="AS26" s="155"/>
-      <c r="AT26" s="155"/>
-      <c r="AU26" s="15"/>
-      <c r="AV26" s="21"/>
-      <c r="AW26" s="21"/>
-      <c r="AX26" s="155"/>
-      <c r="AY26" s="155"/>
-      <c r="AZ26" s="155"/>
-      <c r="BA26" s="155"/>
-      <c r="BB26" s="15"/>
-      <c r="BC26" s="21"/>
-      <c r="BD26" s="155"/>
-      <c r="BE26" s="155"/>
-      <c r="BF26" s="155"/>
-      <c r="BG26" s="155"/>
-      <c r="BH26" s="155"/>
-      <c r="BI26" s="15"/>
-      <c r="BJ26" s="21"/>
-      <c r="BK26" s="155"/>
-      <c r="BL26" s="155"/>
-      <c r="BM26" s="155"/>
-      <c r="BN26" s="169"/>
-    </row>
-    <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="91"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="153"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="153"/>
-      <c r="W27" s="153"/>
-      <c r="X27" s="153"/>
-      <c r="Y27" s="153"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="153"/>
-      <c r="AD27" s="153"/>
-      <c r="AE27" s="153"/>
-      <c r="AF27" s="153"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="19"/>
-      <c r="AI27" s="153"/>
-      <c r="AJ27" s="170"/>
-      <c r="AK27" s="181"/>
-      <c r="AL27" s="153"/>
-      <c r="AM27" s="153"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="19"/>
-      <c r="AP27" s="153"/>
-      <c r="AQ27" s="153"/>
-      <c r="AR27" s="153"/>
-      <c r="AS27" s="153"/>
-      <c r="AT27" s="153"/>
-      <c r="AU27" s="13"/>
-      <c r="AV27" s="19"/>
-      <c r="AW27" s="19"/>
-      <c r="AX27" s="153"/>
-      <c r="AY27" s="153"/>
-      <c r="AZ27" s="153"/>
-      <c r="BA27" s="153"/>
-      <c r="BB27" s="13"/>
-      <c r="BC27" s="19"/>
-      <c r="BD27" s="153"/>
-      <c r="BE27" s="153"/>
-      <c r="BF27" s="153"/>
-      <c r="BG27" s="153"/>
-      <c r="BH27" s="153"/>
-      <c r="BI27" s="13"/>
-      <c r="BJ27" s="19"/>
-      <c r="BK27" s="153"/>
-      <c r="BL27" s="153"/>
-      <c r="BM27" s="153"/>
-      <c r="BN27" s="170"/>
-    </row>
-    <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="108">
+      <c r="D58" s="146"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="149" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" s="151"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="76"/>
+      <c r="P58" s="76"/>
+      <c r="Q58" s="76"/>
+      <c r="R58" s="76"/>
+      <c r="S58" s="76"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="76"/>
+      <c r="X58" s="76"/>
+      <c r="Y58" s="76"/>
+      <c r="Z58" s="76"/>
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="21"/>
+      <c r="AC58" s="21"/>
+      <c r="AD58" s="76"/>
+      <c r="AE58" s="76"/>
+      <c r="AF58" s="76"/>
+      <c r="AG58" s="76"/>
+      <c r="AH58" s="15"/>
+      <c r="AI58" s="21"/>
+      <c r="AJ58" s="76"/>
+      <c r="AK58" s="87"/>
+      <c r="AL58" s="97"/>
+      <c r="AM58" s="76"/>
+      <c r="AN58" s="76"/>
+      <c r="AO58" s="15"/>
+      <c r="AP58" s="21"/>
+      <c r="AQ58" s="76"/>
+      <c r="AR58" s="76"/>
+      <c r="AS58" s="76"/>
+      <c r="AT58" s="76"/>
+      <c r="AU58" s="76"/>
+      <c r="AV58" s="15"/>
+      <c r="AW58" s="21"/>
+      <c r="AX58" s="21"/>
+      <c r="AY58" s="76"/>
+      <c r="AZ58" s="76"/>
+      <c r="BA58" s="76"/>
+      <c r="BB58" s="76"/>
+      <c r="BC58" s="15"/>
+      <c r="BD58" s="21"/>
+      <c r="BE58" s="76"/>
+      <c r="BF58" s="76"/>
+      <c r="BG58" s="76"/>
+      <c r="BH58" s="40"/>
+      <c r="BI58" s="40"/>
+      <c r="BJ58" s="15"/>
+      <c r="BK58" s="21"/>
+      <c r="BL58" s="40"/>
+      <c r="BM58" s="76"/>
+      <c r="BN58" s="76"/>
+      <c r="BO58" s="87"/>
+    </row>
+    <row r="59" spans="1:67" ht="12" customHeight="1">
+      <c r="A59" s="144"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="147"/>
+      <c r="D59" s="148"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="150"/>
+      <c r="G59" s="152"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="74"/>
+      <c r="P59" s="74"/>
+      <c r="Q59" s="74"/>
+      <c r="R59" s="74"/>
+      <c r="S59" s="74"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="74"/>
+      <c r="X59" s="74"/>
+      <c r="Y59" s="74"/>
+      <c r="Z59" s="74"/>
+      <c r="AA59" s="13"/>
+      <c r="AB59" s="19"/>
+      <c r="AC59" s="19"/>
+      <c r="AD59" s="74"/>
+      <c r="AE59" s="74"/>
+      <c r="AF59" s="74"/>
+      <c r="AG59" s="74"/>
+      <c r="AH59" s="13"/>
+      <c r="AI59" s="19"/>
+      <c r="AJ59" s="74"/>
+      <c r="AK59" s="88"/>
+      <c r="AL59" s="98"/>
+      <c r="AM59" s="74"/>
+      <c r="AN59" s="74"/>
+      <c r="AO59" s="13"/>
+      <c r="AP59" s="19"/>
+      <c r="AQ59" s="74"/>
+      <c r="AR59" s="74"/>
+      <c r="AS59" s="74"/>
+      <c r="AT59" s="74"/>
+      <c r="AU59" s="74"/>
+      <c r="AV59" s="13"/>
+      <c r="AW59" s="19"/>
+      <c r="AX59" s="19"/>
+      <c r="AY59" s="74"/>
+      <c r="AZ59" s="74"/>
+      <c r="BA59" s="74"/>
+      <c r="BB59" s="74"/>
+      <c r="BC59" s="13"/>
+      <c r="BD59" s="19"/>
+      <c r="BE59" s="74"/>
+      <c r="BF59" s="74"/>
+      <c r="BG59" s="74"/>
+      <c r="BH59" s="74"/>
+      <c r="BI59" s="74"/>
+      <c r="BJ59" s="13"/>
+      <c r="BK59" s="19"/>
+      <c r="BL59" s="74"/>
+      <c r="BM59" s="74"/>
+      <c r="BN59" s="74"/>
+      <c r="BO59" s="88"/>
+    </row>
+    <row r="60" spans="1:67" ht="12" customHeight="1">
+      <c r="A60" s="130">
         <v>14</v>
       </c>
-      <c r="B28" s="145" t="s">
+      <c r="B60" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="131" t="s">
+      <c r="C60" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="155"/>
-      <c r="AF28" s="155"/>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="21"/>
-      <c r="AI28" s="155"/>
-      <c r="AJ28" s="169"/>
-      <c r="AK28" s="180"/>
-      <c r="AL28" s="155"/>
-      <c r="AM28" s="155"/>
-      <c r="AN28" s="15"/>
-      <c r="AO28" s="21"/>
-      <c r="AP28" s="155"/>
-      <c r="AQ28" s="155"/>
-      <c r="AR28" s="155"/>
-      <c r="AS28" s="155"/>
-      <c r="AT28" s="155"/>
-      <c r="AU28" s="15"/>
-      <c r="AV28" s="21"/>
-      <c r="AW28" s="21"/>
-      <c r="AX28" s="155"/>
-      <c r="AY28" s="155"/>
-      <c r="AZ28" s="155"/>
-      <c r="BA28" s="155"/>
-      <c r="BB28" s="15"/>
-      <c r="BC28" s="21"/>
-      <c r="BD28" s="155"/>
-      <c r="BE28" s="155"/>
-      <c r="BF28" s="155"/>
-      <c r="BG28" s="155"/>
-      <c r="BH28" s="155"/>
-      <c r="BI28" s="15"/>
-      <c r="BJ28" s="21"/>
-      <c r="BK28" s="155"/>
-      <c r="BL28" s="155"/>
-      <c r="BM28" s="155"/>
-      <c r="BN28" s="169"/>
-    </row>
-    <row r="29" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="144"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="159"/>
-      <c r="W29" s="159"/>
-      <c r="X29" s="159"/>
-      <c r="Y29" s="159"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="159"/>
-      <c r="AD29" s="159"/>
-      <c r="AE29" s="159"/>
-      <c r="AF29" s="159"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="20"/>
-      <c r="AI29" s="159"/>
-      <c r="AJ29" s="171"/>
-      <c r="AK29" s="182"/>
-      <c r="AL29" s="159"/>
-      <c r="AM29" s="159"/>
-      <c r="AN29" s="14"/>
-      <c r="AO29" s="20"/>
-      <c r="AP29" s="159"/>
-      <c r="AQ29" s="159"/>
-      <c r="AR29" s="159"/>
-      <c r="AS29" s="159"/>
-      <c r="AT29" s="159"/>
-      <c r="AU29" s="14"/>
-      <c r="AV29" s="20"/>
-      <c r="AW29" s="20"/>
-      <c r="AX29" s="159"/>
-      <c r="AY29" s="159"/>
-      <c r="AZ29" s="159"/>
-      <c r="BA29" s="159"/>
-      <c r="BB29" s="14"/>
-      <c r="BC29" s="20"/>
-      <c r="BD29" s="159"/>
-      <c r="BE29" s="159"/>
-      <c r="BF29" s="159"/>
-      <c r="BG29" s="159"/>
-      <c r="BH29" s="159"/>
-      <c r="BI29" s="14"/>
-      <c r="BJ29" s="20"/>
-      <c r="BK29" s="159"/>
-      <c r="BL29" s="159"/>
-      <c r="BM29" s="159"/>
-      <c r="BN29" s="171"/>
-    </row>
-    <row r="30" spans="1:66">
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-    </row>
-    <row r="31" spans="1:66">
-      <c r="A31" s="27"/>
-      <c r="B31" s="1" t="s">
+      <c r="D60" s="135"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" s="140"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="15"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="76"/>
+      <c r="X60" s="76"/>
+      <c r="Y60" s="76"/>
+      <c r="Z60" s="76"/>
+      <c r="AA60" s="15"/>
+      <c r="AB60" s="21"/>
+      <c r="AC60" s="21"/>
+      <c r="AD60" s="76"/>
+      <c r="AE60" s="76"/>
+      <c r="AF60" s="76"/>
+      <c r="AG60" s="76"/>
+      <c r="AH60" s="15"/>
+      <c r="AI60" s="21"/>
+      <c r="AJ60" s="76"/>
+      <c r="AK60" s="87"/>
+      <c r="AL60" s="97"/>
+      <c r="AM60" s="76"/>
+      <c r="AN60" s="76"/>
+      <c r="AO60" s="15"/>
+      <c r="AP60" s="21"/>
+      <c r="AQ60" s="76"/>
+      <c r="AR60" s="76"/>
+      <c r="AS60" s="76"/>
+      <c r="AT60" s="76"/>
+      <c r="AU60" s="76"/>
+      <c r="AV60" s="15"/>
+      <c r="AW60" s="21"/>
+      <c r="AX60" s="21"/>
+      <c r="AY60" s="76"/>
+      <c r="AZ60" s="76"/>
+      <c r="BA60" s="76"/>
+      <c r="BB60" s="76"/>
+      <c r="BC60" s="15"/>
+      <c r="BD60" s="21"/>
+      <c r="BE60" s="76"/>
+      <c r="BF60" s="76"/>
+      <c r="BG60" s="76"/>
+      <c r="BH60" s="76"/>
+      <c r="BI60" s="76"/>
+      <c r="BJ60" s="15"/>
+      <c r="BK60" s="21"/>
+      <c r="BL60" s="40"/>
+      <c r="BM60" s="40"/>
+      <c r="BN60" s="124"/>
+      <c r="BO60" s="87"/>
+    </row>
+    <row r="61" spans="1:67" ht="12" customHeight="1" thickBot="1">
+      <c r="A61" s="131"/>
+      <c r="B61" s="133"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="139"/>
+      <c r="G61" s="141"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="14"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="78"/>
+      <c r="X61" s="78"/>
+      <c r="Y61" s="78"/>
+      <c r="Z61" s="78"/>
+      <c r="AA61" s="14"/>
+      <c r="AB61" s="20"/>
+      <c r="AC61" s="20"/>
+      <c r="AD61" s="78"/>
+      <c r="AE61" s="78"/>
+      <c r="AF61" s="78"/>
+      <c r="AG61" s="78"/>
+      <c r="AH61" s="14"/>
+      <c r="AI61" s="20"/>
+      <c r="AJ61" s="78"/>
+      <c r="AK61" s="89"/>
+      <c r="AL61" s="99"/>
+      <c r="AM61" s="78"/>
+      <c r="AN61" s="78"/>
+      <c r="AO61" s="14"/>
+      <c r="AP61" s="20"/>
+      <c r="AQ61" s="78"/>
+      <c r="AR61" s="78"/>
+      <c r="AS61" s="78"/>
+      <c r="AT61" s="78"/>
+      <c r="AU61" s="78"/>
+      <c r="AV61" s="14"/>
+      <c r="AW61" s="20"/>
+      <c r="AX61" s="20"/>
+      <c r="AY61" s="78"/>
+      <c r="AZ61" s="78"/>
+      <c r="BA61" s="78"/>
+      <c r="BB61" s="78"/>
+      <c r="BC61" s="14"/>
+      <c r="BD61" s="20"/>
+      <c r="BE61" s="78"/>
+      <c r="BF61" s="78"/>
+      <c r="BG61" s="78"/>
+      <c r="BH61" s="78"/>
+      <c r="BI61" s="78"/>
+      <c r="BJ61" s="14"/>
+      <c r="BK61" s="20"/>
+      <c r="BL61" s="78"/>
+      <c r="BM61" s="78"/>
+      <c r="BN61" s="78"/>
+      <c r="BO61" s="89"/>
+    </row>
+    <row r="62" spans="1:67">
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+    </row>
+    <row r="63" spans="1:67">
+      <c r="A63" s="27"/>
+      <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:66">
-      <c r="A32" s="28"/>
-      <c r="B32" s="1" t="s">
+    <row r="64" spans="1:67">
+      <c r="A64" s="28"/>
+      <c r="B64" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
+  <mergeCells count="98">
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H1:AK1"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="AL1:BO1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:D3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A8:A25"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="C8:D16"/>
+    <mergeCell ref="C20:D25"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="C28:D39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F24:F25"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -5286,7 +8008,7 @@
     <oddFooter>&amp;C&amp;"ＭＳ Ｐゴシック,標準"&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 *** Corporation. All Rights Reserved.</oddFooter>
   </headerFooter>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="30" max="80" man="1"/>
+    <brk id="31" max="80" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -5306,67 +8028,67 @@
       <selection pane="bottomRight" activeCell="AF27" sqref="AF27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="3" customWidth="1"/>
-    <col min="7" max="30" width="3.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7" max="30" width="3.109375" style="3" customWidth="1"/>
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="82" t="s">
+      <c r="D1" s="207"/>
+      <c r="E1" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="63"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="198"/>
+      <c r="K1" s="198"/>
+      <c r="L1" s="198"/>
+      <c r="M1" s="198"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="198"/>
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="198"/>
+      <c r="S1" s="198"/>
+      <c r="T1" s="198"/>
+      <c r="U1" s="198"/>
+      <c r="V1" s="198"/>
+      <c r="W1" s="198"/>
+      <c r="X1" s="198"/>
+      <c r="Y1" s="198"/>
+      <c r="Z1" s="198"/>
+      <c r="AA1" s="198"/>
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="198"/>
+      <c r="AD1" s="199"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="86"/>
+      <c r="A2" s="201"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="216"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -5441,12 +8163,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="87"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="217"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -5521,20 +8243,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="90">
+      <c r="A4" s="190">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="96" t="s">
+      <c r="D4" s="192"/>
+      <c r="E4" s="223" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="98"/>
+      <c r="F4" s="195"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -5557,20 +8279,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="64" t="s">
+      <c r="AC4" s="225" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="67" t="s">
+      <c r="AD4" s="218" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="91"/>
+      <c r="A5" s="144"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="99"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="196"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -5593,22 +8315,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="68"/>
+      <c r="AC5" s="226"/>
+      <c r="AD5" s="219"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="108">
+      <c r="A6" s="130">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="113" t="s">
+      <c r="D6" s="154"/>
+      <c r="E6" s="221" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="115"/>
+      <c r="F6" s="188"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -5631,16 +8353,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="68"/>
+      <c r="AC6" s="226"/>
+      <c r="AD6" s="219"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="91"/>
+      <c r="A7" s="144"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="116"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="189"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -5663,24 +8385,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="68"/>
+      <c r="AC7" s="226"/>
+      <c r="AD7" s="219"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="117">
+      <c r="A8" s="142">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="122" t="s">
+      <c r="D8" s="180"/>
+      <c r="E8" s="228" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="124"/>
+      <c r="F8" s="165"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5703,16 +8425,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="68"/>
+      <c r="AC8" s="226"/>
+      <c r="AD8" s="219"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="89"/>
+      <c r="A9" s="163"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="125"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="171"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -5735,24 +8457,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="68"/>
+      <c r="AC9" s="226"/>
+      <c r="AD9" s="219"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="88">
+      <c r="A10" s="143">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="104" t="s">
+      <c r="D10" s="175"/>
+      <c r="E10" s="230" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="106"/>
+      <c r="F10" s="232"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -5775,16 +8497,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="68"/>
+      <c r="AC10" s="226"/>
+      <c r="AD10" s="219"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="89"/>
+      <c r="A11" s="163"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="107"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="231"/>
+      <c r="F11" s="162"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -5807,22 +8529,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="68"/>
+      <c r="AC11" s="226"/>
+      <c r="AD11" s="219"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="117">
+      <c r="A12" s="142">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="128" t="s">
+      <c r="D12" s="154"/>
+      <c r="E12" s="233" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="129"/>
+      <c r="F12" s="161"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -5845,16 +8567,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="68"/>
+      <c r="AC12" s="226"/>
+      <c r="AD12" s="219"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="88"/>
+      <c r="A13" s="143"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="106"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="230"/>
+      <c r="F13" s="232"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -5877,24 +8599,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="68"/>
+      <c r="AC13" s="226"/>
+      <c r="AD13" s="219"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="130">
+      <c r="A14" s="166">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133" t="s">
+      <c r="D14" s="135"/>
+      <c r="E14" s="234" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="124"/>
+      <c r="F14" s="165"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -5917,16 +8639,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="68"/>
+      <c r="AC14" s="226"/>
+      <c r="AD14" s="219"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="130"/>
+      <c r="A15" s="166"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="107"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="231"/>
+      <c r="F15" s="162"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -5949,22 +8671,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="68"/>
+      <c r="AC15" s="226"/>
+      <c r="AD15" s="219"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="130">
+      <c r="A16" s="166">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="167" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="134" t="s">
+      <c r="D16" s="154"/>
+      <c r="E16" s="235" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="129"/>
+      <c r="F16" s="161"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -5987,16 +8709,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="68"/>
+      <c r="AC16" s="226"/>
+      <c r="AD16" s="219"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="130"/>
+      <c r="A17" s="166"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="107"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="231"/>
+      <c r="F17" s="162"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -6019,22 +8741,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="68"/>
+      <c r="AC17" s="226"/>
+      <c r="AD17" s="219"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="130">
+      <c r="A18" s="166">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="134" t="s">
+      <c r="D18" s="154"/>
+      <c r="E18" s="235" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="129"/>
+      <c r="F18" s="161"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -6057,16 +8779,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="68"/>
+      <c r="AC18" s="226"/>
+      <c r="AD18" s="219"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="130"/>
+      <c r="A19" s="166"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="125"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="229"/>
+      <c r="F19" s="171"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -6089,24 +8811,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="68"/>
+      <c r="AC19" s="226"/>
+      <c r="AD19" s="219"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="117">
+      <c r="A20" s="142">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="131" t="s">
+      <c r="C20" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133" t="s">
+      <c r="D20" s="135"/>
+      <c r="E20" s="234" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="124"/>
+      <c r="F20" s="165"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -6129,18 +8851,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="68"/>
+      <c r="AC20" s="226"/>
+      <c r="AD20" s="219"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="89"/>
+      <c r="A21" s="163"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="107"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="231"/>
+      <c r="F21" s="162"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -6163,22 +8885,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="68"/>
+      <c r="AC21" s="226"/>
+      <c r="AD21" s="219"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="117">
+      <c r="A22" s="142">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="110"/>
-      <c r="E22" s="134" t="s">
+      <c r="D22" s="154"/>
+      <c r="E22" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="129"/>
+      <c r="F22" s="161"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -6201,16 +8923,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="68"/>
+      <c r="AC22" s="226"/>
+      <c r="AD22" s="219"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="89"/>
+      <c r="A23" s="163"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="107"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="231"/>
+      <c r="F23" s="162"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -6233,22 +8955,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="68"/>
+      <c r="AC23" s="226"/>
+      <c r="AD23" s="219"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="117">
+      <c r="A24" s="142">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="143" t="s">
+      <c r="C24" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="110"/>
-      <c r="E24" s="134" t="s">
+      <c r="D24" s="154"/>
+      <c r="E24" s="235" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="129"/>
+      <c r="F24" s="161"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -6271,16 +8993,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="68"/>
+      <c r="AC24" s="226"/>
+      <c r="AD24" s="219"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="89"/>
+      <c r="A25" s="163"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="125"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="231"/>
+      <c r="F25" s="171"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -6303,24 +9025,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="68"/>
+      <c r="AC25" s="226"/>
+      <c r="AD25" s="219"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="108">
+      <c r="A26" s="130">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="135" t="s">
+      <c r="C26" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="136"/>
-      <c r="E26" s="139" t="s">
+      <c r="D26" s="146"/>
+      <c r="E26" s="236" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="141"/>
+      <c r="F26" s="151"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -6343,16 +9065,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="68"/>
+      <c r="AC26" s="226"/>
+      <c r="AD26" s="219"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="91"/>
+      <c r="A27" s="144"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="142"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="237"/>
+      <c r="F27" s="152"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -6375,24 +9097,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="68"/>
+      <c r="AC27" s="226"/>
+      <c r="AD27" s="219"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="108">
+      <c r="A28" s="130">
         <v>14</v>
       </c>
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="131" t="s">
+      <c r="C28" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="145" t="s">
+      <c r="D28" s="135"/>
+      <c r="E28" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="149"/>
+      <c r="F28" s="140"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -6415,16 +9137,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="68"/>
+      <c r="AC28" s="226"/>
+      <c r="AD28" s="219"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="144"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="150"/>
+      <c r="A29" s="131"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="141"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -6447,8 +9169,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="66"/>
-      <c r="AD29" s="69"/>
+      <c r="AC29" s="227"/>
+      <c r="AD29" s="220"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -6468,51 +9190,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:D29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="C20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C16:D17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -6523,6 +9239,12 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="AC4:AC29"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
     <mergeCell ref="G1:AD1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36DFD32-4EF5-491C-A980-969826FCEE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797520D4-F14D-498B-8B55-FB07F43A832D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="70">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -639,6 +639,18 @@
     <rPh sb="0" eb="2">
       <t>アキヤマ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>OM</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1762,7 +1774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2130,6 +2142,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2468,6 +2486,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3177,7 +3198,7 @@
       <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" sqref="A1:A3"/>
+      <selection pane="bottomRight" activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3195,98 +3216,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="206" t="s">
+      <c r="C1" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="207"/>
-      <c r="E1" s="212" t="s">
+      <c r="D1" s="209"/>
+      <c r="E1" s="214" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="212" t="s">
+      <c r="F1" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="215" t="s">
+      <c r="G1" s="217" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="197">
+      <c r="H1" s="199">
         <v>45536</v>
       </c>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="198"/>
-      <c r="T1" s="198"/>
-      <c r="U1" s="198"/>
-      <c r="V1" s="198"/>
-      <c r="W1" s="198"/>
-      <c r="X1" s="198"/>
-      <c r="Y1" s="198"/>
-      <c r="Z1" s="198"/>
-      <c r="AA1" s="198"/>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="198"/>
-      <c r="AD1" s="198"/>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="198"/>
-      <c r="AG1" s="198"/>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="198"/>
-      <c r="AJ1" s="198"/>
-      <c r="AK1" s="199"/>
-      <c r="AL1" s="197">
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="200"/>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="200"/>
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="200"/>
+      <c r="AA1" s="200"/>
+      <c r="AB1" s="200"/>
+      <c r="AC1" s="200"/>
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="200"/>
+      <c r="AG1" s="200"/>
+      <c r="AH1" s="200"/>
+      <c r="AI1" s="200"/>
+      <c r="AJ1" s="200"/>
+      <c r="AK1" s="201"/>
+      <c r="AL1" s="199">
         <v>45566</v>
       </c>
-      <c r="AM1" s="198"/>
-      <c r="AN1" s="198"/>
-      <c r="AO1" s="198"/>
-      <c r="AP1" s="198"/>
-      <c r="AQ1" s="198"/>
-      <c r="AR1" s="198"/>
-      <c r="AS1" s="198"/>
-      <c r="AT1" s="198"/>
-      <c r="AU1" s="198"/>
-      <c r="AV1" s="198"/>
-      <c r="AW1" s="198"/>
-      <c r="AX1" s="198"/>
-      <c r="AY1" s="198"/>
-      <c r="AZ1" s="198"/>
-      <c r="BA1" s="198"/>
-      <c r="BB1" s="198"/>
-      <c r="BC1" s="198"/>
-      <c r="BD1" s="198"/>
-      <c r="BE1" s="198"/>
-      <c r="BF1" s="198"/>
-      <c r="BG1" s="198"/>
-      <c r="BH1" s="198"/>
-      <c r="BI1" s="198"/>
-      <c r="BJ1" s="198"/>
-      <c r="BK1" s="198"/>
-      <c r="BL1" s="198"/>
-      <c r="BM1" s="198"/>
-      <c r="BN1" s="198"/>
-      <c r="BO1" s="199"/>
+      <c r="AM1" s="200"/>
+      <c r="AN1" s="200"/>
+      <c r="AO1" s="200"/>
+      <c r="AP1" s="200"/>
+      <c r="AQ1" s="200"/>
+      <c r="AR1" s="200"/>
+      <c r="AS1" s="200"/>
+      <c r="AT1" s="200"/>
+      <c r="AU1" s="200"/>
+      <c r="AV1" s="200"/>
+      <c r="AW1" s="200"/>
+      <c r="AX1" s="200"/>
+      <c r="AY1" s="200"/>
+      <c r="AZ1" s="200"/>
+      <c r="BA1" s="200"/>
+      <c r="BB1" s="200"/>
+      <c r="BC1" s="200"/>
+      <c r="BD1" s="200"/>
+      <c r="BE1" s="200"/>
+      <c r="BF1" s="200"/>
+      <c r="BG1" s="200"/>
+      <c r="BH1" s="200"/>
+      <c r="BI1" s="200"/>
+      <c r="BJ1" s="200"/>
+      <c r="BK1" s="200"/>
+      <c r="BL1" s="200"/>
+      <c r="BM1" s="200"/>
+      <c r="BN1" s="200"/>
+      <c r="BO1" s="201"/>
     </row>
     <row r="2" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A2" s="201"/>
-      <c r="B2" s="204"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="216"/>
+      <c r="A2" s="203"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="218"/>
       <c r="H2" s="46">
         <v>45537</v>
       </c>
@@ -3319,11 +3340,11 @@
         <v>45544</v>
       </c>
       <c r="P2" s="4">
-        <f t="shared" si="0"/>
+        <f>O2+1</f>
         <v>45545</v>
       </c>
       <c r="Q2" s="4">
-        <f t="shared" si="0"/>
+        <f>P2+1</f>
         <v>45546</v>
       </c>
       <c r="R2" s="4">
@@ -3528,13 +3549,13 @@
       </c>
     </row>
     <row r="3" spans="1:67" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="202"/>
-      <c r="B3" s="205"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="217"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="219"/>
       <c r="H3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3717,21 +3738,21 @@
       </c>
     </row>
     <row r="4" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A4" s="190">
+      <c r="A4" s="192">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="191" t="s">
+      <c r="C4" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="192"/>
+      <c r="D4" s="194"/>
       <c r="E4" s="61"/>
-      <c r="F4" s="193" t="s">
+      <c r="F4" s="195" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="195"/>
+      <c r="G4" s="197"/>
       <c r="H4" s="49"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
@@ -3794,13 +3815,13 @@
       <c r="BO4" s="80"/>
     </row>
     <row r="5" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A5" s="144"/>
+      <c r="A5" s="146"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="156"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="158"/>
       <c r="E5" s="62"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="196"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="198"/>
       <c r="H5" s="50"/>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
@@ -3863,19 +3884,19 @@
       <c r="BO5" s="81"/>
     </row>
     <row r="6" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A6" s="130">
+      <c r="A6" s="132">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="154"/>
+      <c r="D6" s="156"/>
       <c r="E6" s="66"/>
-      <c r="F6" s="186" t="s">
+      <c r="F6" s="188" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="188"/>
+      <c r="G6" s="190"/>
       <c r="H6" s="51"/>
       <c r="I6" s="74"/>
       <c r="J6" s="30"/>
@@ -3938,13 +3959,13 @@
       <c r="BO6" s="82"/>
     </row>
     <row r="7" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A7" s="144"/>
+      <c r="A7" s="146"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="169"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="171"/>
       <c r="E7" s="67"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="191"/>
       <c r="H7" s="52"/>
       <c r="I7" s="75"/>
       <c r="J7" s="32"/>
@@ -4007,23 +4028,23 @@
       <c r="BO7" s="83"/>
     </row>
     <row r="8" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A8" s="142">
+      <c r="A8" s="144">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="179" t="s">
+      <c r="C8" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="180"/>
+      <c r="D8" s="182"/>
       <c r="E8" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="178" t="s">
+      <c r="F8" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="185"/>
+      <c r="G8" s="187"/>
       <c r="H8" s="38"/>
       <c r="I8" s="76"/>
       <c r="J8" s="76"/>
@@ -4031,7 +4052,9 @@
       <c r="L8" s="76"/>
       <c r="M8" s="15"/>
       <c r="N8" s="21"/>
-      <c r="O8" s="30"/>
+      <c r="O8" s="30" t="s">
+        <v>67</v>
+      </c>
       <c r="P8" s="76"/>
       <c r="Q8" s="76"/>
       <c r="R8" s="76"/>
@@ -4086,21 +4109,21 @@
       <c r="BO8" s="84"/>
     </row>
     <row r="9" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A9" s="143"/>
+      <c r="A9" s="145"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="175"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="177"/>
       <c r="E9" s="62"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="129"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="131"/>
       <c r="H9" s="50"/>
       <c r="I9" s="73"/>
       <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
       <c r="M9" s="16"/>
       <c r="N9" s="22"/>
-      <c r="O9" s="116"/>
+      <c r="O9" s="31"/>
       <c r="P9" s="73"/>
       <c r="Q9" s="73"/>
       <c r="R9" s="73"/>
@@ -4155,17 +4178,17 @@
       <c r="BO9" s="81"/>
     </row>
     <row r="10" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A10" s="143"/>
+      <c r="A10" s="145"/>
       <c r="B10" s="36"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="175"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="177"/>
       <c r="E10" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="127" t="s">
+      <c r="F10" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="125"/>
+      <c r="G10" s="127"/>
       <c r="H10" s="50"/>
       <c r="I10" s="73"/>
       <c r="J10" s="73"/>
@@ -4173,8 +4196,12 @@
       <c r="L10" s="73"/>
       <c r="M10" s="16"/>
       <c r="N10" s="22"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
+      <c r="O10" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="41" t="s">
+        <v>67</v>
+      </c>
       <c r="Q10" s="73"/>
       <c r="R10" s="73"/>
       <c r="S10" s="73"/>
@@ -4228,22 +4255,22 @@
       <c r="BO10" s="81"/>
     </row>
     <row r="11" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A11" s="143"/>
+      <c r="A11" s="145"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="175"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="177"/>
       <c r="E11" s="109"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="126"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="128"/>
       <c r="H11" s="50"/>
       <c r="I11" s="73"/>
       <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
       <c r="M11" s="16"/>
       <c r="N11" s="22"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
       <c r="Q11" s="73"/>
       <c r="R11" s="73"/>
       <c r="S11" s="73"/>
@@ -4297,17 +4324,17 @@
       <c r="BO11" s="81"/>
     </row>
     <row r="12" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A12" s="143"/>
+      <c r="A12" s="145"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="174"/>
-      <c r="D12" s="175"/>
+      <c r="C12" s="176"/>
+      <c r="D12" s="177"/>
       <c r="E12" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="127" t="s">
+      <c r="F12" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="125"/>
+      <c r="G12" s="127"/>
       <c r="H12" s="51"/>
       <c r="I12" s="74"/>
       <c r="J12" s="74"/>
@@ -4316,7 +4343,9 @@
       <c r="M12" s="13"/>
       <c r="N12" s="19"/>
       <c r="O12" s="74"/>
-      <c r="P12" s="30"/>
+      <c r="P12" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="Q12" s="107"/>
       <c r="R12" s="74"/>
       <c r="S12" s="74"/>
@@ -4370,22 +4399,22 @@
       <c r="BO12" s="82"/>
     </row>
     <row r="13" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A13" s="143"/>
+      <c r="A13" s="145"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="174"/>
-      <c r="D13" s="175"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="177"/>
       <c r="E13" s="109"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="129"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="131"/>
       <c r="H13" s="51"/>
       <c r="I13" s="74"/>
       <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="125"/>
       <c r="M13" s="13"/>
       <c r="N13" s="19"/>
       <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
+      <c r="P13" s="125"/>
       <c r="Q13" s="107"/>
       <c r="R13" s="74"/>
       <c r="S13" s="74"/>
@@ -4439,17 +4468,17 @@
       <c r="BO13" s="82"/>
     </row>
     <row r="14" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A14" s="143"/>
+      <c r="A14" s="145"/>
       <c r="B14" s="36"/>
-      <c r="C14" s="174"/>
-      <c r="D14" s="175"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="177"/>
       <c r="E14" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="127" t="s">
+      <c r="F14" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="125"/>
+      <c r="G14" s="127"/>
       <c r="H14" s="51"/>
       <c r="I14" s="74"/>
       <c r="J14" s="74"/>
@@ -4512,22 +4541,22 @@
       <c r="BO14" s="82"/>
     </row>
     <row r="15" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A15" s="143"/>
+      <c r="A15" s="145"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="177"/>
       <c r="E15" s="68"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="126"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="128"/>
       <c r="H15" s="51"/>
       <c r="I15" s="74"/>
       <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
       <c r="M15" s="13"/>
       <c r="N15" s="19"/>
       <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
+      <c r="P15" s="125"/>
       <c r="Q15" s="107"/>
       <c r="R15" s="107"/>
       <c r="S15" s="74"/>
@@ -4581,17 +4610,17 @@
       <c r="BO15" s="82"/>
     </row>
     <row r="16" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A16" s="143"/>
+      <c r="A16" s="145"/>
       <c r="B16" s="36"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="175"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="177"/>
       <c r="E16" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="127" t="s">
+      <c r="F16" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="125"/>
+      <c r="G16" s="127"/>
       <c r="H16" s="51"/>
       <c r="I16" s="74"/>
       <c r="J16" s="74"/>
@@ -4602,7 +4631,9 @@
       <c r="O16" s="74"/>
       <c r="P16" s="74"/>
       <c r="Q16" s="74"/>
-      <c r="R16" s="30"/>
+      <c r="R16" s="30" t="s">
+        <v>67</v>
+      </c>
       <c r="S16" s="107"/>
       <c r="T16" s="13"/>
       <c r="U16" s="19"/>
@@ -4654,23 +4685,23 @@
       <c r="BO16" s="82"/>
     </row>
     <row r="17" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A17" s="143"/>
+      <c r="A17" s="145"/>
       <c r="B17" s="36"/>
       <c r="C17" s="64"/>
       <c r="D17" s="65"/>
       <c r="E17" s="62"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="126"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="128"/>
       <c r="H17" s="51"/>
       <c r="I17" s="74"/>
       <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
       <c r="M17" s="13"/>
       <c r="N17" s="19"/>
       <c r="O17" s="74"/>
       <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
+      <c r="Q17" s="125"/>
       <c r="R17" s="107"/>
       <c r="S17" s="107"/>
       <c r="T17" s="13"/>
@@ -4723,17 +4754,17 @@
       <c r="BO17" s="82"/>
     </row>
     <row r="18" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A18" s="143"/>
+      <c r="A18" s="145"/>
       <c r="B18" s="36"/>
-      <c r="C18" s="181" t="s">
+      <c r="C18" s="183" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="182"/>
+      <c r="D18" s="184"/>
       <c r="E18" s="68"/>
-      <c r="F18" s="127" t="s">
+      <c r="F18" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="125"/>
+      <c r="G18" s="127"/>
       <c r="H18" s="51"/>
       <c r="I18" s="74"/>
       <c r="J18" s="74"/>
@@ -4744,7 +4775,9 @@
       <c r="O18" s="74"/>
       <c r="P18" s="74"/>
       <c r="Q18" s="74"/>
-      <c r="R18" s="30"/>
+      <c r="R18" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="S18" s="107"/>
       <c r="T18" s="13"/>
       <c r="U18" s="19"/>
@@ -4796,13 +4829,13 @@
       <c r="BO18" s="82"/>
     </row>
     <row r="19" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A19" s="143"/>
+      <c r="A19" s="145"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="177"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="179"/>
       <c r="E19" s="109"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="126"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="128"/>
       <c r="H19" s="51"/>
       <c r="I19" s="74"/>
       <c r="J19" s="74"/>
@@ -4812,7 +4845,7 @@
       <c r="N19" s="19"/>
       <c r="O19" s="74"/>
       <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
+      <c r="Q19" s="125"/>
       <c r="R19" s="74"/>
       <c r="S19" s="107"/>
       <c r="T19" s="13"/>
@@ -4865,19 +4898,19 @@
       <c r="BO19" s="82"/>
     </row>
     <row r="20" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A20" s="143"/>
+      <c r="A20" s="145"/>
       <c r="B20" s="36"/>
-      <c r="C20" s="181" t="s">
+      <c r="C20" s="183" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="182"/>
+      <c r="D20" s="184"/>
       <c r="E20" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="127" t="s">
+      <c r="F20" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="125"/>
+      <c r="G20" s="127"/>
       <c r="H20" s="51"/>
       <c r="I20" s="74"/>
       <c r="J20" s="74"/>
@@ -4940,24 +4973,24 @@
       <c r="BO20" s="82"/>
     </row>
     <row r="21" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A21" s="143"/>
+      <c r="A21" s="145"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="177"/>
       <c r="E21" s="109"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="126"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="128"/>
       <c r="H21" s="51"/>
       <c r="I21" s="74"/>
       <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
       <c r="M21" s="13"/>
       <c r="N21" s="19"/>
       <c r="O21" s="74"/>
       <c r="P21" s="74"/>
       <c r="Q21" s="74"/>
-      <c r="R21" s="108"/>
+      <c r="R21" s="240"/>
       <c r="S21" s="74"/>
       <c r="T21" s="13"/>
       <c r="U21" s="19"/>
@@ -5009,17 +5042,17 @@
       <c r="BO21" s="82"/>
     </row>
     <row r="22" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A22" s="143"/>
+      <c r="A22" s="145"/>
       <c r="B22" s="36"/>
-      <c r="C22" s="174"/>
-      <c r="D22" s="175"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="177"/>
       <c r="E22" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="127" t="s">
+      <c r="F22" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="125"/>
+      <c r="G22" s="127"/>
       <c r="H22" s="51"/>
       <c r="I22" s="74"/>
       <c r="J22" s="74"/>
@@ -5036,7 +5069,9 @@
       <c r="U22" s="19"/>
       <c r="V22" s="19"/>
       <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
+      <c r="X22" s="30" t="s">
+        <v>67</v>
+      </c>
       <c r="Y22" s="107"/>
       <c r="Z22" s="7"/>
       <c r="AA22" s="13"/>
@@ -5082,25 +5117,25 @@
       <c r="BO22" s="82"/>
     </row>
     <row r="23" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A23" s="143"/>
+      <c r="A23" s="145"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="174"/>
-      <c r="D23" s="175"/>
+      <c r="C23" s="176"/>
+      <c r="D23" s="177"/>
       <c r="E23" s="109"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="126"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="128"/>
       <c r="H23" s="52"/>
       <c r="I23" s="75"/>
       <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
       <c r="M23" s="25"/>
       <c r="N23" s="26"/>
       <c r="O23" s="75"/>
       <c r="P23" s="75"/>
       <c r="Q23" s="75"/>
       <c r="R23" s="113"/>
-      <c r="S23" s="75"/>
+      <c r="S23" s="32"/>
       <c r="T23" s="25"/>
       <c r="U23" s="26"/>
       <c r="V23" s="26"/>
@@ -5151,17 +5186,17 @@
       <c r="BO23" s="83"/>
     </row>
     <row r="24" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A24" s="143"/>
+      <c r="A24" s="145"/>
       <c r="B24" s="36"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="175"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="177"/>
       <c r="E24" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="127" t="s">
+      <c r="F24" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="125"/>
+      <c r="G24" s="127"/>
       <c r="H24" s="52"/>
       <c r="I24" s="75"/>
       <c r="J24" s="75"/>
@@ -5178,7 +5213,9 @@
       <c r="U24" s="26"/>
       <c r="V24" s="26"/>
       <c r="W24" s="24"/>
-      <c r="X24" s="42"/>
+      <c r="X24" s="42" t="s">
+        <v>68</v>
+      </c>
       <c r="Y24" s="42"/>
       <c r="Z24" s="117"/>
       <c r="AA24" s="25"/>
@@ -5224,18 +5261,18 @@
       <c r="BO24" s="83"/>
     </row>
     <row r="25" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A25" s="163"/>
+      <c r="A25" s="165"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="184"/>
+      <c r="C25" s="185"/>
+      <c r="D25" s="186"/>
       <c r="E25" s="115"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="126"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="128"/>
       <c r="H25" s="54"/>
       <c r="I25" s="77"/>
       <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="126"/>
       <c r="M25" s="17"/>
       <c r="N25" s="23"/>
       <c r="O25" s="77"/>
@@ -5246,7 +5283,7 @@
       <c r="T25" s="17"/>
       <c r="U25" s="23"/>
       <c r="V25" s="23"/>
-      <c r="W25" s="8"/>
+      <c r="W25" s="118"/>
       <c r="X25" s="8"/>
       <c r="Y25" s="118"/>
       <c r="Z25" s="118"/>
@@ -5293,21 +5330,21 @@
       <c r="BO25" s="111"/>
     </row>
     <row r="26" spans="1:67" ht="12" customHeight="1">
-      <c r="A26" s="143">
+      <c r="A26" s="145">
         <v>4</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="174" t="s">
+      <c r="C26" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="175"/>
+      <c r="D26" s="177"/>
       <c r="E26" s="63"/>
-      <c r="F26" s="178" t="s">
+      <c r="F26" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="165"/>
+      <c r="G26" s="167"/>
       <c r="H26" s="50"/>
       <c r="I26" s="73"/>
       <c r="J26" s="73"/>
@@ -5370,13 +5407,13 @@
       <c r="BO26" s="81"/>
     </row>
     <row r="27" spans="1:67" ht="12" customHeight="1">
-      <c r="A27" s="163"/>
+      <c r="A27" s="165"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="177"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="179"/>
       <c r="E27" s="65"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="162"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="164"/>
       <c r="H27" s="50"/>
       <c r="I27" s="73"/>
       <c r="J27" s="73"/>
@@ -5439,21 +5476,21 @@
       <c r="BO27" s="81"/>
     </row>
     <row r="28" spans="1:67" ht="12" customHeight="1">
-      <c r="A28" s="142">
+      <c r="A28" s="144">
         <v>5</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="167" t="s">
+      <c r="C28" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="154"/>
+      <c r="D28" s="156"/>
       <c r="E28" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="127" t="s">
+      <c r="F28" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="125"/>
+      <c r="G28" s="127"/>
       <c r="H28" s="51"/>
       <c r="I28" s="74"/>
       <c r="J28" s="74"/>
@@ -5477,7 +5514,9 @@
       <c r="AB28" s="19"/>
       <c r="AC28" s="19"/>
       <c r="AD28" s="30"/>
-      <c r="AE28" s="30"/>
+      <c r="AE28" s="30" t="s">
+        <v>67</v>
+      </c>
       <c r="AF28" s="107"/>
       <c r="AG28" s="107"/>
       <c r="AH28" s="13"/>
@@ -5516,13 +5555,13 @@
       <c r="BO28" s="82"/>
     </row>
     <row r="29" spans="1:67" ht="12" customHeight="1">
-      <c r="A29" s="143"/>
+      <c r="A29" s="145"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="173"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="175"/>
       <c r="E29" s="109"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="126"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="128"/>
       <c r="H29" s="52"/>
       <c r="I29" s="75"/>
       <c r="J29" s="75"/>
@@ -5585,17 +5624,17 @@
       <c r="BO29" s="83"/>
     </row>
     <row r="30" spans="1:67" ht="12" customHeight="1">
-      <c r="A30" s="143"/>
+      <c r="A30" s="145"/>
       <c r="B30" s="36"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="173"/>
+      <c r="C30" s="174"/>
+      <c r="D30" s="175"/>
       <c r="E30" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="127" t="s">
+      <c r="F30" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="125"/>
+      <c r="G30" s="127"/>
       <c r="H30" s="52"/>
       <c r="I30" s="75"/>
       <c r="J30" s="75"/>
@@ -5619,7 +5658,9 @@
       <c r="AB30" s="26"/>
       <c r="AC30" s="26"/>
       <c r="AD30" s="24"/>
-      <c r="AE30" s="42"/>
+      <c r="AE30" s="42" t="s">
+        <v>68</v>
+      </c>
       <c r="AF30" s="42"/>
       <c r="AG30" s="117"/>
       <c r="AH30" s="25"/>
@@ -5658,13 +5699,13 @@
       <c r="BO30" s="83"/>
     </row>
     <row r="31" spans="1:67" ht="12" customHeight="1">
-      <c r="A31" s="143"/>
+      <c r="A31" s="145"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="172"/>
-      <c r="D31" s="173"/>
+      <c r="C31" s="174"/>
+      <c r="D31" s="175"/>
       <c r="E31" s="109"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="126"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="128"/>
       <c r="H31" s="52"/>
       <c r="I31" s="75"/>
       <c r="J31" s="75"/>
@@ -5727,17 +5768,17 @@
       <c r="BO31" s="83"/>
     </row>
     <row r="32" spans="1:67" ht="12" customHeight="1">
-      <c r="A32" s="143"/>
+      <c r="A32" s="145"/>
       <c r="B32" s="36"/>
-      <c r="C32" s="172"/>
-      <c r="D32" s="173"/>
+      <c r="C32" s="174"/>
+      <c r="D32" s="175"/>
       <c r="E32" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="127" t="s">
+      <c r="F32" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="125"/>
+      <c r="G32" s="127"/>
       <c r="H32" s="52"/>
       <c r="I32" s="75"/>
       <c r="J32" s="75"/>
@@ -5763,7 +5804,9 @@
       <c r="AD32" s="24"/>
       <c r="AE32" s="24"/>
       <c r="AF32" s="117"/>
-      <c r="AG32" s="42"/>
+      <c r="AG32" s="42" t="s">
+        <v>67</v>
+      </c>
       <c r="AH32" s="25"/>
       <c r="AI32" s="26"/>
       <c r="AJ32" s="117"/>
@@ -5800,13 +5843,13 @@
       <c r="BO32" s="83"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="143"/>
+      <c r="A33" s="145"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="172"/>
-      <c r="D33" s="173"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="175"/>
       <c r="E33" s="109"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="126"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="128"/>
       <c r="H33" s="52"/>
       <c r="I33" s="75"/>
       <c r="J33" s="75"/>
@@ -5869,17 +5912,17 @@
       <c r="BO33" s="83"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="143"/>
+      <c r="A34" s="145"/>
       <c r="B34" s="36"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="173"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="175"/>
       <c r="E34" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="127" t="s">
+      <c r="F34" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="125"/>
+      <c r="G34" s="127"/>
       <c r="H34" s="52"/>
       <c r="I34" s="75"/>
       <c r="J34" s="75"/>
@@ -5905,7 +5948,9 @@
       <c r="AD34" s="24"/>
       <c r="AE34" s="24"/>
       <c r="AF34" s="117"/>
-      <c r="AG34" s="42"/>
+      <c r="AG34" s="42" t="s">
+        <v>68</v>
+      </c>
       <c r="AH34" s="25"/>
       <c r="AI34" s="26"/>
       <c r="AJ34" s="42"/>
@@ -5942,13 +5987,13 @@
       <c r="BO34" s="83"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="143"/>
+      <c r="A35" s="145"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="172"/>
-      <c r="D35" s="173"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="175"/>
       <c r="E35" s="109"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="126"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="128"/>
       <c r="H35" s="52"/>
       <c r="I35" s="75"/>
       <c r="J35" s="75"/>
@@ -6011,17 +6056,17 @@
       <c r="BO35" s="83"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="143"/>
+      <c r="A36" s="145"/>
       <c r="B36" s="36"/>
-      <c r="C36" s="172"/>
-      <c r="D36" s="173"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="175"/>
       <c r="E36" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="127" t="s">
+      <c r="F36" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="125"/>
+      <c r="G36" s="127"/>
       <c r="H36" s="52"/>
       <c r="I36" s="75"/>
       <c r="J36" s="75"/>
@@ -6052,7 +6097,9 @@
       <c r="AI36" s="26"/>
       <c r="AJ36" s="117"/>
       <c r="AK36" s="119"/>
-      <c r="AL36" s="122"/>
+      <c r="AL36" s="122" t="s">
+        <v>67</v>
+      </c>
       <c r="AM36" s="117"/>
       <c r="AN36" s="24"/>
       <c r="AO36" s="25"/>
@@ -6084,13 +6131,13 @@
       <c r="BO36" s="83"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="143"/>
+      <c r="A37" s="145"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="172"/>
-      <c r="D37" s="173"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="175"/>
       <c r="E37" s="109"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="126"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="128"/>
       <c r="H37" s="52"/>
       <c r="I37" s="75"/>
       <c r="J37" s="75"/>
@@ -6153,17 +6200,17 @@
       <c r="BO37" s="83"/>
     </row>
     <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="143"/>
+      <c r="A38" s="145"/>
       <c r="B38" s="36"/>
-      <c r="C38" s="172"/>
-      <c r="D38" s="173"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="175"/>
       <c r="E38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="127" t="s">
+      <c r="F38" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="125"/>
+      <c r="G38" s="127"/>
       <c r="H38" s="52"/>
       <c r="I38" s="75"/>
       <c r="J38" s="75"/>
@@ -6194,7 +6241,9 @@
       <c r="AI38" s="26"/>
       <c r="AJ38" s="117"/>
       <c r="AK38" s="120"/>
-      <c r="AL38" s="122"/>
+      <c r="AL38" s="122" t="s">
+        <v>68</v>
+      </c>
       <c r="AM38" s="24"/>
       <c r="AN38" s="117"/>
       <c r="AO38" s="25"/>
@@ -6226,13 +6275,13 @@
       <c r="BO38" s="83"/>
     </row>
     <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="143"/>
+      <c r="A39" s="145"/>
       <c r="B39" s="36"/>
-      <c r="C39" s="172"/>
-      <c r="D39" s="173"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="175"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="126"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="128"/>
       <c r="H39" s="52"/>
       <c r="I39" s="75"/>
       <c r="J39" s="75"/>
@@ -6295,21 +6344,21 @@
       <c r="BO39" s="83"/>
     </row>
     <row r="40" spans="1:67" ht="12" customHeight="1">
-      <c r="A40" s="166">
+      <c r="A40" s="168">
         <v>6</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="134" t="s">
+      <c r="C40" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="135"/>
+      <c r="D40" s="137"/>
       <c r="E40" s="69"/>
-      <c r="F40" s="164" t="s">
+      <c r="F40" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="G40" s="165"/>
+      <c r="G40" s="167"/>
       <c r="H40" s="38"/>
       <c r="I40" s="76"/>
       <c r="J40" s="76"/>
@@ -6372,13 +6421,13 @@
       <c r="BO40" s="84"/>
     </row>
     <row r="41" spans="1:67" ht="12" customHeight="1">
-      <c r="A41" s="166"/>
+      <c r="A41" s="168"/>
       <c r="B41" s="36"/>
-      <c r="C41" s="155"/>
-      <c r="D41" s="156"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="158"/>
       <c r="E41" s="62"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="162"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="164"/>
       <c r="H41" s="52"/>
       <c r="I41" s="75"/>
       <c r="J41" s="75"/>
@@ -6441,19 +6490,19 @@
       <c r="BO41" s="83"/>
     </row>
     <row r="42" spans="1:67" ht="12" customHeight="1">
-      <c r="A42" s="166">
+      <c r="A42" s="168">
         <v>7</v>
       </c>
       <c r="B42" s="36"/>
-      <c r="C42" s="167" t="s">
+      <c r="C42" s="169" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="154"/>
+      <c r="D42" s="156"/>
       <c r="E42" s="66"/>
-      <c r="F42" s="160" t="s">
+      <c r="F42" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="161"/>
+      <c r="G42" s="163"/>
       <c r="H42" s="51"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -6490,7 +6539,9 @@
       <c r="AO42" s="13"/>
       <c r="AP42" s="19"/>
       <c r="AQ42" s="30"/>
-      <c r="AR42" s="30"/>
+      <c r="AR42" s="30" t="s">
+        <v>67</v>
+      </c>
       <c r="AS42" s="107"/>
       <c r="AT42" s="7"/>
       <c r="AU42" s="7"/>
@@ -6516,13 +6567,13 @@
       <c r="BO42" s="82"/>
     </row>
     <row r="43" spans="1:67" ht="12" customHeight="1">
-      <c r="A43" s="166"/>
+      <c r="A43" s="168"/>
       <c r="B43" s="36"/>
-      <c r="C43" s="155"/>
-      <c r="D43" s="156"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="158"/>
       <c r="E43" s="62"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="162"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="164"/>
       <c r="H43" s="52"/>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
@@ -6585,19 +6636,19 @@
       <c r="BO43" s="83"/>
     </row>
     <row r="44" spans="1:67" ht="12" customHeight="1">
-      <c r="A44" s="166">
+      <c r="A44" s="168">
         <v>8</v>
       </c>
       <c r="B44" s="36"/>
-      <c r="C44" s="167" t="s">
+      <c r="C44" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="154"/>
+      <c r="D44" s="156"/>
       <c r="E44" s="66"/>
-      <c r="F44" s="160" t="s">
+      <c r="F44" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="161"/>
+      <c r="G44" s="163"/>
       <c r="H44" s="52"/>
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
@@ -6634,7 +6685,9 @@
       <c r="AO44" s="25"/>
       <c r="AP44" s="26"/>
       <c r="AQ44" s="75"/>
-      <c r="AR44" s="42"/>
+      <c r="AR44" s="42" t="s">
+        <v>68</v>
+      </c>
       <c r="AS44" s="42"/>
       <c r="AT44" s="117"/>
       <c r="AU44" s="75"/>
@@ -6660,13 +6713,13 @@
       <c r="BO44" s="85"/>
     </row>
     <row r="45" spans="1:67" ht="12" customHeight="1">
-      <c r="A45" s="166"/>
+      <c r="A45" s="168"/>
       <c r="B45" s="37"/>
-      <c r="C45" s="168"/>
-      <c r="D45" s="169"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="171"/>
       <c r="E45" s="67"/>
-      <c r="F45" s="170"/>
-      <c r="G45" s="171"/>
+      <c r="F45" s="172"/>
+      <c r="G45" s="173"/>
       <c r="H45" s="54"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -6729,21 +6782,21 @@
       <c r="BO45" s="86"/>
     </row>
     <row r="46" spans="1:67" ht="12" customHeight="1">
-      <c r="A46" s="142">
+      <c r="A46" s="144">
         <v>9</v>
       </c>
       <c r="B46" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="134" t="s">
+      <c r="C46" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="135"/>
+      <c r="D46" s="137"/>
       <c r="E46" s="69"/>
-      <c r="F46" s="164" t="s">
+      <c r="F46" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="G46" s="165"/>
+      <c r="G46" s="167"/>
       <c r="H46" s="38"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -6806,15 +6859,15 @@
       <c r="BO46" s="87"/>
     </row>
     <row r="47" spans="1:67" ht="12" customHeight="1">
-      <c r="A47" s="163"/>
+      <c r="A47" s="165"/>
       <c r="B47" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="155"/>
-      <c r="D47" s="156"/>
+      <c r="C47" s="157"/>
+      <c r="D47" s="158"/>
       <c r="E47" s="62"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="162"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="164"/>
       <c r="H47" s="51"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -6877,19 +6930,19 @@
       <c r="BO47" s="88"/>
     </row>
     <row r="48" spans="1:67" ht="12" customHeight="1">
-      <c r="A48" s="142">
+      <c r="A48" s="144">
         <v>10</v>
       </c>
       <c r="B48" s="36"/>
-      <c r="C48" s="153" t="s">
+      <c r="C48" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="154"/>
+      <c r="D48" s="156"/>
       <c r="E48" s="66"/>
-      <c r="F48" s="160" t="s">
+      <c r="F48" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="161"/>
+      <c r="G48" s="163"/>
       <c r="H48" s="51"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -6933,7 +6986,9 @@
       <c r="AV48" s="13"/>
       <c r="AW48" s="19"/>
       <c r="AX48" s="19"/>
-      <c r="AY48" s="30"/>
+      <c r="AY48" s="30" t="s">
+        <v>67</v>
+      </c>
       <c r="AZ48" s="107"/>
       <c r="BA48" s="74"/>
       <c r="BB48" s="74"/>
@@ -6952,13 +7007,13 @@
       <c r="BO48" s="88"/>
     </row>
     <row r="49" spans="1:67" ht="12" customHeight="1">
-      <c r="A49" s="163"/>
+      <c r="A49" s="165"/>
       <c r="B49" s="36"/>
-      <c r="C49" s="155"/>
-      <c r="D49" s="156"/>
+      <c r="C49" s="157"/>
+      <c r="D49" s="158"/>
       <c r="E49" s="62"/>
-      <c r="F49" s="128"/>
-      <c r="G49" s="162"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="164"/>
       <c r="H49" s="51"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -7021,19 +7076,19 @@
       <c r="BO49" s="88"/>
     </row>
     <row r="50" spans="1:67" ht="12" customHeight="1">
-      <c r="A50" s="142">
+      <c r="A50" s="144">
         <v>11</v>
       </c>
       <c r="B50" s="36"/>
-      <c r="C50" s="153" t="s">
+      <c r="C50" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="154"/>
+      <c r="D50" s="156"/>
       <c r="E50" s="102"/>
-      <c r="F50" s="160" t="s">
+      <c r="F50" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="G50" s="161"/>
+      <c r="G50" s="163"/>
       <c r="H50" s="52"/>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
@@ -7077,7 +7132,9 @@
       <c r="AV50" s="25"/>
       <c r="AW50" s="26"/>
       <c r="AX50" s="26"/>
-      <c r="AY50" s="42"/>
+      <c r="AY50" s="42" t="s">
+        <v>69</v>
+      </c>
       <c r="AZ50" s="42"/>
       <c r="BA50" s="117"/>
       <c r="BB50" s="117"/>
@@ -7096,13 +7153,13 @@
       <c r="BO50" s="85"/>
     </row>
     <row r="51" spans="1:67" ht="12" customHeight="1">
-      <c r="A51" s="143"/>
+      <c r="A51" s="145"/>
       <c r="B51" s="36"/>
-      <c r="C51" s="155"/>
-      <c r="D51" s="156"/>
+      <c r="C51" s="157"/>
+      <c r="D51" s="158"/>
       <c r="E51" s="103"/>
-      <c r="F51" s="128"/>
-      <c r="G51" s="162"/>
+      <c r="F51" s="130"/>
+      <c r="G51" s="164"/>
       <c r="H51" s="52"/>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
@@ -7165,17 +7222,17 @@
       <c r="BO51" s="85"/>
     </row>
     <row r="52" spans="1:67" ht="12" customHeight="1">
-      <c r="A52" s="143"/>
+      <c r="A52" s="145"/>
       <c r="B52" s="36"/>
-      <c r="C52" s="153" t="s">
+      <c r="C52" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="157"/>
+      <c r="D52" s="159"/>
       <c r="E52" s="104"/>
-      <c r="F52" s="160" t="s">
+      <c r="F52" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="G52" s="161"/>
+      <c r="G52" s="163"/>
       <c r="H52" s="52"/>
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
@@ -7238,13 +7295,13 @@
       <c r="BO52" s="85"/>
     </row>
     <row r="53" spans="1:67" ht="12" customHeight="1">
-      <c r="A53" s="143"/>
+      <c r="A53" s="145"/>
       <c r="B53" s="36"/>
-      <c r="C53" s="158"/>
-      <c r="D53" s="159"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="161"/>
       <c r="E53" s="104"/>
-      <c r="F53" s="128"/>
-      <c r="G53" s="162"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="164"/>
       <c r="H53" s="52"/>
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
@@ -7307,17 +7364,17 @@
       <c r="BO53" s="85"/>
     </row>
     <row r="54" spans="1:67" ht="12" customHeight="1">
-      <c r="A54" s="143"/>
+      <c r="A54" s="145"/>
       <c r="B54" s="36"/>
-      <c r="C54" s="153" t="s">
+      <c r="C54" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="154"/>
+      <c r="D54" s="156"/>
       <c r="E54" s="102"/>
-      <c r="F54" s="160" t="s">
+      <c r="F54" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="G54" s="161"/>
+      <c r="G54" s="163"/>
       <c r="H54" s="52"/>
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
@@ -7380,13 +7437,13 @@
       <c r="BO54" s="85"/>
     </row>
     <row r="55" spans="1:67" ht="12" customHeight="1">
-      <c r="A55" s="143"/>
+      <c r="A55" s="145"/>
       <c r="B55" s="36"/>
-      <c r="C55" s="155"/>
-      <c r="D55" s="156"/>
+      <c r="C55" s="157"/>
+      <c r="D55" s="158"/>
       <c r="E55" s="103"/>
-      <c r="F55" s="128"/>
-      <c r="G55" s="162"/>
+      <c r="F55" s="130"/>
+      <c r="G55" s="164"/>
       <c r="H55" s="52"/>
       <c r="I55" s="24"/>
       <c r="J55" s="24"/>
@@ -7449,17 +7506,17 @@
       <c r="BO55" s="85"/>
     </row>
     <row r="56" spans="1:67" ht="12" customHeight="1">
-      <c r="A56" s="143"/>
+      <c r="A56" s="145"/>
       <c r="B56" s="36"/>
-      <c r="C56" s="153" t="s">
+      <c r="C56" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="154"/>
+      <c r="D56" s="156"/>
       <c r="E56" s="104"/>
-      <c r="F56" s="160" t="s">
+      <c r="F56" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="G56" s="161"/>
+      <c r="G56" s="163"/>
       <c r="H56" s="52"/>
       <c r="I56" s="24"/>
       <c r="J56" s="24"/>
@@ -7512,7 +7569,9 @@
       <c r="BE56" s="117"/>
       <c r="BF56" s="117"/>
       <c r="BG56" s="117"/>
-      <c r="BH56" s="42"/>
+      <c r="BH56" s="42" t="s">
+        <v>67</v>
+      </c>
       <c r="BI56" s="75"/>
       <c r="BJ56" s="25"/>
       <c r="BK56" s="26"/>
@@ -7522,13 +7581,13 @@
       <c r="BO56" s="85"/>
     </row>
     <row r="57" spans="1:67" ht="12" customHeight="1">
-      <c r="A57" s="143"/>
+      <c r="A57" s="145"/>
       <c r="B57" s="36"/>
-      <c r="C57" s="155"/>
-      <c r="D57" s="156"/>
+      <c r="C57" s="157"/>
+      <c r="D57" s="158"/>
       <c r="E57" s="104"/>
-      <c r="F57" s="128"/>
-      <c r="G57" s="162"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="164"/>
       <c r="H57" s="52"/>
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
@@ -7591,21 +7650,21 @@
       <c r="BO57" s="85"/>
     </row>
     <row r="58" spans="1:67" ht="12" customHeight="1">
-      <c r="A58" s="130">
+      <c r="A58" s="132">
         <v>12</v>
       </c>
       <c r="B58" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="145" t="s">
+      <c r="C58" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="D58" s="146"/>
+      <c r="D58" s="148"/>
       <c r="E58" s="105"/>
-      <c r="F58" s="149" t="s">
+      <c r="F58" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="G58" s="151"/>
+      <c r="G58" s="153"/>
       <c r="H58" s="38"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
@@ -7658,23 +7717,27 @@
       <c r="BE58" s="76"/>
       <c r="BF58" s="76"/>
       <c r="BG58" s="76"/>
-      <c r="BH58" s="40"/>
+      <c r="BH58" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="BI58" s="40"/>
       <c r="BJ58" s="15"/>
       <c r="BK58" s="21"/>
-      <c r="BL58" s="40"/>
+      <c r="BL58" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="BM58" s="76"/>
       <c r="BN58" s="76"/>
       <c r="BO58" s="87"/>
     </row>
     <row r="59" spans="1:67" ht="12" customHeight="1">
-      <c r="A59" s="144"/>
+      <c r="A59" s="146"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="147"/>
-      <c r="D59" s="148"/>
+      <c r="C59" s="149"/>
+      <c r="D59" s="150"/>
       <c r="E59" s="115"/>
-      <c r="F59" s="150"/>
-      <c r="G59" s="152"/>
+      <c r="F59" s="152"/>
+      <c r="G59" s="154"/>
       <c r="H59" s="51"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -7737,21 +7800,21 @@
       <c r="BO59" s="88"/>
     </row>
     <row r="60" spans="1:67" ht="12" customHeight="1">
-      <c r="A60" s="130">
+      <c r="A60" s="132">
         <v>14</v>
       </c>
-      <c r="B60" s="132" t="s">
+      <c r="B60" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="134" t="s">
+      <c r="C60" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="135"/>
+      <c r="D60" s="137"/>
       <c r="E60" s="69"/>
-      <c r="F60" s="138" t="s">
+      <c r="F60" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="G60" s="140"/>
+      <c r="G60" s="142"/>
       <c r="H60" s="38"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
@@ -7808,19 +7871,21 @@
       <c r="BI60" s="76"/>
       <c r="BJ60" s="15"/>
       <c r="BK60" s="21"/>
-      <c r="BL60" s="40"/>
+      <c r="BL60" s="40" t="s">
+        <v>68</v>
+      </c>
       <c r="BM60" s="40"/>
       <c r="BN60" s="124"/>
       <c r="BO60" s="87"/>
     </row>
     <row r="61" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A61" s="131"/>
-      <c r="B61" s="133"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="137"/>
+      <c r="A61" s="133"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="138"/>
+      <c r="D61" s="139"/>
       <c r="E61" s="71"/>
-      <c r="F61" s="139"/>
-      <c r="G61" s="141"/>
+      <c r="F61" s="141"/>
+      <c r="G61" s="143"/>
       <c r="H61" s="39"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
@@ -7913,6 +7978,9 @@
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="AL1:BO1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
@@ -7986,18 +8054,15 @@
     <mergeCell ref="C60:D61"/>
     <mergeCell ref="F60:F61"/>
     <mergeCell ref="G60:G61"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F24:F25"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F24:F25"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -8041,54 +8106,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="206" t="s">
+      <c r="C1" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="207"/>
-      <c r="E1" s="212" t="s">
+      <c r="D1" s="209"/>
+      <c r="E1" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="215" t="s">
+      <c r="F1" s="217" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="197"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="198"/>
-      <c r="T1" s="198"/>
-      <c r="U1" s="198"/>
-      <c r="V1" s="198"/>
-      <c r="W1" s="198"/>
-      <c r="X1" s="198"/>
-      <c r="Y1" s="198"/>
-      <c r="Z1" s="198"/>
-      <c r="AA1" s="198"/>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="198"/>
-      <c r="AD1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="200"/>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="200"/>
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="200"/>
+      <c r="AA1" s="200"/>
+      <c r="AB1" s="200"/>
+      <c r="AC1" s="200"/>
+      <c r="AD1" s="201"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="201"/>
-      <c r="B2" s="204"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="216"/>
+      <c r="A2" s="203"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="218"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -8163,12 +8228,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="202"/>
-      <c r="B3" s="205"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="217"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="219"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -8243,20 +8308,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="190">
+      <c r="A4" s="192">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="191" t="s">
+      <c r="C4" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="192"/>
-      <c r="E4" s="223" t="s">
+      <c r="D4" s="194"/>
+      <c r="E4" s="225" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="195"/>
+      <c r="F4" s="197"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -8279,20 +8344,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="225" t="s">
+      <c r="AC4" s="227" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="218" t="s">
+      <c r="AD4" s="220" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="144"/>
+      <c r="A5" s="146"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="224"/>
-      <c r="F5" s="196"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="226"/>
+      <c r="F5" s="198"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -8315,22 +8380,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="226"/>
-      <c r="AD5" s="219"/>
+      <c r="AC5" s="228"/>
+      <c r="AD5" s="221"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="130">
+      <c r="A6" s="132">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="154"/>
-      <c r="E6" s="221" t="s">
+      <c r="D6" s="156"/>
+      <c r="E6" s="223" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="188"/>
+      <c r="F6" s="190"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -8353,16 +8418,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="226"/>
-      <c r="AD6" s="219"/>
+      <c r="AC6" s="228"/>
+      <c r="AD6" s="221"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="144"/>
+      <c r="A7" s="146"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="189"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -8385,24 +8450,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="226"/>
-      <c r="AD7" s="219"/>
+      <c r="AC7" s="228"/>
+      <c r="AD7" s="221"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="142">
+      <c r="A8" s="144">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="179" t="s">
+      <c r="C8" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="180"/>
-      <c r="E8" s="228" t="s">
+      <c r="D8" s="182"/>
+      <c r="E8" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="165"/>
+      <c r="F8" s="167"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -8425,16 +8490,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="226"/>
-      <c r="AD8" s="219"/>
+      <c r="AC8" s="228"/>
+      <c r="AD8" s="221"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="163"/>
+      <c r="A9" s="165"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="229"/>
-      <c r="F9" s="171"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="231"/>
+      <c r="F9" s="173"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -8457,24 +8522,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="226"/>
-      <c r="AD9" s="219"/>
+      <c r="AC9" s="228"/>
+      <c r="AD9" s="221"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="143">
+      <c r="A10" s="145">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="174" t="s">
+      <c r="C10" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="175"/>
-      <c r="E10" s="230" t="s">
+      <c r="D10" s="177"/>
+      <c r="E10" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="232"/>
+      <c r="F10" s="234"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -8497,16 +8562,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="226"/>
-      <c r="AD10" s="219"/>
+      <c r="AC10" s="228"/>
+      <c r="AD10" s="221"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="163"/>
+      <c r="A11" s="165"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="231"/>
-      <c r="F11" s="162"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="233"/>
+      <c r="F11" s="164"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -8529,22 +8594,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="226"/>
-      <c r="AD11" s="219"/>
+      <c r="AC11" s="228"/>
+      <c r="AD11" s="221"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="142">
+      <c r="A12" s="144">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="167" t="s">
+      <c r="C12" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="154"/>
-      <c r="E12" s="233" t="s">
+      <c r="D12" s="156"/>
+      <c r="E12" s="235" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="161"/>
+      <c r="F12" s="163"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -8567,16 +8632,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="226"/>
-      <c r="AD12" s="219"/>
+      <c r="AC12" s="228"/>
+      <c r="AD12" s="221"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="143"/>
+      <c r="A13" s="145"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="230"/>
-      <c r="F13" s="232"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="232"/>
+      <c r="F13" s="234"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -8599,24 +8664,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="226"/>
-      <c r="AD13" s="219"/>
+      <c r="AC13" s="228"/>
+      <c r="AD13" s="221"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="166">
+      <c r="A14" s="168">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="135"/>
-      <c r="E14" s="234" t="s">
+      <c r="D14" s="137"/>
+      <c r="E14" s="236" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="165"/>
+      <c r="F14" s="167"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -8639,16 +8704,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="226"/>
-      <c r="AD14" s="219"/>
+      <c r="AC14" s="228"/>
+      <c r="AD14" s="221"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="166"/>
+      <c r="A15" s="168"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="231"/>
-      <c r="F15" s="162"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="233"/>
+      <c r="F15" s="164"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -8671,22 +8736,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="226"/>
-      <c r="AD15" s="219"/>
+      <c r="AC15" s="228"/>
+      <c r="AD15" s="221"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="166">
+      <c r="A16" s="168">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="167" t="s">
+      <c r="C16" s="169" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="154"/>
-      <c r="E16" s="235" t="s">
+      <c r="D16" s="156"/>
+      <c r="E16" s="237" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="161"/>
+      <c r="F16" s="163"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -8709,16 +8774,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="226"/>
-      <c r="AD16" s="219"/>
+      <c r="AC16" s="228"/>
+      <c r="AD16" s="221"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="166"/>
+      <c r="A17" s="168"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="231"/>
-      <c r="F17" s="162"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="233"/>
+      <c r="F17" s="164"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -8741,22 +8806,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="226"/>
-      <c r="AD17" s="219"/>
+      <c r="AC17" s="228"/>
+      <c r="AD17" s="221"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="166">
+      <c r="A18" s="168">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="167" t="s">
+      <c r="C18" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="154"/>
-      <c r="E18" s="235" t="s">
+      <c r="D18" s="156"/>
+      <c r="E18" s="237" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="161"/>
+      <c r="F18" s="163"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -8779,16 +8844,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="226"/>
-      <c r="AD18" s="219"/>
+      <c r="AC18" s="228"/>
+      <c r="AD18" s="221"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="166"/>
+      <c r="A19" s="168"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="229"/>
-      <c r="F19" s="171"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="231"/>
+      <c r="F19" s="173"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -8811,24 +8876,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="226"/>
-      <c r="AD19" s="219"/>
+      <c r="AC19" s="228"/>
+      <c r="AD19" s="221"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="142">
+      <c r="A20" s="144">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="135"/>
-      <c r="E20" s="234" t="s">
+      <c r="D20" s="137"/>
+      <c r="E20" s="236" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="165"/>
+      <c r="F20" s="167"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -8851,18 +8916,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="226"/>
-      <c r="AD20" s="219"/>
+      <c r="AC20" s="228"/>
+      <c r="AD20" s="221"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="163"/>
+      <c r="A21" s="165"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="155"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="231"/>
-      <c r="F21" s="162"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="233"/>
+      <c r="F21" s="164"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -8885,22 +8950,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="226"/>
-      <c r="AD21" s="219"/>
+      <c r="AC21" s="228"/>
+      <c r="AD21" s="221"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="142">
+      <c r="A22" s="144">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="153" t="s">
+      <c r="C22" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="154"/>
-      <c r="E22" s="235" t="s">
+      <c r="D22" s="156"/>
+      <c r="E22" s="237" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="161"/>
+      <c r="F22" s="163"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -8923,16 +8988,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="226"/>
-      <c r="AD22" s="219"/>
+      <c r="AC22" s="228"/>
+      <c r="AD22" s="221"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="163"/>
+      <c r="A23" s="165"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="231"/>
-      <c r="F23" s="162"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="233"/>
+      <c r="F23" s="164"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -8955,22 +9020,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="226"/>
-      <c r="AD23" s="219"/>
+      <c r="AC23" s="228"/>
+      <c r="AD23" s="221"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="142">
+      <c r="A24" s="144">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="153" t="s">
+      <c r="C24" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="154"/>
-      <c r="E24" s="235" t="s">
+      <c r="D24" s="156"/>
+      <c r="E24" s="237" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="161"/>
+      <c r="F24" s="163"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -8993,16 +9058,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="226"/>
-      <c r="AD24" s="219"/>
+      <c r="AC24" s="228"/>
+      <c r="AD24" s="221"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="163"/>
+      <c r="A25" s="165"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="231"/>
-      <c r="F25" s="171"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="233"/>
+      <c r="F25" s="173"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -9025,24 +9090,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="226"/>
-      <c r="AD25" s="219"/>
+      <c r="AC25" s="228"/>
+      <c r="AD25" s="221"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="130">
+      <c r="A26" s="132">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="145" t="s">
+      <c r="C26" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="146"/>
-      <c r="E26" s="236" t="s">
+      <c r="D26" s="148"/>
+      <c r="E26" s="238" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="151"/>
+      <c r="F26" s="153"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -9065,16 +9130,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="226"/>
-      <c r="AD26" s="219"/>
+      <c r="AC26" s="228"/>
+      <c r="AD26" s="221"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="144"/>
+      <c r="A27" s="146"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="237"/>
-      <c r="F27" s="152"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="239"/>
+      <c r="F27" s="154"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -9097,24 +9162,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="226"/>
-      <c r="AD27" s="219"/>
+      <c r="AC27" s="228"/>
+      <c r="AD27" s="221"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="130">
+      <c r="A28" s="132">
         <v>14</v>
       </c>
-      <c r="B28" s="132" t="s">
+      <c r="B28" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="134" t="s">
+      <c r="C28" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="135"/>
-      <c r="E28" s="132" t="s">
+      <c r="D28" s="137"/>
+      <c r="E28" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="140"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -9137,16 +9202,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="226"/>
-      <c r="AD28" s="219"/>
+      <c r="AC28" s="228"/>
+      <c r="AD28" s="221"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="131"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="141"/>
+      <c r="A29" s="133"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="143"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -9169,8 +9234,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="227"/>
-      <c r="AD29" s="220"/>
+      <c r="AC29" s="229"/>
+      <c r="AD29" s="222"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797520D4-F14D-498B-8B55-FB07F43A832D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26CCD68-FE64-4EFE-BABB-37ECEF1C20E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2148,23 +2148,260 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2175,12 +2412,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2199,233 +2430,32 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -2459,36 +2489,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3195,10 +3195,10 @@
   <dimension ref="A1:BO64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="7" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="W25" sqref="W25"/>
+      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3216,98 +3216,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="208" t="s">
+      <c r="C1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="209"/>
-      <c r="E1" s="214" t="s">
+      <c r="D1" s="145"/>
+      <c r="E1" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="214" t="s">
+      <c r="F1" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="217" t="s">
+      <c r="G1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="199">
+      <c r="H1" s="130">
         <v>45536</v>
       </c>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
-      <c r="O1" s="200"/>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="200"/>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="200"/>
-      <c r="AA1" s="200"/>
-      <c r="AB1" s="200"/>
-      <c r="AC1" s="200"/>
-      <c r="AD1" s="200"/>
-      <c r="AE1" s="200"/>
-      <c r="AF1" s="200"/>
-      <c r="AG1" s="200"/>
-      <c r="AH1" s="200"/>
-      <c r="AI1" s="200"/>
-      <c r="AJ1" s="200"/>
-      <c r="AK1" s="201"/>
-      <c r="AL1" s="199">
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="131"/>
+      <c r="AJ1" s="131"/>
+      <c r="AK1" s="132"/>
+      <c r="AL1" s="130">
         <v>45566</v>
       </c>
-      <c r="AM1" s="200"/>
-      <c r="AN1" s="200"/>
-      <c r="AO1" s="200"/>
-      <c r="AP1" s="200"/>
-      <c r="AQ1" s="200"/>
-      <c r="AR1" s="200"/>
-      <c r="AS1" s="200"/>
-      <c r="AT1" s="200"/>
-      <c r="AU1" s="200"/>
-      <c r="AV1" s="200"/>
-      <c r="AW1" s="200"/>
-      <c r="AX1" s="200"/>
-      <c r="AY1" s="200"/>
-      <c r="AZ1" s="200"/>
-      <c r="BA1" s="200"/>
-      <c r="BB1" s="200"/>
-      <c r="BC1" s="200"/>
-      <c r="BD1" s="200"/>
-      <c r="BE1" s="200"/>
-      <c r="BF1" s="200"/>
-      <c r="BG1" s="200"/>
-      <c r="BH1" s="200"/>
-      <c r="BI1" s="200"/>
-      <c r="BJ1" s="200"/>
-      <c r="BK1" s="200"/>
-      <c r="BL1" s="200"/>
-      <c r="BM1" s="200"/>
-      <c r="BN1" s="200"/>
-      <c r="BO1" s="201"/>
+      <c r="AM1" s="131"/>
+      <c r="AN1" s="131"/>
+      <c r="AO1" s="131"/>
+      <c r="AP1" s="131"/>
+      <c r="AQ1" s="131"/>
+      <c r="AR1" s="131"/>
+      <c r="AS1" s="131"/>
+      <c r="AT1" s="131"/>
+      <c r="AU1" s="131"/>
+      <c r="AV1" s="131"/>
+      <c r="AW1" s="131"/>
+      <c r="AX1" s="131"/>
+      <c r="AY1" s="131"/>
+      <c r="AZ1" s="131"/>
+      <c r="BA1" s="131"/>
+      <c r="BB1" s="131"/>
+      <c r="BC1" s="131"/>
+      <c r="BD1" s="131"/>
+      <c r="BE1" s="131"/>
+      <c r="BF1" s="131"/>
+      <c r="BG1" s="131"/>
+      <c r="BH1" s="131"/>
+      <c r="BI1" s="131"/>
+      <c r="BJ1" s="131"/>
+      <c r="BK1" s="131"/>
+      <c r="BL1" s="131"/>
+      <c r="BM1" s="131"/>
+      <c r="BN1" s="131"/>
+      <c r="BO1" s="132"/>
     </row>
     <row r="2" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A2" s="203"/>
-      <c r="B2" s="206"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="218"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="154"/>
       <c r="H2" s="46">
         <v>45537</v>
       </c>
@@ -3549,13 +3549,13 @@
       </c>
     </row>
     <row r="3" spans="1:67" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="204"/>
-      <c r="B3" s="207"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="219"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="155"/>
       <c r="H3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3738,21 +3738,21 @@
       </c>
     </row>
     <row r="4" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A4" s="192">
+      <c r="A4" s="166">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="193" t="s">
+      <c r="C4" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="194"/>
+      <c r="D4" s="168"/>
       <c r="E4" s="61"/>
-      <c r="F4" s="195" t="s">
+      <c r="F4" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="197"/>
+      <c r="G4" s="173"/>
       <c r="H4" s="49"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
@@ -3815,13 +3815,13 @@
       <c r="BO4" s="80"/>
     </row>
     <row r="5" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A5" s="146"/>
+      <c r="A5" s="157"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="158"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="170"/>
       <c r="E5" s="62"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="198"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="174"/>
       <c r="H5" s="50"/>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
@@ -3884,19 +3884,19 @@
       <c r="BO5" s="81"/>
     </row>
     <row r="6" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A6" s="132">
+      <c r="A6" s="156">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="169" t="s">
+      <c r="C6" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="156"/>
+      <c r="D6" s="159"/>
       <c r="E6" s="66"/>
-      <c r="F6" s="188" t="s">
+      <c r="F6" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="190"/>
+      <c r="G6" s="164"/>
       <c r="H6" s="51"/>
       <c r="I6" s="74"/>
       <c r="J6" s="30"/>
@@ -3959,13 +3959,13 @@
       <c r="BO6" s="82"/>
     </row>
     <row r="7" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A7" s="146"/>
+      <c r="A7" s="157"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="171"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="161"/>
       <c r="E7" s="67"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="191"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="165"/>
       <c r="H7" s="52"/>
       <c r="I7" s="75"/>
       <c r="J7" s="32"/>
@@ -4028,23 +4028,23 @@
       <c r="BO7" s="83"/>
     </row>
     <row r="8" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A8" s="144">
+      <c r="A8" s="175">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="181" t="s">
+      <c r="C8" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="182"/>
+      <c r="D8" s="184"/>
       <c r="E8" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="180" t="s">
+      <c r="F8" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="187"/>
+      <c r="G8" s="189"/>
       <c r="H8" s="38"/>
       <c r="I8" s="76"/>
       <c r="J8" s="76"/>
@@ -4109,13 +4109,13 @@
       <c r="BO8" s="84"/>
     </row>
     <row r="9" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A9" s="145"/>
+      <c r="A9" s="176"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="177"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="179"/>
       <c r="E9" s="62"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="131"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="190"/>
       <c r="H9" s="50"/>
       <c r="I9" s="73"/>
       <c r="J9" s="73"/>
@@ -4178,17 +4178,17 @@
       <c r="BO9" s="81"/>
     </row>
     <row r="10" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A10" s="145"/>
+      <c r="A10" s="176"/>
       <c r="B10" s="36"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="177"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="179"/>
       <c r="E10" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="129" t="s">
+      <c r="F10" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="127"/>
+      <c r="G10" s="136"/>
       <c r="H10" s="50"/>
       <c r="I10" s="73"/>
       <c r="J10" s="73"/>
@@ -4255,13 +4255,13 @@
       <c r="BO10" s="81"/>
     </row>
     <row r="11" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A11" s="145"/>
+      <c r="A11" s="176"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="177"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="179"/>
       <c r="E11" s="109"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="128"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="137"/>
       <c r="H11" s="50"/>
       <c r="I11" s="73"/>
       <c r="J11" s="73"/>
@@ -4324,17 +4324,17 @@
       <c r="BO11" s="81"/>
     </row>
     <row r="12" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A12" s="145"/>
+      <c r="A12" s="176"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="177"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="179"/>
       <c r="E12" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="129" t="s">
+      <c r="F12" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="127"/>
+      <c r="G12" s="136"/>
       <c r="H12" s="51"/>
       <c r="I12" s="74"/>
       <c r="J12" s="74"/>
@@ -4399,13 +4399,13 @@
       <c r="BO12" s="82"/>
     </row>
     <row r="13" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A13" s="145"/>
+      <c r="A13" s="176"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="177"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="109"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="131"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="190"/>
       <c r="H13" s="51"/>
       <c r="I13" s="74"/>
       <c r="J13" s="74"/>
@@ -4468,17 +4468,17 @@
       <c r="BO13" s="82"/>
     </row>
     <row r="14" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A14" s="145"/>
+      <c r="A14" s="176"/>
       <c r="B14" s="36"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="177"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="129" t="s">
+      <c r="F14" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="127"/>
+      <c r="G14" s="136"/>
       <c r="H14" s="51"/>
       <c r="I14" s="74"/>
       <c r="J14" s="74"/>
@@ -4541,13 +4541,13 @@
       <c r="BO14" s="82"/>
     </row>
     <row r="15" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A15" s="145"/>
+      <c r="A15" s="176"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="177"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="68"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="128"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="137"/>
       <c r="H15" s="51"/>
       <c r="I15" s="74"/>
       <c r="J15" s="74"/>
@@ -4610,17 +4610,17 @@
       <c r="BO15" s="82"/>
     </row>
     <row r="16" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A16" s="145"/>
+      <c r="A16" s="176"/>
       <c r="B16" s="36"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="177"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="129" t="s">
+      <c r="F16" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="127"/>
+      <c r="G16" s="136"/>
       <c r="H16" s="51"/>
       <c r="I16" s="74"/>
       <c r="J16" s="74"/>
@@ -4685,13 +4685,13 @@
       <c r="BO16" s="82"/>
     </row>
     <row r="17" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A17" s="145"/>
+      <c r="A17" s="176"/>
       <c r="B17" s="36"/>
       <c r="C17" s="64"/>
       <c r="D17" s="65"/>
       <c r="E17" s="62"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="128"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="137"/>
       <c r="H17" s="51"/>
       <c r="I17" s="74"/>
       <c r="J17" s="74"/>
@@ -4754,17 +4754,17 @@
       <c r="BO17" s="82"/>
     </row>
     <row r="18" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A18" s="145"/>
+      <c r="A18" s="176"/>
       <c r="B18" s="36"/>
-      <c r="C18" s="183" t="s">
+      <c r="C18" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="184"/>
+      <c r="D18" s="186"/>
       <c r="E18" s="68"/>
-      <c r="F18" s="129" t="s">
+      <c r="F18" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="127"/>
+      <c r="G18" s="136"/>
       <c r="H18" s="51"/>
       <c r="I18" s="74"/>
       <c r="J18" s="74"/>
@@ -4829,13 +4829,13 @@
       <c r="BO18" s="82"/>
     </row>
     <row r="19" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A19" s="145"/>
+      <c r="A19" s="176"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="179"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="181"/>
       <c r="E19" s="109"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="128"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="137"/>
       <c r="H19" s="51"/>
       <c r="I19" s="74"/>
       <c r="J19" s="74"/>
@@ -4898,19 +4898,19 @@
       <c r="BO19" s="82"/>
     </row>
     <row r="20" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A20" s="145"/>
+      <c r="A20" s="176"/>
       <c r="B20" s="36"/>
-      <c r="C20" s="183" t="s">
+      <c r="C20" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="184"/>
+      <c r="D20" s="186"/>
       <c r="E20" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="129" t="s">
+      <c r="F20" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="127"/>
+      <c r="G20" s="136"/>
       <c r="H20" s="51"/>
       <c r="I20" s="74"/>
       <c r="J20" s="74"/>
@@ -4973,13 +4973,13 @@
       <c r="BO20" s="82"/>
     </row>
     <row r="21" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A21" s="145"/>
+      <c r="A21" s="176"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="177"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="179"/>
       <c r="E21" s="109"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="128"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="137"/>
       <c r="H21" s="51"/>
       <c r="I21" s="74"/>
       <c r="J21" s="74"/>
@@ -4990,7 +4990,7 @@
       <c r="O21" s="74"/>
       <c r="P21" s="74"/>
       <c r="Q21" s="74"/>
-      <c r="R21" s="240"/>
+      <c r="R21" s="127"/>
       <c r="S21" s="74"/>
       <c r="T21" s="13"/>
       <c r="U21" s="19"/>
@@ -5042,17 +5042,17 @@
       <c r="BO21" s="82"/>
     </row>
     <row r="22" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A22" s="145"/>
+      <c r="A22" s="176"/>
       <c r="B22" s="36"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="177"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="179"/>
       <c r="E22" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="129" t="s">
+      <c r="F22" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="127"/>
+      <c r="G22" s="136"/>
       <c r="H22" s="51"/>
       <c r="I22" s="74"/>
       <c r="J22" s="74"/>
@@ -5117,13 +5117,13 @@
       <c r="BO22" s="82"/>
     </row>
     <row r="23" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A23" s="145"/>
+      <c r="A23" s="176"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="176"/>
-      <c r="D23" s="177"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="179"/>
       <c r="E23" s="109"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="128"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="137"/>
       <c r="H23" s="52"/>
       <c r="I23" s="75"/>
       <c r="J23" s="75"/>
@@ -5186,17 +5186,17 @@
       <c r="BO23" s="83"/>
     </row>
     <row r="24" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A24" s="145"/>
+      <c r="A24" s="176"/>
       <c r="B24" s="36"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="177"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="179"/>
       <c r="E24" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="129" t="s">
+      <c r="F24" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="127"/>
+      <c r="G24" s="136"/>
       <c r="H24" s="52"/>
       <c r="I24" s="75"/>
       <c r="J24" s="75"/>
@@ -5261,13 +5261,13 @@
       <c r="BO24" s="83"/>
     </row>
     <row r="25" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A25" s="165"/>
+      <c r="A25" s="177"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="185"/>
-      <c r="D25" s="186"/>
+      <c r="C25" s="187"/>
+      <c r="D25" s="188"/>
       <c r="E25" s="115"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="128"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="137"/>
       <c r="H25" s="54"/>
       <c r="I25" s="77"/>
       <c r="J25" s="77"/>
@@ -5283,8 +5283,8 @@
       <c r="T25" s="17"/>
       <c r="U25" s="23"/>
       <c r="V25" s="23"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="8"/>
+      <c r="W25" s="126"/>
+      <c r="X25" s="118"/>
       <c r="Y25" s="118"/>
       <c r="Z25" s="118"/>
       <c r="AA25" s="17"/>
@@ -5330,21 +5330,21 @@
       <c r="BO25" s="111"/>
     </row>
     <row r="26" spans="1:67" ht="12" customHeight="1">
-      <c r="A26" s="145">
+      <c r="A26" s="176">
         <v>4</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="176" t="s">
+      <c r="C26" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="177"/>
+      <c r="D26" s="179"/>
       <c r="E26" s="63"/>
-      <c r="F26" s="180" t="s">
+      <c r="F26" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="167"/>
+      <c r="G26" s="133"/>
       <c r="H26" s="50"/>
       <c r="I26" s="73"/>
       <c r="J26" s="73"/>
@@ -5407,13 +5407,13 @@
       <c r="BO26" s="81"/>
     </row>
     <row r="27" spans="1:67" ht="12" customHeight="1">
-      <c r="A27" s="165"/>
+      <c r="A27" s="177"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="179"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="181"/>
       <c r="E27" s="65"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="164"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="129"/>
       <c r="H27" s="50"/>
       <c r="I27" s="73"/>
       <c r="J27" s="73"/>
@@ -5430,8 +5430,8 @@
       <c r="U27" s="22"/>
       <c r="V27" s="22"/>
       <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
       <c r="Z27" s="9"/>
       <c r="AA27" s="16"/>
       <c r="AB27" s="22"/>
@@ -5476,21 +5476,21 @@
       <c r="BO27" s="81"/>
     </row>
     <row r="28" spans="1:67" ht="12" customHeight="1">
-      <c r="A28" s="144">
+      <c r="A28" s="175">
         <v>5</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="169" t="s">
+      <c r="C28" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="156"/>
+      <c r="D28" s="159"/>
       <c r="E28" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="129" t="s">
+      <c r="F28" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="127"/>
+      <c r="G28" s="136"/>
       <c r="H28" s="51"/>
       <c r="I28" s="74"/>
       <c r="J28" s="74"/>
@@ -5555,13 +5555,13 @@
       <c r="BO28" s="82"/>
     </row>
     <row r="29" spans="1:67" ht="12" customHeight="1">
-      <c r="A29" s="145"/>
+      <c r="A29" s="176"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="175"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="192"/>
       <c r="E29" s="109"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="128"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="137"/>
       <c r="H29" s="52"/>
       <c r="I29" s="75"/>
       <c r="J29" s="75"/>
@@ -5578,9 +5578,9 @@
       <c r="U29" s="26"/>
       <c r="V29" s="26"/>
       <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="24"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
       <c r="AA29" s="25"/>
       <c r="AB29" s="26"/>
       <c r="AC29" s="26"/>
@@ -5624,17 +5624,17 @@
       <c r="BO29" s="83"/>
     </row>
     <row r="30" spans="1:67" ht="12" customHeight="1">
-      <c r="A30" s="145"/>
+      <c r="A30" s="176"/>
       <c r="B30" s="36"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="175"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="192"/>
       <c r="E30" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="129" t="s">
+      <c r="F30" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="127"/>
+      <c r="G30" s="136"/>
       <c r="H30" s="52"/>
       <c r="I30" s="75"/>
       <c r="J30" s="75"/>
@@ -5699,13 +5699,13 @@
       <c r="BO30" s="83"/>
     </row>
     <row r="31" spans="1:67" ht="12" customHeight="1">
-      <c r="A31" s="145"/>
+      <c r="A31" s="176"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="174"/>
-      <c r="D31" s="175"/>
+      <c r="C31" s="191"/>
+      <c r="D31" s="192"/>
       <c r="E31" s="109"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="128"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="137"/>
       <c r="H31" s="52"/>
       <c r="I31" s="75"/>
       <c r="J31" s="75"/>
@@ -5768,17 +5768,17 @@
       <c r="BO31" s="83"/>
     </row>
     <row r="32" spans="1:67" ht="12" customHeight="1">
-      <c r="A32" s="145"/>
+      <c r="A32" s="176"/>
       <c r="B32" s="36"/>
-      <c r="C32" s="174"/>
-      <c r="D32" s="175"/>
+      <c r="C32" s="191"/>
+      <c r="D32" s="192"/>
       <c r="E32" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="129" t="s">
+      <c r="F32" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="127"/>
+      <c r="G32" s="136"/>
       <c r="H32" s="52"/>
       <c r="I32" s="75"/>
       <c r="J32" s="75"/>
@@ -5843,13 +5843,13 @@
       <c r="BO32" s="83"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="145"/>
+      <c r="A33" s="176"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="175"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="192"/>
       <c r="E33" s="109"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="128"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="137"/>
       <c r="H33" s="52"/>
       <c r="I33" s="75"/>
       <c r="J33" s="75"/>
@@ -5912,17 +5912,17 @@
       <c r="BO33" s="83"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="145"/>
+      <c r="A34" s="176"/>
       <c r="B34" s="36"/>
-      <c r="C34" s="174"/>
-      <c r="D34" s="175"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="192"/>
       <c r="E34" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="129" t="s">
+      <c r="F34" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="127"/>
+      <c r="G34" s="136"/>
       <c r="H34" s="52"/>
       <c r="I34" s="75"/>
       <c r="J34" s="75"/>
@@ -5987,13 +5987,13 @@
       <c r="BO34" s="83"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="145"/>
+      <c r="A35" s="176"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="175"/>
+      <c r="C35" s="191"/>
+      <c r="D35" s="192"/>
       <c r="E35" s="109"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="128"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="137"/>
       <c r="H35" s="52"/>
       <c r="I35" s="75"/>
       <c r="J35" s="75"/>
@@ -6056,17 +6056,17 @@
       <c r="BO35" s="83"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="145"/>
+      <c r="A36" s="176"/>
       <c r="B36" s="36"/>
-      <c r="C36" s="174"/>
-      <c r="D36" s="175"/>
+      <c r="C36" s="191"/>
+      <c r="D36" s="192"/>
       <c r="E36" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="129" t="s">
+      <c r="F36" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="127"/>
+      <c r="G36" s="136"/>
       <c r="H36" s="52"/>
       <c r="I36" s="75"/>
       <c r="J36" s="75"/>
@@ -6131,13 +6131,13 @@
       <c r="BO36" s="83"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="145"/>
+      <c r="A37" s="176"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="174"/>
-      <c r="D37" s="175"/>
+      <c r="C37" s="191"/>
+      <c r="D37" s="192"/>
       <c r="E37" s="109"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="128"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="137"/>
       <c r="H37" s="52"/>
       <c r="I37" s="75"/>
       <c r="J37" s="75"/>
@@ -6200,17 +6200,17 @@
       <c r="BO37" s="83"/>
     </row>
     <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="145"/>
+      <c r="A38" s="176"/>
       <c r="B38" s="36"/>
-      <c r="C38" s="174"/>
-      <c r="D38" s="175"/>
+      <c r="C38" s="191"/>
+      <c r="D38" s="192"/>
       <c r="E38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="129" t="s">
+      <c r="F38" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="127"/>
+      <c r="G38" s="136"/>
       <c r="H38" s="52"/>
       <c r="I38" s="75"/>
       <c r="J38" s="75"/>
@@ -6275,13 +6275,13 @@
       <c r="BO38" s="83"/>
     </row>
     <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="145"/>
+      <c r="A39" s="176"/>
       <c r="B39" s="36"/>
-      <c r="C39" s="174"/>
-      <c r="D39" s="175"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="192"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="128"/>
+      <c r="F39" s="135"/>
+      <c r="G39" s="137"/>
       <c r="H39" s="52"/>
       <c r="I39" s="75"/>
       <c r="J39" s="75"/>
@@ -6344,21 +6344,21 @@
       <c r="BO39" s="83"/>
     </row>
     <row r="40" spans="1:67" ht="12" customHeight="1">
-      <c r="A40" s="168">
+      <c r="A40" s="193">
         <v>6</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="136" t="s">
+      <c r="C40" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="137"/>
+      <c r="D40" s="195"/>
       <c r="E40" s="69"/>
-      <c r="F40" s="166" t="s">
+      <c r="F40" s="196" t="s">
         <v>66</v>
       </c>
-      <c r="G40" s="167"/>
+      <c r="G40" s="133"/>
       <c r="H40" s="38"/>
       <c r="I40" s="76"/>
       <c r="J40" s="76"/>
@@ -6421,13 +6421,13 @@
       <c r="BO40" s="84"/>
     </row>
     <row r="41" spans="1:67" ht="12" customHeight="1">
-      <c r="A41" s="168"/>
+      <c r="A41" s="193"/>
       <c r="B41" s="36"/>
-      <c r="C41" s="157"/>
-      <c r="D41" s="158"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="170"/>
       <c r="E41" s="62"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="164"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="129"/>
       <c r="H41" s="52"/>
       <c r="I41" s="75"/>
       <c r="J41" s="75"/>
@@ -6490,19 +6490,19 @@
       <c r="BO41" s="83"/>
     </row>
     <row r="42" spans="1:67" ht="12" customHeight="1">
-      <c r="A42" s="168">
+      <c r="A42" s="193">
         <v>7</v>
       </c>
       <c r="B42" s="36"/>
-      <c r="C42" s="169" t="s">
+      <c r="C42" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="156"/>
+      <c r="D42" s="159"/>
       <c r="E42" s="66"/>
-      <c r="F42" s="162" t="s">
+      <c r="F42" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="163"/>
+      <c r="G42" s="128"/>
       <c r="H42" s="51"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -6567,13 +6567,13 @@
       <c r="BO42" s="82"/>
     </row>
     <row r="43" spans="1:67" ht="12" customHeight="1">
-      <c r="A43" s="168"/>
+      <c r="A43" s="193"/>
       <c r="B43" s="36"/>
-      <c r="C43" s="157"/>
-      <c r="D43" s="158"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="170"/>
       <c r="E43" s="62"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="164"/>
+      <c r="F43" s="135"/>
+      <c r="G43" s="129"/>
       <c r="H43" s="52"/>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
@@ -6636,19 +6636,19 @@
       <c r="BO43" s="83"/>
     </row>
     <row r="44" spans="1:67" ht="12" customHeight="1">
-      <c r="A44" s="168">
+      <c r="A44" s="193">
         <v>8</v>
       </c>
       <c r="B44" s="36"/>
-      <c r="C44" s="169" t="s">
+      <c r="C44" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="156"/>
+      <c r="D44" s="159"/>
       <c r="E44" s="66"/>
-      <c r="F44" s="162" t="s">
+      <c r="F44" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="163"/>
+      <c r="G44" s="128"/>
       <c r="H44" s="52"/>
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
@@ -6713,13 +6713,13 @@
       <c r="BO44" s="85"/>
     </row>
     <row r="45" spans="1:67" ht="12" customHeight="1">
-      <c r="A45" s="168"/>
+      <c r="A45" s="193"/>
       <c r="B45" s="37"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="171"/>
+      <c r="C45" s="160"/>
+      <c r="D45" s="161"/>
       <c r="E45" s="67"/>
-      <c r="F45" s="172"/>
-      <c r="G45" s="173"/>
+      <c r="F45" s="198"/>
+      <c r="G45" s="199"/>
       <c r="H45" s="54"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -6782,21 +6782,21 @@
       <c r="BO45" s="86"/>
     </row>
     <row r="46" spans="1:67" ht="12" customHeight="1">
-      <c r="A46" s="144">
+      <c r="A46" s="175">
         <v>9</v>
       </c>
       <c r="B46" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="136" t="s">
+      <c r="C46" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="137"/>
+      <c r="D46" s="195"/>
       <c r="E46" s="69"/>
-      <c r="F46" s="166" t="s">
+      <c r="F46" s="196" t="s">
         <v>66</v>
       </c>
-      <c r="G46" s="167"/>
+      <c r="G46" s="133"/>
       <c r="H46" s="38"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -6859,15 +6859,15 @@
       <c r="BO46" s="87"/>
     </row>
     <row r="47" spans="1:67" ht="12" customHeight="1">
-      <c r="A47" s="165"/>
+      <c r="A47" s="177"/>
       <c r="B47" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="157"/>
-      <c r="D47" s="158"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="170"/>
       <c r="E47" s="62"/>
-      <c r="F47" s="130"/>
-      <c r="G47" s="164"/>
+      <c r="F47" s="135"/>
+      <c r="G47" s="129"/>
       <c r="H47" s="51"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -6930,19 +6930,19 @@
       <c r="BO47" s="88"/>
     </row>
     <row r="48" spans="1:67" ht="12" customHeight="1">
-      <c r="A48" s="144">
+      <c r="A48" s="175">
         <v>10</v>
       </c>
       <c r="B48" s="36"/>
-      <c r="C48" s="155" t="s">
+      <c r="C48" s="200" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="156"/>
+      <c r="D48" s="159"/>
       <c r="E48" s="66"/>
-      <c r="F48" s="162" t="s">
+      <c r="F48" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="163"/>
+      <c r="G48" s="128"/>
       <c r="H48" s="51"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -7007,13 +7007,13 @@
       <c r="BO48" s="88"/>
     </row>
     <row r="49" spans="1:67" ht="12" customHeight="1">
-      <c r="A49" s="165"/>
+      <c r="A49" s="177"/>
       <c r="B49" s="36"/>
-      <c r="C49" s="157"/>
-      <c r="D49" s="158"/>
+      <c r="C49" s="169"/>
+      <c r="D49" s="170"/>
       <c r="E49" s="62"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="164"/>
+      <c r="F49" s="135"/>
+      <c r="G49" s="129"/>
       <c r="H49" s="51"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -7076,19 +7076,19 @@
       <c r="BO49" s="88"/>
     </row>
     <row r="50" spans="1:67" ht="12" customHeight="1">
-      <c r="A50" s="144">
+      <c r="A50" s="175">
         <v>11</v>
       </c>
       <c r="B50" s="36"/>
-      <c r="C50" s="155" t="s">
+      <c r="C50" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="156"/>
+      <c r="D50" s="159"/>
       <c r="E50" s="102"/>
-      <c r="F50" s="162" t="s">
+      <c r="F50" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="G50" s="163"/>
+      <c r="G50" s="128"/>
       <c r="H50" s="52"/>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
@@ -7153,13 +7153,13 @@
       <c r="BO50" s="85"/>
     </row>
     <row r="51" spans="1:67" ht="12" customHeight="1">
-      <c r="A51" s="145"/>
+      <c r="A51" s="176"/>
       <c r="B51" s="36"/>
-      <c r="C51" s="157"/>
-      <c r="D51" s="158"/>
+      <c r="C51" s="169"/>
+      <c r="D51" s="170"/>
       <c r="E51" s="103"/>
-      <c r="F51" s="130"/>
-      <c r="G51" s="164"/>
+      <c r="F51" s="135"/>
+      <c r="G51" s="129"/>
       <c r="H51" s="52"/>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
@@ -7222,17 +7222,17 @@
       <c r="BO51" s="85"/>
     </row>
     <row r="52" spans="1:67" ht="12" customHeight="1">
-      <c r="A52" s="145"/>
+      <c r="A52" s="176"/>
       <c r="B52" s="36"/>
-      <c r="C52" s="155" t="s">
+      <c r="C52" s="200" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="159"/>
+      <c r="D52" s="209"/>
       <c r="E52" s="104"/>
-      <c r="F52" s="162" t="s">
+      <c r="F52" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="G52" s="163"/>
+      <c r="G52" s="128"/>
       <c r="H52" s="52"/>
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
@@ -7295,13 +7295,13 @@
       <c r="BO52" s="85"/>
     </row>
     <row r="53" spans="1:67" ht="12" customHeight="1">
-      <c r="A53" s="145"/>
+      <c r="A53" s="176"/>
       <c r="B53" s="36"/>
-      <c r="C53" s="160"/>
-      <c r="D53" s="161"/>
+      <c r="C53" s="210"/>
+      <c r="D53" s="211"/>
       <c r="E53" s="104"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="164"/>
+      <c r="F53" s="135"/>
+      <c r="G53" s="129"/>
       <c r="H53" s="52"/>
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
@@ -7364,17 +7364,17 @@
       <c r="BO53" s="85"/>
     </row>
     <row r="54" spans="1:67" ht="12" customHeight="1">
-      <c r="A54" s="145"/>
+      <c r="A54" s="176"/>
       <c r="B54" s="36"/>
-      <c r="C54" s="155" t="s">
+      <c r="C54" s="200" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="156"/>
+      <c r="D54" s="159"/>
       <c r="E54" s="102"/>
-      <c r="F54" s="162" t="s">
+      <c r="F54" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="G54" s="163"/>
+      <c r="G54" s="128"/>
       <c r="H54" s="52"/>
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
@@ -7437,13 +7437,13 @@
       <c r="BO54" s="85"/>
     </row>
     <row r="55" spans="1:67" ht="12" customHeight="1">
-      <c r="A55" s="145"/>
+      <c r="A55" s="176"/>
       <c r="B55" s="36"/>
-      <c r="C55" s="157"/>
-      <c r="D55" s="158"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="170"/>
       <c r="E55" s="103"/>
-      <c r="F55" s="130"/>
-      <c r="G55" s="164"/>
+      <c r="F55" s="135"/>
+      <c r="G55" s="129"/>
       <c r="H55" s="52"/>
       <c r="I55" s="24"/>
       <c r="J55" s="24"/>
@@ -7506,17 +7506,17 @@
       <c r="BO55" s="85"/>
     </row>
     <row r="56" spans="1:67" ht="12" customHeight="1">
-      <c r="A56" s="145"/>
+      <c r="A56" s="176"/>
       <c r="B56" s="36"/>
-      <c r="C56" s="155" t="s">
+      <c r="C56" s="200" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="156"/>
+      <c r="D56" s="159"/>
       <c r="E56" s="104"/>
-      <c r="F56" s="162" t="s">
+      <c r="F56" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="G56" s="163"/>
+      <c r="G56" s="128"/>
       <c r="H56" s="52"/>
       <c r="I56" s="24"/>
       <c r="J56" s="24"/>
@@ -7581,13 +7581,13 @@
       <c r="BO56" s="85"/>
     </row>
     <row r="57" spans="1:67" ht="12" customHeight="1">
-      <c r="A57" s="145"/>
+      <c r="A57" s="176"/>
       <c r="B57" s="36"/>
-      <c r="C57" s="157"/>
-      <c r="D57" s="158"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="170"/>
       <c r="E57" s="104"/>
-      <c r="F57" s="130"/>
-      <c r="G57" s="164"/>
+      <c r="F57" s="135"/>
+      <c r="G57" s="129"/>
       <c r="H57" s="52"/>
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
@@ -7650,21 +7650,21 @@
       <c r="BO57" s="85"/>
     </row>
     <row r="58" spans="1:67" ht="12" customHeight="1">
-      <c r="A58" s="132">
+      <c r="A58" s="156">
         <v>12</v>
       </c>
       <c r="B58" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="147" t="s">
+      <c r="C58" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="D58" s="148"/>
+      <c r="D58" s="202"/>
       <c r="E58" s="105"/>
-      <c r="F58" s="151" t="s">
+      <c r="F58" s="205" t="s">
         <v>66</v>
       </c>
-      <c r="G58" s="153"/>
+      <c r="G58" s="207"/>
       <c r="H58" s="38"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
@@ -7731,13 +7731,13 @@
       <c r="BO58" s="87"/>
     </row>
     <row r="59" spans="1:67" ht="12" customHeight="1">
-      <c r="A59" s="146"/>
+      <c r="A59" s="157"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="149"/>
-      <c r="D59" s="150"/>
+      <c r="C59" s="203"/>
+      <c r="D59" s="204"/>
       <c r="E59" s="115"/>
-      <c r="F59" s="152"/>
-      <c r="G59" s="154"/>
+      <c r="F59" s="206"/>
+      <c r="G59" s="208"/>
       <c r="H59" s="51"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -7800,21 +7800,21 @@
       <c r="BO59" s="88"/>
     </row>
     <row r="60" spans="1:67" ht="12" customHeight="1">
-      <c r="A60" s="132">
+      <c r="A60" s="156">
         <v>14</v>
       </c>
-      <c r="B60" s="134" t="s">
+      <c r="B60" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="136" t="s">
+      <c r="C60" s="194" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="137"/>
+      <c r="D60" s="195"/>
       <c r="E60" s="69"/>
-      <c r="F60" s="140" t="s">
+      <c r="F60" s="217" t="s">
         <v>66</v>
       </c>
-      <c r="G60" s="142"/>
+      <c r="G60" s="219"/>
       <c r="H60" s="38"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
@@ -7879,13 +7879,13 @@
       <c r="BO60" s="87"/>
     </row>
     <row r="61" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A61" s="133"/>
-      <c r="B61" s="135"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="139"/>
+      <c r="A61" s="212"/>
+      <c r="B61" s="214"/>
+      <c r="C61" s="215"/>
+      <c r="D61" s="216"/>
       <c r="E61" s="71"/>
-      <c r="F61" s="141"/>
-      <c r="G61" s="143"/>
+      <c r="F61" s="218"/>
+      <c r="G61" s="220"/>
       <c r="H61" s="39"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
@@ -7965,6 +7965,88 @@
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="C28:D39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A8:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="C8:D16"/>
+    <mergeCell ref="C20:D25"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="AL1:BO1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="G56:G57"/>
     <mergeCell ref="H1:AK1"/>
     <mergeCell ref="G40:G41"/>
@@ -7981,88 +8063,6 @@
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="AL1:BO1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A8:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="C8:D16"/>
-    <mergeCell ref="C20:D25"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="C28:D39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="A50:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G32:G33"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -8106,54 +8106,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="208" t="s">
+      <c r="C1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="209"/>
-      <c r="E1" s="214" t="s">
+      <c r="D1" s="145"/>
+      <c r="E1" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="217" t="s">
+      <c r="F1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="199"/>
-      <c r="H1" s="200"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
-      <c r="O1" s="200"/>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="200"/>
-      <c r="T1" s="200"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="200"/>
-      <c r="W1" s="200"/>
-      <c r="X1" s="200"/>
-      <c r="Y1" s="200"/>
-      <c r="Z1" s="200"/>
-      <c r="AA1" s="200"/>
-      <c r="AB1" s="200"/>
-      <c r="AC1" s="200"/>
-      <c r="AD1" s="201"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="132"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="203"/>
-      <c r="B2" s="206"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="218"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -8228,12 +8228,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="204"/>
-      <c r="B3" s="207"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="219"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="155"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -8308,20 +8308,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="192">
+      <c r="A4" s="166">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="193" t="s">
+      <c r="C4" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="194"/>
-      <c r="E4" s="225" t="s">
+      <c r="D4" s="168"/>
+      <c r="E4" s="235" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="197"/>
+      <c r="F4" s="173"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -8344,20 +8344,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="227" t="s">
+      <c r="AC4" s="237" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="220" t="s">
+      <c r="AD4" s="230" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="146"/>
+      <c r="A5" s="157"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="226"/>
-      <c r="F5" s="198"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -8380,22 +8380,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="228"/>
-      <c r="AD5" s="221"/>
+      <c r="AC5" s="238"/>
+      <c r="AD5" s="231"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="132">
+      <c r="A6" s="156">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="169" t="s">
+      <c r="C6" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="156"/>
-      <c r="E6" s="223" t="s">
+      <c r="D6" s="159"/>
+      <c r="E6" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="190"/>
+      <c r="F6" s="164"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -8418,16 +8418,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="228"/>
-      <c r="AD6" s="221"/>
+      <c r="AC6" s="238"/>
+      <c r="AD6" s="231"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="146"/>
+      <c r="A7" s="157"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="224"/>
-      <c r="F7" s="191"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="234"/>
+      <c r="F7" s="165"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -8450,24 +8450,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="228"/>
-      <c r="AD7" s="221"/>
+      <c r="AC7" s="238"/>
+      <c r="AD7" s="231"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="144">
+      <c r="A8" s="175">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="181" t="s">
+      <c r="C8" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="182"/>
-      <c r="E8" s="230" t="s">
+      <c r="D8" s="184"/>
+      <c r="E8" s="240" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="167"/>
+      <c r="F8" s="133"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -8490,16 +8490,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="228"/>
-      <c r="AD8" s="221"/>
+      <c r="AC8" s="238"/>
+      <c r="AD8" s="231"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="165"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="173"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="225"/>
+      <c r="F9" s="199"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -8522,24 +8522,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="228"/>
-      <c r="AD9" s="221"/>
+      <c r="AC9" s="238"/>
+      <c r="AD9" s="231"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="145">
+      <c r="A10" s="176">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="176" t="s">
+      <c r="C10" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="177"/>
-      <c r="E10" s="232" t="s">
+      <c r="D10" s="179"/>
+      <c r="E10" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="234"/>
+      <c r="F10" s="228"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -8562,16 +8562,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="228"/>
-      <c r="AD10" s="221"/>
+      <c r="AC10" s="238"/>
+      <c r="AD10" s="231"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="165"/>
+      <c r="A11" s="177"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="233"/>
-      <c r="F11" s="164"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="224"/>
+      <c r="F11" s="129"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -8594,22 +8594,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="228"/>
-      <c r="AD11" s="221"/>
+      <c r="AC11" s="238"/>
+      <c r="AD11" s="231"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="144">
+      <c r="A12" s="175">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="169" t="s">
+      <c r="C12" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="156"/>
-      <c r="E12" s="235" t="s">
+      <c r="D12" s="159"/>
+      <c r="E12" s="229" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="163"/>
+      <c r="F12" s="128"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -8632,16 +8632,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="228"/>
-      <c r="AD12" s="221"/>
+      <c r="AC12" s="238"/>
+      <c r="AD12" s="231"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="145"/>
+      <c r="A13" s="176"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="174"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="232"/>
-      <c r="F13" s="234"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="227"/>
+      <c r="F13" s="228"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -8664,24 +8664,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="228"/>
-      <c r="AD13" s="221"/>
+      <c r="AC13" s="238"/>
+      <c r="AD13" s="231"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="168">
+      <c r="A14" s="193">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="136" t="s">
+      <c r="C14" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="137"/>
-      <c r="E14" s="236" t="s">
+      <c r="D14" s="195"/>
+      <c r="E14" s="226" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="167"/>
+      <c r="F14" s="133"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -8704,16 +8704,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="228"/>
-      <c r="AD14" s="221"/>
+      <c r="AC14" s="238"/>
+      <c r="AD14" s="231"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="168"/>
+      <c r="A15" s="193"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="233"/>
-      <c r="F15" s="164"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="224"/>
+      <c r="F15" s="129"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -8736,22 +8736,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="228"/>
-      <c r="AD15" s="221"/>
+      <c r="AC15" s="238"/>
+      <c r="AD15" s="231"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="168">
+      <c r="A16" s="193">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="169" t="s">
+      <c r="C16" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="156"/>
-      <c r="E16" s="237" t="s">
+      <c r="D16" s="159"/>
+      <c r="E16" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="163"/>
+      <c r="F16" s="128"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -8774,16 +8774,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="228"/>
-      <c r="AD16" s="221"/>
+      <c r="AC16" s="238"/>
+      <c r="AD16" s="231"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="168"/>
+      <c r="A17" s="193"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="233"/>
-      <c r="F17" s="164"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="224"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -8806,22 +8806,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="228"/>
-      <c r="AD17" s="221"/>
+      <c r="AC17" s="238"/>
+      <c r="AD17" s="231"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="168">
+      <c r="A18" s="193">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="169" t="s">
+      <c r="C18" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="156"/>
-      <c r="E18" s="237" t="s">
+      <c r="D18" s="159"/>
+      <c r="E18" s="223" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="163"/>
+      <c r="F18" s="128"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -8844,16 +8844,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="228"/>
-      <c r="AD18" s="221"/>
+      <c r="AC18" s="238"/>
+      <c r="AD18" s="231"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="168"/>
+      <c r="A19" s="193"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="231"/>
-      <c r="F19" s="173"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="199"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -8876,24 +8876,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="228"/>
-      <c r="AD19" s="221"/>
+      <c r="AC19" s="238"/>
+      <c r="AD19" s="231"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="144">
+      <c r="A20" s="175">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="137"/>
-      <c r="E20" s="236" t="s">
+      <c r="D20" s="195"/>
+      <c r="E20" s="226" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="167"/>
+      <c r="F20" s="133"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -8916,18 +8916,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="228"/>
-      <c r="AD20" s="221"/>
+      <c r="AC20" s="238"/>
+      <c r="AD20" s="231"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="165"/>
+      <c r="A21" s="177"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="157"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="164"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="129"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -8950,22 +8950,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="228"/>
-      <c r="AD21" s="221"/>
+      <c r="AC21" s="238"/>
+      <c r="AD21" s="231"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="144">
+      <c r="A22" s="175">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="155" t="s">
+      <c r="C22" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="156"/>
-      <c r="E22" s="237" t="s">
+      <c r="D22" s="159"/>
+      <c r="E22" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="163"/>
+      <c r="F22" s="128"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -8988,16 +8988,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="228"/>
-      <c r="AD22" s="221"/>
+      <c r="AC22" s="238"/>
+      <c r="AD22" s="231"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="165"/>
+      <c r="A23" s="177"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="233"/>
-      <c r="F23" s="164"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="224"/>
+      <c r="F23" s="129"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -9020,22 +9020,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="228"/>
-      <c r="AD23" s="221"/>
+      <c r="AC23" s="238"/>
+      <c r="AD23" s="231"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="144">
+      <c r="A24" s="175">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="155" t="s">
+      <c r="C24" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="156"/>
-      <c r="E24" s="237" t="s">
+      <c r="D24" s="159"/>
+      <c r="E24" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="163"/>
+      <c r="F24" s="128"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -9058,16 +9058,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="228"/>
-      <c r="AD24" s="221"/>
+      <c r="AC24" s="238"/>
+      <c r="AD24" s="231"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="165"/>
+      <c r="A25" s="177"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="233"/>
-      <c r="F25" s="173"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="224"/>
+      <c r="F25" s="199"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -9090,24 +9090,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="228"/>
-      <c r="AD25" s="221"/>
+      <c r="AC25" s="238"/>
+      <c r="AD25" s="231"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="132">
+      <c r="A26" s="156">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="147" t="s">
+      <c r="C26" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="148"/>
-      <c r="E26" s="238" t="s">
+      <c r="D26" s="202"/>
+      <c r="E26" s="221" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="153"/>
+      <c r="F26" s="207"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -9130,16 +9130,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="228"/>
-      <c r="AD26" s="221"/>
+      <c r="AC26" s="238"/>
+      <c r="AD26" s="231"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="146"/>
+      <c r="A27" s="157"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="239"/>
-      <c r="F27" s="154"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="204"/>
+      <c r="E27" s="222"/>
+      <c r="F27" s="208"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -9162,24 +9162,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="228"/>
-      <c r="AD27" s="221"/>
+      <c r="AC27" s="238"/>
+      <c r="AD27" s="231"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="132">
+      <c r="A28" s="156">
         <v>14</v>
       </c>
-      <c r="B28" s="134" t="s">
+      <c r="B28" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="194" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="137"/>
-      <c r="E28" s="134" t="s">
+      <c r="D28" s="195"/>
+      <c r="E28" s="213" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="142"/>
+      <c r="F28" s="219"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -9202,16 +9202,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="228"/>
-      <c r="AD28" s="221"/>
+      <c r="AC28" s="238"/>
+      <c r="AD28" s="231"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="133"/>
-      <c r="B29" s="135"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="143"/>
+      <c r="A29" s="212"/>
+      <c r="B29" s="214"/>
+      <c r="C29" s="215"/>
+      <c r="D29" s="216"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="220"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -9234,8 +9234,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="229"/>
-      <c r="AD29" s="222"/>
+      <c r="AC29" s="239"/>
+      <c r="AD29" s="232"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -9255,45 +9255,12 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -9310,12 +9277,45 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26CCD68-FE64-4EFE-BABB-37ECEF1C20E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197A1077-F9F4-41E2-801D-10FF6978880B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2152,11 +2152,221 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2166,21 +2376,6 @@
     <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2235,259 +2430,64 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3195,10 +3195,10 @@
   <dimension ref="A1:BO64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="7" topLeftCell="H14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="7" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
+      <selection pane="bottomRight" activeCell="AG39" sqref="AG39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3216,98 +3216,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="203" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="144" t="s">
+      <c r="C1" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="150" t="s">
+      <c r="D1" s="210"/>
+      <c r="E1" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="150" t="s">
+      <c r="F1" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="153" t="s">
+      <c r="G1" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="130">
+      <c r="H1" s="200">
         <v>45536</v>
       </c>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="131"/>
-      <c r="AG1" s="131"/>
-      <c r="AH1" s="131"/>
-      <c r="AI1" s="131"/>
-      <c r="AJ1" s="131"/>
-      <c r="AK1" s="132"/>
-      <c r="AL1" s="130">
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="201"/>
+      <c r="T1" s="201"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="201"/>
+      <c r="W1" s="201"/>
+      <c r="X1" s="201"/>
+      <c r="Y1" s="201"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="201"/>
+      <c r="AB1" s="201"/>
+      <c r="AC1" s="201"/>
+      <c r="AD1" s="201"/>
+      <c r="AE1" s="201"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="201"/>
+      <c r="AH1" s="201"/>
+      <c r="AI1" s="201"/>
+      <c r="AJ1" s="201"/>
+      <c r="AK1" s="202"/>
+      <c r="AL1" s="200">
         <v>45566</v>
       </c>
-      <c r="AM1" s="131"/>
-      <c r="AN1" s="131"/>
-      <c r="AO1" s="131"/>
-      <c r="AP1" s="131"/>
-      <c r="AQ1" s="131"/>
-      <c r="AR1" s="131"/>
-      <c r="AS1" s="131"/>
-      <c r="AT1" s="131"/>
-      <c r="AU1" s="131"/>
-      <c r="AV1" s="131"/>
-      <c r="AW1" s="131"/>
-      <c r="AX1" s="131"/>
-      <c r="AY1" s="131"/>
-      <c r="AZ1" s="131"/>
-      <c r="BA1" s="131"/>
-      <c r="BB1" s="131"/>
-      <c r="BC1" s="131"/>
-      <c r="BD1" s="131"/>
-      <c r="BE1" s="131"/>
-      <c r="BF1" s="131"/>
-      <c r="BG1" s="131"/>
-      <c r="BH1" s="131"/>
-      <c r="BI1" s="131"/>
-      <c r="BJ1" s="131"/>
-      <c r="BK1" s="131"/>
-      <c r="BL1" s="131"/>
-      <c r="BM1" s="131"/>
-      <c r="BN1" s="131"/>
-      <c r="BO1" s="132"/>
+      <c r="AM1" s="201"/>
+      <c r="AN1" s="201"/>
+      <c r="AO1" s="201"/>
+      <c r="AP1" s="201"/>
+      <c r="AQ1" s="201"/>
+      <c r="AR1" s="201"/>
+      <c r="AS1" s="201"/>
+      <c r="AT1" s="201"/>
+      <c r="AU1" s="201"/>
+      <c r="AV1" s="201"/>
+      <c r="AW1" s="201"/>
+      <c r="AX1" s="201"/>
+      <c r="AY1" s="201"/>
+      <c r="AZ1" s="201"/>
+      <c r="BA1" s="201"/>
+      <c r="BB1" s="201"/>
+      <c r="BC1" s="201"/>
+      <c r="BD1" s="201"/>
+      <c r="BE1" s="201"/>
+      <c r="BF1" s="201"/>
+      <c r="BG1" s="201"/>
+      <c r="BH1" s="201"/>
+      <c r="BI1" s="201"/>
+      <c r="BJ1" s="201"/>
+      <c r="BK1" s="201"/>
+      <c r="BL1" s="201"/>
+      <c r="BM1" s="201"/>
+      <c r="BN1" s="201"/>
+      <c r="BO1" s="202"/>
     </row>
     <row r="2" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A2" s="139"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="154"/>
+      <c r="A2" s="204"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="219"/>
       <c r="H2" s="46">
         <v>45537</v>
       </c>
@@ -3549,13 +3549,13 @@
       </c>
     </row>
     <row r="3" spans="1:67" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="140"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="155"/>
+      <c r="A3" s="205"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="220"/>
       <c r="H3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3738,21 +3738,21 @@
       </c>
     </row>
     <row r="4" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A4" s="166">
+      <c r="A4" s="193">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="168"/>
+      <c r="D4" s="195"/>
       <c r="E4" s="61"/>
-      <c r="F4" s="171" t="s">
+      <c r="F4" s="196" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="173"/>
+      <c r="G4" s="198"/>
       <c r="H4" s="49"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
@@ -3815,13 +3815,13 @@
       <c r="BO4" s="80"/>
     </row>
     <row r="5" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A5" s="157"/>
+      <c r="A5" s="147"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="170"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="159"/>
       <c r="E5" s="62"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="174"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="199"/>
       <c r="H5" s="50"/>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
@@ -3884,19 +3884,19 @@
       <c r="BO5" s="81"/>
     </row>
     <row r="6" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A6" s="156">
+      <c r="A6" s="133">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="158" t="s">
+      <c r="C6" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="159"/>
+      <c r="D6" s="157"/>
       <c r="E6" s="66"/>
-      <c r="F6" s="162" t="s">
+      <c r="F6" s="189" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="164"/>
+      <c r="G6" s="191"/>
       <c r="H6" s="51"/>
       <c r="I6" s="74"/>
       <c r="J6" s="30"/>
@@ -3959,13 +3959,13 @@
       <c r="BO6" s="82"/>
     </row>
     <row r="7" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A7" s="157"/>
+      <c r="A7" s="147"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="161"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="172"/>
       <c r="E7" s="67"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="165"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="192"/>
       <c r="H7" s="52"/>
       <c r="I7" s="75"/>
       <c r="J7" s="32"/>
@@ -4028,23 +4028,23 @@
       <c r="BO7" s="83"/>
     </row>
     <row r="8" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A8" s="175">
+      <c r="A8" s="145">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="183" t="s">
+      <c r="C8" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="184"/>
+      <c r="D8" s="183"/>
       <c r="E8" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="182" t="s">
+      <c r="F8" s="181" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="189"/>
+      <c r="G8" s="188"/>
       <c r="H8" s="38"/>
       <c r="I8" s="76"/>
       <c r="J8" s="76"/>
@@ -4109,13 +4109,13 @@
       <c r="BO8" s="84"/>
     </row>
     <row r="9" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A9" s="176"/>
+      <c r="A9" s="146"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="179"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="178"/>
       <c r="E9" s="62"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="190"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="132"/>
       <c r="H9" s="50"/>
       <c r="I9" s="73"/>
       <c r="J9" s="73"/>
@@ -4178,17 +4178,17 @@
       <c r="BO9" s="81"/>
     </row>
     <row r="10" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A10" s="176"/>
+      <c r="A10" s="146"/>
       <c r="B10" s="36"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="179"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="178"/>
       <c r="E10" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="134" t="s">
+      <c r="F10" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="136"/>
+      <c r="G10" s="128"/>
       <c r="H10" s="50"/>
       <c r="I10" s="73"/>
       <c r="J10" s="73"/>
@@ -4255,13 +4255,13 @@
       <c r="BO10" s="81"/>
     </row>
     <row r="11" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A11" s="176"/>
+      <c r="A11" s="146"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="179"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="178"/>
       <c r="E11" s="109"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="137"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="129"/>
       <c r="H11" s="50"/>
       <c r="I11" s="73"/>
       <c r="J11" s="73"/>
@@ -4324,17 +4324,17 @@
       <c r="BO11" s="81"/>
     </row>
     <row r="12" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A12" s="176"/>
+      <c r="A12" s="146"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="179"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="178"/>
       <c r="E12" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="134" t="s">
+      <c r="F12" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="136"/>
+      <c r="G12" s="128"/>
       <c r="H12" s="51"/>
       <c r="I12" s="74"/>
       <c r="J12" s="74"/>
@@ -4399,13 +4399,13 @@
       <c r="BO12" s="82"/>
     </row>
     <row r="13" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A13" s="176"/>
+      <c r="A13" s="146"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="179"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="178"/>
       <c r="E13" s="109"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="190"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="132"/>
       <c r="H13" s="51"/>
       <c r="I13" s="74"/>
       <c r="J13" s="74"/>
@@ -4468,17 +4468,17 @@
       <c r="BO13" s="82"/>
     </row>
     <row r="14" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A14" s="176"/>
+      <c r="A14" s="146"/>
       <c r="B14" s="36"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="179"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="178"/>
       <c r="E14" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="134" t="s">
+      <c r="F14" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="136"/>
+      <c r="G14" s="128"/>
       <c r="H14" s="51"/>
       <c r="I14" s="74"/>
       <c r="J14" s="74"/>
@@ -4541,13 +4541,13 @@
       <c r="BO14" s="82"/>
     </row>
     <row r="15" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A15" s="176"/>
+      <c r="A15" s="146"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="179"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="178"/>
       <c r="E15" s="68"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="137"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="129"/>
       <c r="H15" s="51"/>
       <c r="I15" s="74"/>
       <c r="J15" s="74"/>
@@ -4610,17 +4610,17 @@
       <c r="BO15" s="82"/>
     </row>
     <row r="16" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A16" s="176"/>
+      <c r="A16" s="146"/>
       <c r="B16" s="36"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="179"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="178"/>
       <c r="E16" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="134" t="s">
+      <c r="F16" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="136"/>
+      <c r="G16" s="128"/>
       <c r="H16" s="51"/>
       <c r="I16" s="74"/>
       <c r="J16" s="74"/>
@@ -4685,13 +4685,13 @@
       <c r="BO16" s="82"/>
     </row>
     <row r="17" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A17" s="176"/>
+      <c r="A17" s="146"/>
       <c r="B17" s="36"/>
       <c r="C17" s="64"/>
       <c r="D17" s="65"/>
       <c r="E17" s="62"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="137"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="129"/>
       <c r="H17" s="51"/>
       <c r="I17" s="74"/>
       <c r="J17" s="74"/>
@@ -4754,17 +4754,17 @@
       <c r="BO17" s="82"/>
     </row>
     <row r="18" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A18" s="176"/>
+      <c r="A18" s="146"/>
       <c r="B18" s="36"/>
-      <c r="C18" s="185" t="s">
+      <c r="C18" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="186"/>
+      <c r="D18" s="185"/>
       <c r="E18" s="68"/>
-      <c r="F18" s="134" t="s">
+      <c r="F18" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="136"/>
+      <c r="G18" s="128"/>
       <c r="H18" s="51"/>
       <c r="I18" s="74"/>
       <c r="J18" s="74"/>
@@ -4829,13 +4829,13 @@
       <c r="BO18" s="82"/>
     </row>
     <row r="19" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A19" s="176"/>
+      <c r="A19" s="146"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="181"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="180"/>
       <c r="E19" s="109"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="137"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="129"/>
       <c r="H19" s="51"/>
       <c r="I19" s="74"/>
       <c r="J19" s="74"/>
@@ -4898,19 +4898,19 @@
       <c r="BO19" s="82"/>
     </row>
     <row r="20" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A20" s="176"/>
+      <c r="A20" s="146"/>
       <c r="B20" s="36"/>
-      <c r="C20" s="185" t="s">
+      <c r="C20" s="184" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="186"/>
+      <c r="D20" s="185"/>
       <c r="E20" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="134" t="s">
+      <c r="F20" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="136"/>
+      <c r="G20" s="128"/>
       <c r="H20" s="51"/>
       <c r="I20" s="74"/>
       <c r="J20" s="74"/>
@@ -4973,13 +4973,13 @@
       <c r="BO20" s="82"/>
     </row>
     <row r="21" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A21" s="176"/>
+      <c r="A21" s="146"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="178"/>
-      <c r="D21" s="179"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="178"/>
       <c r="E21" s="109"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="137"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="129"/>
       <c r="H21" s="51"/>
       <c r="I21" s="74"/>
       <c r="J21" s="74"/>
@@ -5042,17 +5042,17 @@
       <c r="BO21" s="82"/>
     </row>
     <row r="22" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A22" s="176"/>
+      <c r="A22" s="146"/>
       <c r="B22" s="36"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="179"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="178"/>
       <c r="E22" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="134" t="s">
+      <c r="F22" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="136"/>
+      <c r="G22" s="128"/>
       <c r="H22" s="51"/>
       <c r="I22" s="74"/>
       <c r="J22" s="74"/>
@@ -5117,13 +5117,13 @@
       <c r="BO22" s="82"/>
     </row>
     <row r="23" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A23" s="176"/>
+      <c r="A23" s="146"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="179"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="178"/>
       <c r="E23" s="109"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="137"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="129"/>
       <c r="H23" s="52"/>
       <c r="I23" s="75"/>
       <c r="J23" s="75"/>
@@ -5186,17 +5186,17 @@
       <c r="BO23" s="83"/>
     </row>
     <row r="24" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A24" s="176"/>
+      <c r="A24" s="146"/>
       <c r="B24" s="36"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="179"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="178"/>
       <c r="E24" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="134" t="s">
+      <c r="F24" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="136"/>
+      <c r="G24" s="128"/>
       <c r="H24" s="52"/>
       <c r="I24" s="75"/>
       <c r="J24" s="75"/>
@@ -5261,13 +5261,13 @@
       <c r="BO24" s="83"/>
     </row>
     <row r="25" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A25" s="177"/>
+      <c r="A25" s="166"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="187"/>
-      <c r="D25" s="188"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="187"/>
       <c r="E25" s="115"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="137"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="129"/>
       <c r="H25" s="54"/>
       <c r="I25" s="77"/>
       <c r="J25" s="77"/>
@@ -5330,21 +5330,21 @@
       <c r="BO25" s="111"/>
     </row>
     <row r="26" spans="1:67" ht="12" customHeight="1">
-      <c r="A26" s="176">
+      <c r="A26" s="146">
         <v>4</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="178" t="s">
+      <c r="C26" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="179"/>
+      <c r="D26" s="178"/>
       <c r="E26" s="63"/>
-      <c r="F26" s="182" t="s">
+      <c r="F26" s="181" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="133"/>
+      <c r="G26" s="168"/>
       <c r="H26" s="50"/>
       <c r="I26" s="73"/>
       <c r="J26" s="73"/>
@@ -5407,13 +5407,13 @@
       <c r="BO26" s="81"/>
     </row>
     <row r="27" spans="1:67" ht="12" customHeight="1">
-      <c r="A27" s="177"/>
+      <c r="A27" s="166"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="180"/>
-      <c r="D27" s="181"/>
+      <c r="C27" s="179"/>
+      <c r="D27" s="180"/>
       <c r="E27" s="65"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="129"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="165"/>
       <c r="H27" s="50"/>
       <c r="I27" s="73"/>
       <c r="J27" s="73"/>
@@ -5476,21 +5476,21 @@
       <c r="BO27" s="81"/>
     </row>
     <row r="28" spans="1:67" ht="12" customHeight="1">
-      <c r="A28" s="175">
+      <c r="A28" s="145">
         <v>5</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="158" t="s">
+      <c r="C28" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="159"/>
+      <c r="D28" s="157"/>
       <c r="E28" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="134" t="s">
+      <c r="F28" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="136"/>
+      <c r="G28" s="128"/>
       <c r="H28" s="51"/>
       <c r="I28" s="74"/>
       <c r="J28" s="74"/>
@@ -5555,13 +5555,13 @@
       <c r="BO28" s="82"/>
     </row>
     <row r="29" spans="1:67" ht="12" customHeight="1">
-      <c r="A29" s="176"/>
+      <c r="A29" s="146"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="191"/>
-      <c r="D29" s="192"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="176"/>
       <c r="E29" s="109"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="137"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="129"/>
       <c r="H29" s="52"/>
       <c r="I29" s="75"/>
       <c r="J29" s="75"/>
@@ -5624,17 +5624,17 @@
       <c r="BO29" s="83"/>
     </row>
     <row r="30" spans="1:67" ht="12" customHeight="1">
-      <c r="A30" s="176"/>
+      <c r="A30" s="146"/>
       <c r="B30" s="36"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="192"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="176"/>
       <c r="E30" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="134" t="s">
+      <c r="F30" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="136"/>
+      <c r="G30" s="128"/>
       <c r="H30" s="52"/>
       <c r="I30" s="75"/>
       <c r="J30" s="75"/>
@@ -5699,13 +5699,13 @@
       <c r="BO30" s="83"/>
     </row>
     <row r="31" spans="1:67" ht="12" customHeight="1">
-      <c r="A31" s="176"/>
+      <c r="A31" s="146"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="191"/>
-      <c r="D31" s="192"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="176"/>
       <c r="E31" s="109"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="137"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="129"/>
       <c r="H31" s="52"/>
       <c r="I31" s="75"/>
       <c r="J31" s="75"/>
@@ -5724,13 +5724,13 @@
       <c r="W31" s="24"/>
       <c r="X31" s="24"/>
       <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
+      <c r="Z31" s="32"/>
       <c r="AA31" s="25"/>
       <c r="AB31" s="26"/>
       <c r="AC31" s="26"/>
-      <c r="AD31" s="24"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="117"/>
+      <c r="AD31" s="32"/>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="32"/>
       <c r="AG31" s="117"/>
       <c r="AH31" s="25"/>
       <c r="AI31" s="26"/>
@@ -5768,17 +5768,17 @@
       <c r="BO31" s="83"/>
     </row>
     <row r="32" spans="1:67" ht="12" customHeight="1">
-      <c r="A32" s="176"/>
+      <c r="A32" s="146"/>
       <c r="B32" s="36"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="192"/>
+      <c r="C32" s="175"/>
+      <c r="D32" s="176"/>
       <c r="E32" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="134" t="s">
+      <c r="F32" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="136"/>
+      <c r="G32" s="128"/>
       <c r="H32" s="52"/>
       <c r="I32" s="75"/>
       <c r="J32" s="75"/>
@@ -5843,13 +5843,13 @@
       <c r="BO32" s="83"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="176"/>
+      <c r="A33" s="146"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="192"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="176"/>
       <c r="E33" s="109"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="137"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="129"/>
       <c r="H33" s="52"/>
       <c r="I33" s="75"/>
       <c r="J33" s="75"/>
@@ -5868,13 +5868,13 @@
       <c r="W33" s="24"/>
       <c r="X33" s="24"/>
       <c r="Y33" s="24"/>
-      <c r="Z33" s="24"/>
+      <c r="Z33" s="32"/>
       <c r="AA33" s="25"/>
       <c r="AB33" s="26"/>
       <c r="AC33" s="26"/>
-      <c r="AD33" s="24"/>
-      <c r="AE33" s="24"/>
-      <c r="AF33" s="117"/>
+      <c r="AD33" s="32"/>
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="32"/>
       <c r="AG33" s="117"/>
       <c r="AH33" s="25"/>
       <c r="AI33" s="26"/>
@@ -5912,17 +5912,17 @@
       <c r="BO33" s="83"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="176"/>
+      <c r="A34" s="146"/>
       <c r="B34" s="36"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="192"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="176"/>
       <c r="E34" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="134" t="s">
+      <c r="F34" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="136"/>
+      <c r="G34" s="128"/>
       <c r="H34" s="52"/>
       <c r="I34" s="75"/>
       <c r="J34" s="75"/>
@@ -5987,13 +5987,13 @@
       <c r="BO34" s="83"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="176"/>
+      <c r="A35" s="146"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="192"/>
+      <c r="C35" s="175"/>
+      <c r="D35" s="176"/>
       <c r="E35" s="109"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="137"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="129"/>
       <c r="H35" s="52"/>
       <c r="I35" s="75"/>
       <c r="J35" s="75"/>
@@ -6012,13 +6012,13 @@
       <c r="W35" s="24"/>
       <c r="X35" s="24"/>
       <c r="Y35" s="24"/>
-      <c r="Z35" s="24"/>
+      <c r="Z35" s="32"/>
       <c r="AA35" s="25"/>
       <c r="AB35" s="26"/>
       <c r="AC35" s="26"/>
-      <c r="AD35" s="24"/>
-      <c r="AE35" s="24"/>
-      <c r="AF35" s="117"/>
+      <c r="AD35" s="32"/>
+      <c r="AE35" s="32"/>
+      <c r="AF35" s="32"/>
       <c r="AG35" s="117"/>
       <c r="AH35" s="25"/>
       <c r="AI35" s="26"/>
@@ -6056,17 +6056,17 @@
       <c r="BO35" s="83"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="176"/>
+      <c r="A36" s="146"/>
       <c r="B36" s="36"/>
-      <c r="C36" s="191"/>
-      <c r="D36" s="192"/>
+      <c r="C36" s="175"/>
+      <c r="D36" s="176"/>
       <c r="E36" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="134" t="s">
+      <c r="F36" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="136"/>
+      <c r="G36" s="128"/>
       <c r="H36" s="52"/>
       <c r="I36" s="75"/>
       <c r="J36" s="75"/>
@@ -6131,13 +6131,13 @@
       <c r="BO36" s="83"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="176"/>
+      <c r="A37" s="146"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="191"/>
-      <c r="D37" s="192"/>
+      <c r="C37" s="175"/>
+      <c r="D37" s="176"/>
       <c r="E37" s="109"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="137"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="129"/>
       <c r="H37" s="52"/>
       <c r="I37" s="75"/>
       <c r="J37" s="75"/>
@@ -6156,13 +6156,13 @@
       <c r="W37" s="24"/>
       <c r="X37" s="24"/>
       <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
+      <c r="Z37" s="32"/>
       <c r="AA37" s="25"/>
       <c r="AB37" s="26"/>
       <c r="AC37" s="26"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="117"/>
+      <c r="AD37" s="32"/>
+      <c r="AE37" s="32"/>
+      <c r="AF37" s="32"/>
       <c r="AG37" s="117"/>
       <c r="AH37" s="25"/>
       <c r="AI37" s="26"/>
@@ -6200,17 +6200,17 @@
       <c r="BO37" s="83"/>
     </row>
     <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="176"/>
+      <c r="A38" s="146"/>
       <c r="B38" s="36"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="192"/>
+      <c r="C38" s="175"/>
+      <c r="D38" s="176"/>
       <c r="E38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="134" t="s">
+      <c r="F38" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="136"/>
+      <c r="G38" s="128"/>
       <c r="H38" s="52"/>
       <c r="I38" s="75"/>
       <c r="J38" s="75"/>
@@ -6275,13 +6275,13 @@
       <c r="BO38" s="83"/>
     </row>
     <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="176"/>
+      <c r="A39" s="146"/>
       <c r="B39" s="36"/>
-      <c r="C39" s="191"/>
-      <c r="D39" s="192"/>
+      <c r="C39" s="175"/>
+      <c r="D39" s="176"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="135"/>
-      <c r="G39" s="137"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="129"/>
       <c r="H39" s="52"/>
       <c r="I39" s="75"/>
       <c r="J39" s="75"/>
@@ -6300,13 +6300,13 @@
       <c r="W39" s="24"/>
       <c r="X39" s="24"/>
       <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
+      <c r="Z39" s="32"/>
       <c r="AA39" s="25"/>
       <c r="AB39" s="26"/>
       <c r="AC39" s="26"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
+      <c r="AD39" s="32"/>
+      <c r="AE39" s="32"/>
+      <c r="AF39" s="32"/>
       <c r="AG39" s="24"/>
       <c r="AH39" s="25"/>
       <c r="AI39" s="26"/>
@@ -6344,21 +6344,21 @@
       <c r="BO39" s="83"/>
     </row>
     <row r="40" spans="1:67" ht="12" customHeight="1">
-      <c r="A40" s="193">
+      <c r="A40" s="169">
         <v>6</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="194" t="s">
+      <c r="C40" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="195"/>
+      <c r="D40" s="138"/>
       <c r="E40" s="69"/>
-      <c r="F40" s="196" t="s">
+      <c r="F40" s="167" t="s">
         <v>66</v>
       </c>
-      <c r="G40" s="133"/>
+      <c r="G40" s="168"/>
       <c r="H40" s="38"/>
       <c r="I40" s="76"/>
       <c r="J40" s="76"/>
@@ -6421,13 +6421,13 @@
       <c r="BO40" s="84"/>
     </row>
     <row r="41" spans="1:67" ht="12" customHeight="1">
-      <c r="A41" s="193"/>
+      <c r="A41" s="169"/>
       <c r="B41" s="36"/>
-      <c r="C41" s="169"/>
-      <c r="D41" s="170"/>
+      <c r="C41" s="158"/>
+      <c r="D41" s="159"/>
       <c r="E41" s="62"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="129"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="165"/>
       <c r="H41" s="52"/>
       <c r="I41" s="75"/>
       <c r="J41" s="75"/>
@@ -6490,19 +6490,19 @@
       <c r="BO41" s="83"/>
     </row>
     <row r="42" spans="1:67" ht="12" customHeight="1">
-      <c r="A42" s="193">
+      <c r="A42" s="169">
         <v>7</v>
       </c>
       <c r="B42" s="36"/>
-      <c r="C42" s="158" t="s">
+      <c r="C42" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="159"/>
+      <c r="D42" s="157"/>
       <c r="E42" s="66"/>
-      <c r="F42" s="197" t="s">
+      <c r="F42" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="128"/>
+      <c r="G42" s="164"/>
       <c r="H42" s="51"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -6567,13 +6567,13 @@
       <c r="BO42" s="82"/>
     </row>
     <row r="43" spans="1:67" ht="12" customHeight="1">
-      <c r="A43" s="193"/>
+      <c r="A43" s="169"/>
       <c r="B43" s="36"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="170"/>
+      <c r="C43" s="158"/>
+      <c r="D43" s="159"/>
       <c r="E43" s="62"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="129"/>
+      <c r="F43" s="131"/>
+      <c r="G43" s="165"/>
       <c r="H43" s="52"/>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
@@ -6636,19 +6636,19 @@
       <c r="BO43" s="83"/>
     </row>
     <row r="44" spans="1:67" ht="12" customHeight="1">
-      <c r="A44" s="193">
+      <c r="A44" s="169">
         <v>8</v>
       </c>
       <c r="B44" s="36"/>
-      <c r="C44" s="158" t="s">
+      <c r="C44" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="159"/>
+      <c r="D44" s="157"/>
       <c r="E44" s="66"/>
-      <c r="F44" s="197" t="s">
+      <c r="F44" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="128"/>
+      <c r="G44" s="164"/>
       <c r="H44" s="52"/>
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
@@ -6713,13 +6713,13 @@
       <c r="BO44" s="85"/>
     </row>
     <row r="45" spans="1:67" ht="12" customHeight="1">
-      <c r="A45" s="193"/>
+      <c r="A45" s="169"/>
       <c r="B45" s="37"/>
-      <c r="C45" s="160"/>
-      <c r="D45" s="161"/>
+      <c r="C45" s="171"/>
+      <c r="D45" s="172"/>
       <c r="E45" s="67"/>
-      <c r="F45" s="198"/>
-      <c r="G45" s="199"/>
+      <c r="F45" s="173"/>
+      <c r="G45" s="174"/>
       <c r="H45" s="54"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -6782,21 +6782,21 @@
       <c r="BO45" s="86"/>
     </row>
     <row r="46" spans="1:67" ht="12" customHeight="1">
-      <c r="A46" s="175">
+      <c r="A46" s="145">
         <v>9</v>
       </c>
       <c r="B46" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="194" t="s">
+      <c r="C46" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="195"/>
+      <c r="D46" s="138"/>
       <c r="E46" s="69"/>
-      <c r="F46" s="196" t="s">
+      <c r="F46" s="167" t="s">
         <v>66</v>
       </c>
-      <c r="G46" s="133"/>
+      <c r="G46" s="168"/>
       <c r="H46" s="38"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -6859,15 +6859,15 @@
       <c r="BO46" s="87"/>
     </row>
     <row r="47" spans="1:67" ht="12" customHeight="1">
-      <c r="A47" s="177"/>
+      <c r="A47" s="166"/>
       <c r="B47" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="169"/>
-      <c r="D47" s="170"/>
+      <c r="C47" s="158"/>
+      <c r="D47" s="159"/>
       <c r="E47" s="62"/>
-      <c r="F47" s="135"/>
-      <c r="G47" s="129"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="165"/>
       <c r="H47" s="51"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -6930,19 +6930,19 @@
       <c r="BO47" s="88"/>
     </row>
     <row r="48" spans="1:67" ht="12" customHeight="1">
-      <c r="A48" s="175">
+      <c r="A48" s="145">
         <v>10</v>
       </c>
       <c r="B48" s="36"/>
-      <c r="C48" s="200" t="s">
+      <c r="C48" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="159"/>
+      <c r="D48" s="157"/>
       <c r="E48" s="66"/>
-      <c r="F48" s="197" t="s">
+      <c r="F48" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="128"/>
+      <c r="G48" s="164"/>
       <c r="H48" s="51"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -7007,13 +7007,13 @@
       <c r="BO48" s="88"/>
     </row>
     <row r="49" spans="1:67" ht="12" customHeight="1">
-      <c r="A49" s="177"/>
+      <c r="A49" s="166"/>
       <c r="B49" s="36"/>
-      <c r="C49" s="169"/>
-      <c r="D49" s="170"/>
+      <c r="C49" s="158"/>
+      <c r="D49" s="159"/>
       <c r="E49" s="62"/>
-      <c r="F49" s="135"/>
-      <c r="G49" s="129"/>
+      <c r="F49" s="131"/>
+      <c r="G49" s="165"/>
       <c r="H49" s="51"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -7076,19 +7076,19 @@
       <c r="BO49" s="88"/>
     </row>
     <row r="50" spans="1:67" ht="12" customHeight="1">
-      <c r="A50" s="175">
+      <c r="A50" s="145">
         <v>11</v>
       </c>
       <c r="B50" s="36"/>
-      <c r="C50" s="200" t="s">
+      <c r="C50" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="159"/>
+      <c r="D50" s="157"/>
       <c r="E50" s="102"/>
-      <c r="F50" s="197" t="s">
+      <c r="F50" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="G50" s="128"/>
+      <c r="G50" s="164"/>
       <c r="H50" s="52"/>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
@@ -7153,13 +7153,13 @@
       <c r="BO50" s="85"/>
     </row>
     <row r="51" spans="1:67" ht="12" customHeight="1">
-      <c r="A51" s="176"/>
+      <c r="A51" s="146"/>
       <c r="B51" s="36"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="170"/>
+      <c r="C51" s="158"/>
+      <c r="D51" s="159"/>
       <c r="E51" s="103"/>
-      <c r="F51" s="135"/>
-      <c r="G51" s="129"/>
+      <c r="F51" s="131"/>
+      <c r="G51" s="165"/>
       <c r="H51" s="52"/>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
@@ -7222,17 +7222,17 @@
       <c r="BO51" s="85"/>
     </row>
     <row r="52" spans="1:67" ht="12" customHeight="1">
-      <c r="A52" s="176"/>
+      <c r="A52" s="146"/>
       <c r="B52" s="36"/>
-      <c r="C52" s="200" t="s">
+      <c r="C52" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="209"/>
+      <c r="D52" s="160"/>
       <c r="E52" s="104"/>
-      <c r="F52" s="197" t="s">
+      <c r="F52" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="G52" s="128"/>
+      <c r="G52" s="164"/>
       <c r="H52" s="52"/>
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
@@ -7295,13 +7295,13 @@
       <c r="BO52" s="85"/>
     </row>
     <row r="53" spans="1:67" ht="12" customHeight="1">
-      <c r="A53" s="176"/>
+      <c r="A53" s="146"/>
       <c r="B53" s="36"/>
-      <c r="C53" s="210"/>
-      <c r="D53" s="211"/>
+      <c r="C53" s="161"/>
+      <c r="D53" s="162"/>
       <c r="E53" s="104"/>
-      <c r="F53" s="135"/>
-      <c r="G53" s="129"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="165"/>
       <c r="H53" s="52"/>
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
@@ -7364,17 +7364,17 @@
       <c r="BO53" s="85"/>
     </row>
     <row r="54" spans="1:67" ht="12" customHeight="1">
-      <c r="A54" s="176"/>
+      <c r="A54" s="146"/>
       <c r="B54" s="36"/>
-      <c r="C54" s="200" t="s">
+      <c r="C54" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="159"/>
+      <c r="D54" s="157"/>
       <c r="E54" s="102"/>
-      <c r="F54" s="197" t="s">
+      <c r="F54" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="G54" s="128"/>
+      <c r="G54" s="164"/>
       <c r="H54" s="52"/>
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
@@ -7437,13 +7437,13 @@
       <c r="BO54" s="85"/>
     </row>
     <row r="55" spans="1:67" ht="12" customHeight="1">
-      <c r="A55" s="176"/>
+      <c r="A55" s="146"/>
       <c r="B55" s="36"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="170"/>
+      <c r="C55" s="158"/>
+      <c r="D55" s="159"/>
       <c r="E55" s="103"/>
-      <c r="F55" s="135"/>
-      <c r="G55" s="129"/>
+      <c r="F55" s="131"/>
+      <c r="G55" s="165"/>
       <c r="H55" s="52"/>
       <c r="I55" s="24"/>
       <c r="J55" s="24"/>
@@ -7506,17 +7506,17 @@
       <c r="BO55" s="85"/>
     </row>
     <row r="56" spans="1:67" ht="12" customHeight="1">
-      <c r="A56" s="176"/>
+      <c r="A56" s="146"/>
       <c r="B56" s="36"/>
-      <c r="C56" s="200" t="s">
+      <c r="C56" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="159"/>
+      <c r="D56" s="157"/>
       <c r="E56" s="104"/>
-      <c r="F56" s="197" t="s">
+      <c r="F56" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="G56" s="128"/>
+      <c r="G56" s="164"/>
       <c r="H56" s="52"/>
       <c r="I56" s="24"/>
       <c r="J56" s="24"/>
@@ -7581,13 +7581,13 @@
       <c r="BO56" s="85"/>
     </row>
     <row r="57" spans="1:67" ht="12" customHeight="1">
-      <c r="A57" s="176"/>
+      <c r="A57" s="146"/>
       <c r="B57" s="36"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="170"/>
+      <c r="C57" s="158"/>
+      <c r="D57" s="159"/>
       <c r="E57" s="104"/>
-      <c r="F57" s="135"/>
-      <c r="G57" s="129"/>
+      <c r="F57" s="131"/>
+      <c r="G57" s="165"/>
       <c r="H57" s="52"/>
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
@@ -7650,21 +7650,21 @@
       <c r="BO57" s="85"/>
     </row>
     <row r="58" spans="1:67" ht="12" customHeight="1">
-      <c r="A58" s="156">
+      <c r="A58" s="133">
         <v>12</v>
       </c>
       <c r="B58" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="201" t="s">
+      <c r="C58" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="D58" s="202"/>
+      <c r="D58" s="149"/>
       <c r="E58" s="105"/>
-      <c r="F58" s="205" t="s">
+      <c r="F58" s="152" t="s">
         <v>66</v>
       </c>
-      <c r="G58" s="207"/>
+      <c r="G58" s="154"/>
       <c r="H58" s="38"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
@@ -7731,13 +7731,13 @@
       <c r="BO58" s="87"/>
     </row>
     <row r="59" spans="1:67" ht="12" customHeight="1">
-      <c r="A59" s="157"/>
+      <c r="A59" s="147"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="203"/>
-      <c r="D59" s="204"/>
+      <c r="C59" s="150"/>
+      <c r="D59" s="151"/>
       <c r="E59" s="115"/>
-      <c r="F59" s="206"/>
-      <c r="G59" s="208"/>
+      <c r="F59" s="153"/>
+      <c r="G59" s="155"/>
       <c r="H59" s="51"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -7800,21 +7800,21 @@
       <c r="BO59" s="88"/>
     </row>
     <row r="60" spans="1:67" ht="12" customHeight="1">
-      <c r="A60" s="156">
+      <c r="A60" s="133">
         <v>14</v>
       </c>
-      <c r="B60" s="213" t="s">
+      <c r="B60" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="194" t="s">
+      <c r="C60" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="195"/>
+      <c r="D60" s="138"/>
       <c r="E60" s="69"/>
-      <c r="F60" s="217" t="s">
+      <c r="F60" s="141" t="s">
         <v>66</v>
       </c>
-      <c r="G60" s="219"/>
+      <c r="G60" s="143"/>
       <c r="H60" s="38"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
@@ -7879,13 +7879,13 @@
       <c r="BO60" s="87"/>
     </row>
     <row r="61" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A61" s="212"/>
-      <c r="B61" s="214"/>
-      <c r="C61" s="215"/>
-      <c r="D61" s="216"/>
+      <c r="A61" s="134"/>
+      <c r="B61" s="136"/>
+      <c r="C61" s="139"/>
+      <c r="D61" s="140"/>
       <c r="E61" s="71"/>
-      <c r="F61" s="218"/>
-      <c r="G61" s="220"/>
+      <c r="F61" s="142"/>
+      <c r="G61" s="144"/>
       <c r="H61" s="39"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
@@ -7965,20 +7965,74 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H1:AK1"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="AL1:BO1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A8:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="C8:D16"/>
+    <mergeCell ref="C20:D25"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="C28:D39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
     <mergeCell ref="A50:A57"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="C58:D59"/>
@@ -7995,74 +8049,20 @@
     <mergeCell ref="F52:F53"/>
     <mergeCell ref="F56:F57"/>
     <mergeCell ref="G52:G53"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="C28:D39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A8:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="C8:D16"/>
-    <mergeCell ref="C20:D25"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="AL1:BO1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H1:AK1"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G32:G33"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -8106,54 +8106,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="203" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="144" t="s">
+      <c r="C1" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="150" t="s">
+      <c r="D1" s="210"/>
+      <c r="E1" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="153" t="s">
+      <c r="F1" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="130"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="132"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="201"/>
+      <c r="T1" s="201"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="201"/>
+      <c r="W1" s="201"/>
+      <c r="X1" s="201"/>
+      <c r="Y1" s="201"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="201"/>
+      <c r="AB1" s="201"/>
+      <c r="AC1" s="201"/>
+      <c r="AD1" s="202"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="139"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="154"/>
+      <c r="A2" s="204"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="219"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -8228,12 +8228,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="140"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="155"/>
+      <c r="A3" s="205"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="220"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -8308,20 +8308,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="166">
+      <c r="A4" s="193">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="168"/>
-      <c r="E4" s="235" t="s">
+      <c r="D4" s="195"/>
+      <c r="E4" s="226" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="173"/>
+      <c r="F4" s="198"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -8344,20 +8344,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="237" t="s">
+      <c r="AC4" s="228" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="230" t="s">
+      <c r="AD4" s="221" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="157"/>
+      <c r="A5" s="147"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="174"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="227"/>
+      <c r="F5" s="199"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -8380,22 +8380,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="238"/>
-      <c r="AD5" s="231"/>
+      <c r="AC5" s="229"/>
+      <c r="AD5" s="222"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="156">
+      <c r="A6" s="133">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="158" t="s">
+      <c r="C6" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="159"/>
-      <c r="E6" s="233" t="s">
+      <c r="D6" s="157"/>
+      <c r="E6" s="224" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="164"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -8418,16 +8418,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="238"/>
-      <c r="AD6" s="231"/>
+      <c r="AC6" s="229"/>
+      <c r="AD6" s="222"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="157"/>
+      <c r="A7" s="147"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="234"/>
-      <c r="F7" s="165"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="192"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -8450,24 +8450,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="238"/>
-      <c r="AD7" s="231"/>
+      <c r="AC7" s="229"/>
+      <c r="AD7" s="222"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="175">
+      <c r="A8" s="145">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="183" t="s">
+      <c r="C8" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="184"/>
-      <c r="E8" s="240" t="s">
+      <c r="D8" s="183"/>
+      <c r="E8" s="231" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="133"/>
+      <c r="F8" s="168"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -8490,16 +8490,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="238"/>
-      <c r="AD8" s="231"/>
+      <c r="AC8" s="229"/>
+      <c r="AD8" s="222"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="177"/>
+      <c r="A9" s="166"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="188"/>
-      <c r="E9" s="225"/>
-      <c r="F9" s="199"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="232"/>
+      <c r="F9" s="174"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -8522,24 +8522,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="238"/>
-      <c r="AD9" s="231"/>
+      <c r="AC9" s="229"/>
+      <c r="AD9" s="222"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="176">
+      <c r="A10" s="146">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="178" t="s">
+      <c r="C10" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="179"/>
-      <c r="E10" s="227" t="s">
+      <c r="D10" s="178"/>
+      <c r="E10" s="233" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="228"/>
+      <c r="F10" s="235"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -8562,16 +8562,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="238"/>
-      <c r="AD10" s="231"/>
+      <c r="AC10" s="229"/>
+      <c r="AD10" s="222"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="177"/>
+      <c r="A11" s="166"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="224"/>
-      <c r="F11" s="129"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="165"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -8594,22 +8594,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="238"/>
-      <c r="AD11" s="231"/>
+      <c r="AC11" s="229"/>
+      <c r="AD11" s="222"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="175">
+      <c r="A12" s="145">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="159"/>
-      <c r="E12" s="229" t="s">
+      <c r="D12" s="157"/>
+      <c r="E12" s="236" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="128"/>
+      <c r="F12" s="164"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -8632,16 +8632,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="238"/>
-      <c r="AD12" s="231"/>
+      <c r="AC12" s="229"/>
+      <c r="AD12" s="222"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="176"/>
+      <c r="A13" s="146"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="191"/>
-      <c r="D13" s="192"/>
-      <c r="E13" s="227"/>
-      <c r="F13" s="228"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="233"/>
+      <c r="F13" s="235"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -8664,24 +8664,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="238"/>
-      <c r="AD13" s="231"/>
+      <c r="AC13" s="229"/>
+      <c r="AD13" s="222"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="193">
+      <c r="A14" s="169">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="194" t="s">
+      <c r="C14" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="195"/>
-      <c r="E14" s="226" t="s">
+      <c r="D14" s="138"/>
+      <c r="E14" s="237" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="133"/>
+      <c r="F14" s="168"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -8704,16 +8704,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="238"/>
-      <c r="AD14" s="231"/>
+      <c r="AC14" s="229"/>
+      <c r="AD14" s="222"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="193"/>
+      <c r="A15" s="169"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="224"/>
-      <c r="F15" s="129"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="234"/>
+      <c r="F15" s="165"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -8736,22 +8736,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="238"/>
-      <c r="AD15" s="231"/>
+      <c r="AC15" s="229"/>
+      <c r="AD15" s="222"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="193">
+      <c r="A16" s="169">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="158" t="s">
+      <c r="C16" s="170" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="159"/>
-      <c r="E16" s="223" t="s">
+      <c r="D16" s="157"/>
+      <c r="E16" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="128"/>
+      <c r="F16" s="164"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -8774,16 +8774,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="238"/>
-      <c r="AD16" s="231"/>
+      <c r="AC16" s="229"/>
+      <c r="AD16" s="222"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="193"/>
+      <c r="A17" s="169"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="224"/>
-      <c r="F17" s="129"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="234"/>
+      <c r="F17" s="165"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -8806,22 +8806,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="238"/>
-      <c r="AD17" s="231"/>
+      <c r="AC17" s="229"/>
+      <c r="AD17" s="222"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="193">
+      <c r="A18" s="169">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="158" t="s">
+      <c r="C18" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="159"/>
-      <c r="E18" s="223" t="s">
+      <c r="D18" s="157"/>
+      <c r="E18" s="238" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="128"/>
+      <c r="F18" s="164"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -8844,16 +8844,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="238"/>
-      <c r="AD18" s="231"/>
+      <c r="AC18" s="229"/>
+      <c r="AD18" s="222"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="193"/>
+      <c r="A19" s="169"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="225"/>
-      <c r="F19" s="199"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="232"/>
+      <c r="F19" s="174"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -8876,24 +8876,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="238"/>
-      <c r="AD19" s="231"/>
+      <c r="AC19" s="229"/>
+      <c r="AD19" s="222"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="175">
+      <c r="A20" s="145">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="194" t="s">
+      <c r="C20" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="195"/>
-      <c r="E20" s="226" t="s">
+      <c r="D20" s="138"/>
+      <c r="E20" s="237" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="133"/>
+      <c r="F20" s="168"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -8916,18 +8916,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="238"/>
-      <c r="AD20" s="231"/>
+      <c r="AC20" s="229"/>
+      <c r="AD20" s="222"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="177"/>
+      <c r="A21" s="166"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="169"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="224"/>
-      <c r="F21" s="129"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="234"/>
+      <c r="F21" s="165"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -8950,22 +8950,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="238"/>
-      <c r="AD21" s="231"/>
+      <c r="AC21" s="229"/>
+      <c r="AD21" s="222"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="175">
+      <c r="A22" s="145">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="200" t="s">
+      <c r="C22" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="159"/>
-      <c r="E22" s="223" t="s">
+      <c r="D22" s="157"/>
+      <c r="E22" s="238" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="128"/>
+      <c r="F22" s="164"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -8988,16 +8988,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="238"/>
-      <c r="AD22" s="231"/>
+      <c r="AC22" s="229"/>
+      <c r="AD22" s="222"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="177"/>
+      <c r="A23" s="166"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="224"/>
-      <c r="F23" s="129"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="234"/>
+      <c r="F23" s="165"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -9020,22 +9020,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="238"/>
-      <c r="AD23" s="231"/>
+      <c r="AC23" s="229"/>
+      <c r="AD23" s="222"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="175">
+      <c r="A24" s="145">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="200" t="s">
+      <c r="C24" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="159"/>
-      <c r="E24" s="223" t="s">
+      <c r="D24" s="157"/>
+      <c r="E24" s="238" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="128"/>
+      <c r="F24" s="164"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -9058,16 +9058,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="238"/>
-      <c r="AD24" s="231"/>
+      <c r="AC24" s="229"/>
+      <c r="AD24" s="222"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="177"/>
+      <c r="A25" s="166"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="224"/>
-      <c r="F25" s="199"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="234"/>
+      <c r="F25" s="174"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -9090,24 +9090,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="238"/>
-      <c r="AD25" s="231"/>
+      <c r="AC25" s="229"/>
+      <c r="AD25" s="222"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="156">
+      <c r="A26" s="133">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="201" t="s">
+      <c r="C26" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="202"/>
-      <c r="E26" s="221" t="s">
+      <c r="D26" s="149"/>
+      <c r="E26" s="239" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="207"/>
+      <c r="F26" s="154"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -9130,16 +9130,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="238"/>
-      <c r="AD26" s="231"/>
+      <c r="AC26" s="229"/>
+      <c r="AD26" s="222"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="157"/>
+      <c r="A27" s="147"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="203"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="222"/>
-      <c r="F27" s="208"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="240"/>
+      <c r="F27" s="155"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -9162,24 +9162,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="238"/>
-      <c r="AD27" s="231"/>
+      <c r="AC27" s="229"/>
+      <c r="AD27" s="222"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="156">
+      <c r="A28" s="133">
         <v>14</v>
       </c>
-      <c r="B28" s="213" t="s">
+      <c r="B28" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="194" t="s">
+      <c r="C28" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="195"/>
-      <c r="E28" s="213" t="s">
+      <c r="D28" s="138"/>
+      <c r="E28" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="219"/>
+      <c r="F28" s="143"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -9202,16 +9202,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="238"/>
-      <c r="AD28" s="231"/>
+      <c r="AC28" s="229"/>
+      <c r="AD28" s="222"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="212"/>
-      <c r="B29" s="214"/>
-      <c r="C29" s="215"/>
-      <c r="D29" s="216"/>
-      <c r="E29" s="214"/>
-      <c r="F29" s="220"/>
+      <c r="A29" s="134"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="144"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -9234,8 +9234,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="239"/>
-      <c r="AD29" s="232"/>
+      <c r="AC29" s="230"/>
+      <c r="AD29" s="223"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -9255,12 +9255,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -9277,45 +9310,12 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/000-要件定義/003-WBS.xlsx
+++ b/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197A1077-F9F4-41E2-801D-10FF6978880B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043F3BA0-678D-456F-A460-79C1D4598E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1774,7 +1774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2152,22 +2152,256 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2178,12 +2412,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2202,233 +2430,32 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -2463,32 +2490,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3198,7 +3204,7 @@
       <pane xSplit="7" ySplit="7" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AG39" sqref="AG39"/>
+      <selection pane="bottomRight" activeCell="AJ45" sqref="AJ45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3216,98 +3222,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="206" t="s">
+      <c r="B1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="209" t="s">
+      <c r="C1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="210"/>
-      <c r="E1" s="215" t="s">
+      <c r="D1" s="145"/>
+      <c r="E1" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="215" t="s">
+      <c r="F1" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="218" t="s">
+      <c r="G1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="200">
+      <c r="H1" s="130">
         <v>45536</v>
       </c>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="201"/>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="201"/>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201"/>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="201"/>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="201"/>
-      <c r="AD1" s="201"/>
-      <c r="AE1" s="201"/>
-      <c r="AF1" s="201"/>
-      <c r="AG1" s="201"/>
-      <c r="AH1" s="201"/>
-      <c r="AI1" s="201"/>
-      <c r="AJ1" s="201"/>
-      <c r="AK1" s="202"/>
-      <c r="AL1" s="200">
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="131"/>
+      <c r="AJ1" s="131"/>
+      <c r="AK1" s="132"/>
+      <c r="AL1" s="130">
         <v>45566</v>
       </c>
-      <c r="AM1" s="201"/>
-      <c r="AN1" s="201"/>
-      <c r="AO1" s="201"/>
-      <c r="AP1" s="201"/>
-      <c r="AQ1" s="201"/>
-      <c r="AR1" s="201"/>
-      <c r="AS1" s="201"/>
-      <c r="AT1" s="201"/>
-      <c r="AU1" s="201"/>
-      <c r="AV1" s="201"/>
-      <c r="AW1" s="201"/>
-      <c r="AX1" s="201"/>
-      <c r="AY1" s="201"/>
-      <c r="AZ1" s="201"/>
-      <c r="BA1" s="201"/>
-      <c r="BB1" s="201"/>
-      <c r="BC1" s="201"/>
-      <c r="BD1" s="201"/>
-      <c r="BE1" s="201"/>
-      <c r="BF1" s="201"/>
-      <c r="BG1" s="201"/>
-      <c r="BH1" s="201"/>
-      <c r="BI1" s="201"/>
-      <c r="BJ1" s="201"/>
-      <c r="BK1" s="201"/>
-      <c r="BL1" s="201"/>
-      <c r="BM1" s="201"/>
-      <c r="BN1" s="201"/>
-      <c r="BO1" s="202"/>
+      <c r="AM1" s="131"/>
+      <c r="AN1" s="131"/>
+      <c r="AO1" s="131"/>
+      <c r="AP1" s="131"/>
+      <c r="AQ1" s="131"/>
+      <c r="AR1" s="131"/>
+      <c r="AS1" s="131"/>
+      <c r="AT1" s="131"/>
+      <c r="AU1" s="131"/>
+      <c r="AV1" s="131"/>
+      <c r="AW1" s="131"/>
+      <c r="AX1" s="131"/>
+      <c r="AY1" s="131"/>
+      <c r="AZ1" s="131"/>
+      <c r="BA1" s="131"/>
+      <c r="BB1" s="131"/>
+      <c r="BC1" s="131"/>
+      <c r="BD1" s="131"/>
+      <c r="BE1" s="131"/>
+      <c r="BF1" s="131"/>
+      <c r="BG1" s="131"/>
+      <c r="BH1" s="131"/>
+      <c r="BI1" s="131"/>
+      <c r="BJ1" s="131"/>
+      <c r="BK1" s="131"/>
+      <c r="BL1" s="131"/>
+      <c r="BM1" s="131"/>
+      <c r="BN1" s="131"/>
+      <c r="BO1" s="132"/>
     </row>
     <row r="2" spans="1:67" ht="10.5" customHeight="1">
-      <c r="A2" s="204"/>
-      <c r="B2" s="207"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="219"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="154"/>
       <c r="H2" s="46">
         <v>45537</v>
       </c>
@@ -3549,13 +3555,13 @@
       </c>
     </row>
     <row r="3" spans="1:67" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="205"/>
-      <c r="B3" s="208"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="220"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="155"/>
       <c r="H3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3738,21 +3744,21 @@
       </c>
     </row>
     <row r="4" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A4" s="193">
+      <c r="A4" s="166">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="194" t="s">
+      <c r="C4" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="195"/>
+      <c r="D4" s="168"/>
       <c r="E4" s="61"/>
-      <c r="F4" s="196" t="s">
+      <c r="F4" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="198"/>
+      <c r="G4" s="173"/>
       <c r="H4" s="49"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
@@ -3815,13 +3821,13 @@
       <c r="BO4" s="80"/>
     </row>
     <row r="5" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A5" s="147"/>
+      <c r="A5" s="157"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="159"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="170"/>
       <c r="E5" s="62"/>
-      <c r="F5" s="197"/>
-      <c r="G5" s="199"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="174"/>
       <c r="H5" s="50"/>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
@@ -3884,19 +3890,19 @@
       <c r="BO5" s="81"/>
     </row>
     <row r="6" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A6" s="133">
+      <c r="A6" s="156">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="170" t="s">
+      <c r="C6" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="157"/>
+      <c r="D6" s="159"/>
       <c r="E6" s="66"/>
-      <c r="F6" s="189" t="s">
+      <c r="F6" s="162" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="191"/>
+      <c r="G6" s="164"/>
       <c r="H6" s="51"/>
       <c r="I6" s="74"/>
       <c r="J6" s="30"/>
@@ -3959,13 +3965,13 @@
       <c r="BO6" s="82"/>
     </row>
     <row r="7" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A7" s="147"/>
+      <c r="A7" s="157"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="172"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="161"/>
       <c r="E7" s="67"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="192"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="165"/>
       <c r="H7" s="52"/>
       <c r="I7" s="75"/>
       <c r="J7" s="32"/>
@@ -4028,23 +4034,23 @@
       <c r="BO7" s="83"/>
     </row>
     <row r="8" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A8" s="145">
+      <c r="A8" s="175">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="183"/>
+      <c r="D8" s="184"/>
       <c r="E8" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="181" t="s">
+      <c r="F8" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="188"/>
+      <c r="G8" s="189"/>
       <c r="H8" s="38"/>
       <c r="I8" s="76"/>
       <c r="J8" s="76"/>
@@ -4109,13 +4115,13 @@
       <c r="BO8" s="84"/>
     </row>
     <row r="9" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A9" s="146"/>
+      <c r="A9" s="176"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="179"/>
       <c r="E9" s="62"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="132"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="190"/>
       <c r="H9" s="50"/>
       <c r="I9" s="73"/>
       <c r="J9" s="73"/>
@@ -4178,17 +4184,17 @@
       <c r="BO9" s="81"/>
     </row>
     <row r="10" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A10" s="146"/>
+      <c r="A10" s="176"/>
       <c r="B10" s="36"/>
-      <c r="C10" s="177"/>
-      <c r="D10" s="178"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="179"/>
       <c r="E10" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="130" t="s">
+      <c r="F10" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="128"/>
+      <c r="G10" s="136"/>
       <c r="H10" s="50"/>
       <c r="I10" s="73"/>
       <c r="J10" s="73"/>
@@ -4255,13 +4261,13 @@
       <c r="BO10" s="81"/>
     </row>
     <row r="11" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A11" s="146"/>
+      <c r="A11" s="176"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="178"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="179"/>
       <c r="E11" s="109"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="129"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="137"/>
       <c r="H11" s="50"/>
       <c r="I11" s="73"/>
       <c r="J11" s="73"/>
@@ -4324,17 +4330,17 @@
       <c r="BO11" s="81"/>
     </row>
     <row r="12" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A12" s="146"/>
+      <c r="A12" s="176"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="178"/>
+      <c r="C12" s="178"/>
+      <c r="D12" s="179"/>
       <c r="E12" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="130" t="s">
+      <c r="F12" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="128"/>
+      <c r="G12" s="136"/>
       <c r="H12" s="51"/>
       <c r="I12" s="74"/>
       <c r="J12" s="74"/>
@@ -4399,13 +4405,13 @@
       <c r="BO12" s="82"/>
     </row>
     <row r="13" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A13" s="146"/>
+      <c r="A13" s="176"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="178"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="109"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="132"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="190"/>
       <c r="H13" s="51"/>
       <c r="I13" s="74"/>
       <c r="J13" s="74"/>
@@ -4468,17 +4474,17 @@
       <c r="BO13" s="82"/>
     </row>
     <row r="14" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A14" s="146"/>
+      <c r="A14" s="176"/>
       <c r="B14" s="36"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="178"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="130" t="s">
+      <c r="F14" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="128"/>
+      <c r="G14" s="136"/>
       <c r="H14" s="51"/>
       <c r="I14" s="74"/>
       <c r="J14" s="74"/>
@@ -4541,13 +4547,13 @@
       <c r="BO14" s="82"/>
     </row>
     <row r="15" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A15" s="146"/>
+      <c r="A15" s="176"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="178"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="68"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="129"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="137"/>
       <c r="H15" s="51"/>
       <c r="I15" s="74"/>
       <c r="J15" s="74"/>
@@ -4610,17 +4616,17 @@
       <c r="BO15" s="82"/>
     </row>
     <row r="16" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A16" s="146"/>
+      <c r="A16" s="176"/>
       <c r="B16" s="36"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="178"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="179"/>
       <c r="E16" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="130" t="s">
+      <c r="F16" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="128"/>
+      <c r="G16" s="136"/>
       <c r="H16" s="51"/>
       <c r="I16" s="74"/>
       <c r="J16" s="74"/>
@@ -4685,13 +4691,13 @@
       <c r="BO16" s="82"/>
     </row>
     <row r="17" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A17" s="146"/>
+      <c r="A17" s="176"/>
       <c r="B17" s="36"/>
       <c r="C17" s="64"/>
       <c r="D17" s="65"/>
       <c r="E17" s="62"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="129"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="137"/>
       <c r="H17" s="51"/>
       <c r="I17" s="74"/>
       <c r="J17" s="74"/>
@@ -4754,17 +4760,17 @@
       <c r="BO17" s="82"/>
     </row>
     <row r="18" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A18" s="146"/>
+      <c r="A18" s="176"/>
       <c r="B18" s="36"/>
-      <c r="C18" s="184" t="s">
+      <c r="C18" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="185"/>
+      <c r="D18" s="186"/>
       <c r="E18" s="68"/>
-      <c r="F18" s="130" t="s">
+      <c r="F18" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="128"/>
+      <c r="G18" s="136"/>
       <c r="H18" s="51"/>
       <c r="I18" s="74"/>
       <c r="J18" s="74"/>
@@ -4829,13 +4835,13 @@
       <c r="BO18" s="82"/>
     </row>
     <row r="19" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A19" s="146"/>
+      <c r="A19" s="176"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="180"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="181"/>
       <c r="E19" s="109"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="129"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="137"/>
       <c r="H19" s="51"/>
       <c r="I19" s="74"/>
       <c r="J19" s="74"/>
@@ -4898,19 +4904,19 @@
       <c r="BO19" s="82"/>
     </row>
     <row r="20" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A20" s="146"/>
+      <c r="A20" s="176"/>
       <c r="B20" s="36"/>
-      <c r="C20" s="184" t="s">
+      <c r="C20" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="185"/>
+      <c r="D20" s="186"/>
       <c r="E20" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="130" t="s">
+      <c r="F20" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="128"/>
+      <c r="G20" s="136"/>
       <c r="H20" s="51"/>
       <c r="I20" s="74"/>
       <c r="J20" s="74"/>
@@ -4973,13 +4979,13 @@
       <c r="BO20" s="82"/>
     </row>
     <row r="21" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A21" s="146"/>
+      <c r="A21" s="176"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="178"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="179"/>
       <c r="E21" s="109"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="129"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="137"/>
       <c r="H21" s="51"/>
       <c r="I21" s="74"/>
       <c r="J21" s="74"/>
@@ -5042,17 +5048,17 @@
       <c r="BO21" s="82"/>
     </row>
     <row r="22" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A22" s="146"/>
+      <c r="A22" s="176"/>
       <c r="B22" s="36"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="178"/>
+      <c r="C22" s="178"/>
+      <c r="D22" s="179"/>
       <c r="E22" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="130" t="s">
+      <c r="F22" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="128"/>
+      <c r="G22" s="136"/>
       <c r="H22" s="51"/>
       <c r="I22" s="74"/>
       <c r="J22" s="74"/>
@@ -5117,13 +5123,13 @@
       <c r="BO22" s="82"/>
     </row>
     <row r="23" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A23" s="146"/>
+      <c r="A23" s="176"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="178"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="179"/>
       <c r="E23" s="109"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="129"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="137"/>
       <c r="H23" s="52"/>
       <c r="I23" s="75"/>
       <c r="J23" s="75"/>
@@ -5186,17 +5192,17 @@
       <c r="BO23" s="83"/>
     </row>
     <row r="24" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A24" s="146"/>
+      <c r="A24" s="176"/>
       <c r="B24" s="36"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="178"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="179"/>
       <c r="E24" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="130" t="s">
+      <c r="F24" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="128"/>
+      <c r="G24" s="136"/>
       <c r="H24" s="52"/>
       <c r="I24" s="75"/>
       <c r="J24" s="75"/>
@@ -5261,13 +5267,13 @@
       <c r="BO24" s="83"/>
     </row>
     <row r="25" spans="1:67" ht="13.5" customHeight="1">
-      <c r="A25" s="166"/>
+      <c r="A25" s="177"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="187"/>
+      <c r="C25" s="187"/>
+      <c r="D25" s="188"/>
       <c r="E25" s="115"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="129"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="137"/>
       <c r="H25" s="54"/>
       <c r="I25" s="77"/>
       <c r="J25" s="77"/>
@@ -5330,21 +5336,21 @@
       <c r="BO25" s="111"/>
     </row>
     <row r="26" spans="1:67" ht="12" customHeight="1">
-      <c r="A26" s="146">
+      <c r="A26" s="176">
         <v>4</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="177" t="s">
+      <c r="C26" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="178"/>
+      <c r="D26" s="179"/>
       <c r="E26" s="63"/>
-      <c r="F26" s="181" t="s">
+      <c r="F26" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="168"/>
+      <c r="G26" s="133"/>
       <c r="H26" s="50"/>
       <c r="I26" s="73"/>
       <c r="J26" s="73"/>
@@ -5407,13 +5413,13 @@
       <c r="BO26" s="81"/>
     </row>
     <row r="27" spans="1:67" ht="12" customHeight="1">
-      <c r="A27" s="166"/>
+      <c r="A27" s="177"/>
       <c r="B27" s="36"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="180"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="181"/>
       <c r="E27" s="65"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="165"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="129"/>
       <c r="H27" s="50"/>
       <c r="I27" s="73"/>
       <c r="J27" s="73"/>
@@ -5476,21 +5482,21 @@
       <c r="BO27" s="81"/>
     </row>
     <row r="28" spans="1:67" ht="12" customHeight="1">
-      <c r="A28" s="145">
+      <c r="A28" s="175">
         <v>5</v>
       </c>
       <c r="B28" s="36"/>
-      <c r="C28" s="170" t="s">
+      <c r="C28" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="157"/>
+      <c r="D28" s="159"/>
       <c r="E28" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="130" t="s">
+      <c r="F28" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="128"/>
+      <c r="G28" s="136"/>
       <c r="H28" s="51"/>
       <c r="I28" s="74"/>
       <c r="J28" s="74"/>
@@ -5555,13 +5561,13 @@
       <c r="BO28" s="82"/>
     </row>
     <row r="29" spans="1:67" ht="12" customHeight="1">
-      <c r="A29" s="146"/>
+      <c r="A29" s="176"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="176"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="192"/>
       <c r="E29" s="109"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="129"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="137"/>
       <c r="H29" s="52"/>
       <c r="I29" s="75"/>
       <c r="J29" s="75"/>
@@ -5624,17 +5630,17 @@
       <c r="BO29" s="83"/>
     </row>
     <row r="30" spans="1:67" ht="12" customHeight="1">
-      <c r="A30" s="146"/>
+      <c r="A30" s="176"/>
       <c r="B30" s="36"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="176"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="192"/>
       <c r="E30" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="130" t="s">
+      <c r="F30" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="128"/>
+      <c r="G30" s="136"/>
       <c r="H30" s="52"/>
       <c r="I30" s="75"/>
       <c r="J30" s="75"/>
@@ -5699,13 +5705,13 @@
       <c r="BO30" s="83"/>
     </row>
     <row r="31" spans="1:67" ht="12" customHeight="1">
-      <c r="A31" s="146"/>
+      <c r="A31" s="176"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="176"/>
+      <c r="C31" s="191"/>
+      <c r="D31" s="192"/>
       <c r="E31" s="109"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="129"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="137"/>
       <c r="H31" s="52"/>
       <c r="I31" s="75"/>
       <c r="J31" s="75"/>
@@ -5731,14 +5737,14 @@
       <c r="AD31" s="32"/>
       <c r="AE31" s="32"/>
       <c r="AF31" s="32"/>
-      <c r="AG31" s="117"/>
+      <c r="AG31" s="32"/>
       <c r="AH31" s="25"/>
       <c r="AI31" s="26"/>
-      <c r="AJ31" s="117"/>
-      <c r="AK31" s="120"/>
-      <c r="AL31" s="93"/>
-      <c r="AM31" s="24"/>
-      <c r="AN31" s="24"/>
+      <c r="AJ31" s="32"/>
+      <c r="AK31" s="241"/>
+      <c r="AL31" s="242"/>
+      <c r="AM31" s="32"/>
+      <c r="AN31" s="32"/>
       <c r="AO31" s="25"/>
       <c r="AP31" s="26"/>
       <c r="AQ31" s="24"/>
@@ -5768,17 +5774,17 @@
       <c r="BO31" s="83"/>
     </row>
     <row r="32" spans="1:67" ht="12" customHeight="1">
-      <c r="A32" s="146"/>
+      <c r="A32" s="176"/>
       <c r="B32" s="36"/>
-      <c r="C32" s="175"/>
-      <c r="D32" s="176"/>
+      <c r="C32" s="191"/>
+      <c r="D32" s="192"/>
       <c r="E32" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="130" t="s">
+      <c r="F32" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="128"/>
+      <c r="G32" s="136"/>
       <c r="H32" s="52"/>
       <c r="I32" s="75"/>
       <c r="J32" s="75"/>
@@ -5843,13 +5849,13 @@
       <c r="BO32" s="83"/>
     </row>
     <row r="33" spans="1:67" ht="12" customHeight="1">
-      <c r="A33" s="146"/>
+      <c r="A33" s="176"/>
       <c r="B33" s="36"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="176"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="192"/>
       <c r="E33" s="109"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="129"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="137"/>
       <c r="H33" s="52"/>
       <c r="I33" s="75"/>
       <c r="J33" s="75"/>
@@ -5875,14 +5881,14 @@
       <c r="AD33" s="32"/>
       <c r="AE33" s="32"/>
       <c r="AF33" s="32"/>
-      <c r="AG33" s="117"/>
+      <c r="AG33" s="32"/>
       <c r="AH33" s="25"/>
       <c r="AI33" s="26"/>
-      <c r="AJ33" s="117"/>
-      <c r="AK33" s="120"/>
-      <c r="AL33" s="93"/>
-      <c r="AM33" s="24"/>
-      <c r="AN33" s="24"/>
+      <c r="AJ33" s="32"/>
+      <c r="AK33" s="241"/>
+      <c r="AL33" s="242"/>
+      <c r="AM33" s="32"/>
+      <c r="AN33" s="32"/>
       <c r="AO33" s="25"/>
       <c r="AP33" s="26"/>
       <c r="AQ33" s="24"/>
@@ -5912,17 +5918,17 @@
       <c r="BO33" s="83"/>
     </row>
     <row r="34" spans="1:67" ht="12" customHeight="1">
-      <c r="A34" s="146"/>
+      <c r="A34" s="176"/>
       <c r="B34" s="36"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="176"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="192"/>
       <c r="E34" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="130" t="s">
+      <c r="F34" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G34" s="128"/>
+      <c r="G34" s="136"/>
       <c r="H34" s="52"/>
       <c r="I34" s="75"/>
       <c r="J34" s="75"/>
@@ -5987,13 +5993,13 @@
       <c r="BO34" s="83"/>
     </row>
     <row r="35" spans="1:67" ht="12" customHeight="1">
-      <c r="A35" s="146"/>
+      <c r="A35" s="176"/>
       <c r="B35" s="36"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="176"/>
+      <c r="C35" s="191"/>
+      <c r="D35" s="192"/>
       <c r="E35" s="109"/>
-      <c r="F35" s="131"/>
-      <c r="G35" s="129"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="137"/>
       <c r="H35" s="52"/>
       <c r="I35" s="75"/>
       <c r="J35" s="75"/>
@@ -6019,14 +6025,14 @@
       <c r="AD35" s="32"/>
       <c r="AE35" s="32"/>
       <c r="AF35" s="32"/>
-      <c r="AG35" s="117"/>
+      <c r="AG35" s="32"/>
       <c r="AH35" s="25"/>
       <c r="AI35" s="26"/>
-      <c r="AJ35" s="117"/>
-      <c r="AK35" s="120"/>
-      <c r="AL35" s="93"/>
-      <c r="AM35" s="24"/>
-      <c r="AN35" s="24"/>
+      <c r="AJ35" s="32"/>
+      <c r="AK35" s="241"/>
+      <c r="AL35" s="242"/>
+      <c r="AM35" s="32"/>
+      <c r="AN35" s="32"/>
       <c r="AO35" s="25"/>
       <c r="AP35" s="26"/>
       <c r="AQ35" s="24"/>
@@ -6056,17 +6062,17 @@
       <c r="BO35" s="83"/>
     </row>
     <row r="36" spans="1:67" ht="12" customHeight="1">
-      <c r="A36" s="146"/>
+      <c r="A36" s="176"/>
       <c r="B36" s="36"/>
-      <c r="C36" s="175"/>
-      <c r="D36" s="176"/>
+      <c r="C36" s="191"/>
+      <c r="D36" s="192"/>
       <c r="E36" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="130" t="s">
+      <c r="F36" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="128"/>
+      <c r="G36" s="136"/>
       <c r="H36" s="52"/>
       <c r="I36" s="75"/>
       <c r="J36" s="75"/>
@@ -6131,13 +6137,13 @@
       <c r="BO36" s="83"/>
     </row>
     <row r="37" spans="1:67" ht="12" customHeight="1">
-      <c r="A37" s="146"/>
+      <c r="A37" s="176"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="175"/>
-      <c r="D37" s="176"/>
+      <c r="C37" s="191"/>
+      <c r="D37" s="192"/>
       <c r="E37" s="109"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="129"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="137"/>
       <c r="H37" s="52"/>
       <c r="I37" s="75"/>
       <c r="J37" s="75"/>
@@ -6163,14 +6169,14 @@
       <c r="AD37" s="32"/>
       <c r="AE37" s="32"/>
       <c r="AF37" s="32"/>
-      <c r="AG37" s="117"/>
+      <c r="AG37" s="32"/>
       <c r="AH37" s="25"/>
       <c r="AI37" s="26"/>
-      <c r="AJ37" s="117"/>
-      <c r="AK37" s="120"/>
-      <c r="AL37" s="93"/>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="24"/>
+      <c r="AJ37" s="32"/>
+      <c r="AK37" s="241"/>
+      <c r="AL37" s="242"/>
+      <c r="AM37" s="32"/>
+      <c r="AN37" s="32"/>
       <c r="AO37" s="25"/>
       <c r="AP37" s="26"/>
       <c r="AQ37" s="24"/>
@@ -6200,17 +6206,17 @@
       <c r="BO37" s="83"/>
     </row>
     <row r="38" spans="1:67" ht="12" customHeight="1">
-      <c r="A38" s="146"/>
+      <c r="A38" s="176"/>
       <c r="B38" s="36"/>
-      <c r="C38" s="175"/>
-      <c r="D38" s="176"/>
+      <c r="C38" s="191"/>
+      <c r="D38" s="192"/>
       <c r="E38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="130" t="s">
+      <c r="F38" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="128"/>
+      <c r="G38" s="136"/>
       <c r="H38" s="52"/>
       <c r="I38" s="75"/>
       <c r="J38" s="75"/>
@@ -6275,13 +6281,13 @@
       <c r="BO38" s="83"/>
     </row>
     <row r="39" spans="1:67" ht="12" customHeight="1">
-      <c r="A39" s="146"/>
+      <c r="A39" s="176"/>
       <c r="B39" s="36"/>
-      <c r="C39" s="175"/>
-      <c r="D39" s="176"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="192"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="131"/>
-      <c r="G39" s="129"/>
+      <c r="F39" s="135"/>
+      <c r="G39" s="137"/>
       <c r="H39" s="52"/>
       <c r="I39" s="75"/>
       <c r="J39" s="75"/>
@@ -6307,14 +6313,14 @@
       <c r="AD39" s="32"/>
       <c r="AE39" s="32"/>
       <c r="AF39" s="32"/>
-      <c r="AG39" s="24"/>
+      <c r="AG39" s="32"/>
       <c r="AH39" s="25"/>
       <c r="AI39" s="26"/>
-      <c r="AJ39" s="117"/>
-      <c r="AK39" s="120"/>
-      <c r="AL39" s="93"/>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="24"/>
+      <c r="AJ39" s="32"/>
+      <c r="AK39" s="241"/>
+      <c r="AL39" s="242"/>
+      <c r="AM39" s="32"/>
+      <c r="AN39" s="32"/>
       <c r="AO39" s="25"/>
       <c r="AP39" s="26"/>
       <c r="AQ39" s="24"/>
@@ -6344,21 +6350,21 @@
       <c r="BO39" s="83"/>
     </row>
     <row r="40" spans="1:67" ht="12" customHeight="1">
-      <c r="A40" s="169">
+      <c r="A40" s="193">
         <v>6</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="137" t="s">
+      <c r="C40" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="138"/>
+      <c r="D40" s="195"/>
       <c r="E40" s="69"/>
-      <c r="F40" s="167" t="s">
+      <c r="F40" s="196" t="s">
         <v>66</v>
       </c>
-      <c r="G40" s="168"/>
+      <c r="G40" s="133"/>
       <c r="H40" s="38"/>
       <c r="I40" s="76"/>
       <c r="J40" s="76"/>
@@ -6421,13 +6427,13 @@
       <c r="BO40" s="84"/>
     </row>
     <row r="41" spans="1:67" ht="12" customHeight="1">
-      <c r="A41" s="169"/>
+      <c r="A41" s="193"/>
       <c r="B41" s="36"/>
-      <c r="C41" s="158"/>
-      <c r="D41" s="159"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="170"/>
       <c r="E41" s="62"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="165"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="129"/>
       <c r="H41" s="52"/>
       <c r="I41" s="75"/>
       <c r="J41" s="75"/>
@@ -6490,19 +6496,19 @@
       <c r="BO41" s="83"/>
     </row>
     <row r="42" spans="1:67" ht="12" customHeight="1">
-      <c r="A42" s="169">
+      <c r="A42" s="193">
         <v>7</v>
       </c>
       <c r="B42" s="36"/>
-      <c r="C42" s="170" t="s">
+      <c r="C42" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="157"/>
+      <c r="D42" s="159"/>
       <c r="E42" s="66"/>
-      <c r="F42" s="163" t="s">
+      <c r="F42" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="G42" s="164"/>
+      <c r="G42" s="128"/>
       <c r="H42" s="51"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -6567,13 +6573,13 @@
       <c r="BO42" s="82"/>
     </row>
     <row r="43" spans="1:67" ht="12" customHeight="1">
-      <c r="A43" s="169"/>
+      <c r="A43" s="193"/>
       <c r="B43" s="36"/>
-      <c r="C43" s="158"/>
-      <c r="D43" s="159"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="170"/>
       <c r="E43" s="62"/>
-      <c r="F43" s="131"/>
-      <c r="G43" s="165"/>
+      <c r="F43" s="135"/>
+      <c r="G43" s="129"/>
       <c r="H43" s="52"/>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
@@ -6636,19 +6642,19 @@
       <c r="BO43" s="83"/>
     </row>
     <row r="44" spans="1:67" ht="12" customHeight="1">
-      <c r="A44" s="169">
+      <c r="A44" s="193">
         <v>8</v>
       </c>
       <c r="B44" s="36"/>
-      <c r="C44" s="170" t="s">
+      <c r="C44" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="157"/>
+      <c r="D44" s="159"/>
       <c r="E44" s="66"/>
-      <c r="F44" s="163" t="s">
+      <c r="F44" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="164"/>
+      <c r="G44" s="128"/>
       <c r="H44" s="52"/>
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
@@ -6713,13 +6719,13 @@
       <c r="BO44" s="85"/>
     </row>
     <row r="45" spans="1:67" ht="12" customHeight="1">
-      <c r="A45" s="169"/>
+      <c r="A45" s="193"/>
       <c r="B45" s="37"/>
-      <c r="C45" s="171"/>
-      <c r="D45" s="172"/>
+      <c r="C45" s="160"/>
+      <c r="D45" s="161"/>
       <c r="E45" s="67"/>
-      <c r="F45" s="173"/>
-      <c r="G45" s="174"/>
+      <c r="F45" s="198"/>
+      <c r="G45" s="199"/>
       <c r="H45" s="54"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -6782,21 +6788,21 @@
       <c r="BO45" s="86"/>
     </row>
     <row r="46" spans="1:67" ht="12" customHeight="1">
-      <c r="A46" s="145">
+      <c r="A46" s="175">
         <v>9</v>
       </c>
       <c r="B46" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="137" t="s">
+      <c r="C46" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="138"/>
+      <c r="D46" s="195"/>
       <c r="E46" s="69"/>
-      <c r="F46" s="167" t="s">
+      <c r="F46" s="196" t="s">
         <v>66</v>
       </c>
-      <c r="G46" s="168"/>
+      <c r="G46" s="133"/>
       <c r="H46" s="38"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -6859,15 +6865,15 @@
       <c r="BO46" s="87"/>
     </row>
     <row r="47" spans="1:67" ht="12" customHeight="1">
-      <c r="A47" s="166"/>
+      <c r="A47" s="177"/>
       <c r="B47" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="158"/>
-      <c r="D47" s="159"/>
+      <c r="C47" s="169"/>
+      <c r="D47" s="170"/>
       <c r="E47" s="62"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="165"/>
+      <c r="F47" s="135"/>
+      <c r="G47" s="129"/>
       <c r="H47" s="51"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -6930,19 +6936,19 @@
       <c r="BO47" s="88"/>
     </row>
     <row r="48" spans="1:67" ht="12" customHeight="1">
-      <c r="A48" s="145">
+      <c r="A48" s="175">
         <v>10</v>
       </c>
       <c r="B48" s="36"/>
-      <c r="C48" s="156" t="s">
+      <c r="C48" s="200" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="157"/>
+      <c r="D48" s="159"/>
       <c r="E48" s="66"/>
-      <c r="F48" s="163" t="s">
+      <c r="F48" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="G48" s="164"/>
+      <c r="G48" s="128"/>
       <c r="H48" s="51"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -7007,13 +7013,13 @@
       <c r="BO48" s="88"/>
     </row>
     <row r="49" spans="1:67" ht="12" customHeight="1">
-      <c r="A49" s="166"/>
+      <c r="A49" s="177"/>
       <c r="B49" s="36"/>
-      <c r="C49" s="158"/>
-      <c r="D49" s="159"/>
+      <c r="C49" s="169"/>
+      <c r="D49" s="170"/>
       <c r="E49" s="62"/>
-      <c r="F49" s="131"/>
-      <c r="G49" s="165"/>
+      <c r="F49" s="135"/>
+      <c r="G49" s="129"/>
       <c r="H49" s="51"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -7076,19 +7082,19 @@
       <c r="BO49" s="88"/>
     </row>
     <row r="50" spans="1:67" ht="12" customHeight="1">
-      <c r="A50" s="145">
+      <c r="A50" s="175">
         <v>11</v>
       </c>
       <c r="B50" s="36"/>
-      <c r="C50" s="156" t="s">
+      <c r="C50" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="157"/>
+      <c r="D50" s="159"/>
       <c r="E50" s="102"/>
-      <c r="F50" s="163" t="s">
+      <c r="F50" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="G50" s="164"/>
+      <c r="G50" s="128"/>
       <c r="H50" s="52"/>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
@@ -7153,13 +7159,13 @@
       <c r="BO50" s="85"/>
     </row>
     <row r="51" spans="1:67" ht="12" customHeight="1">
-      <c r="A51" s="146"/>
+      <c r="A51" s="176"/>
       <c r="B51" s="36"/>
-      <c r="C51" s="158"/>
-      <c r="D51" s="159"/>
+      <c r="C51" s="169"/>
+      <c r="D51" s="170"/>
       <c r="E51" s="103"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="165"/>
+      <c r="F51" s="135"/>
+      <c r="G51" s="129"/>
       <c r="H51" s="52"/>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
@@ -7222,17 +7228,17 @@
       <c r="BO51" s="85"/>
     </row>
     <row r="52" spans="1:67" ht="12" customHeight="1">
-      <c r="A52" s="146"/>
+      <c r="A52" s="176"/>
       <c r="B52" s="36"/>
-      <c r="C52" s="156" t="s">
+      <c r="C52" s="200" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="160"/>
+      <c r="D52" s="209"/>
       <c r="E52" s="104"/>
-      <c r="F52" s="163" t="s">
+      <c r="F52" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="G52" s="164"/>
+      <c r="G52" s="128"/>
       <c r="H52" s="52"/>
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
@@ -7295,13 +7301,13 @@
       <c r="BO52" s="85"/>
     </row>
     <row r="53" spans="1:67" ht="12" customHeight="1">
-      <c r="A53" s="146"/>
+      <c r="A53" s="176"/>
       <c r="B53" s="36"/>
-      <c r="C53" s="161"/>
-      <c r="D53" s="162"/>
+      <c r="C53" s="210"/>
+      <c r="D53" s="211"/>
       <c r="E53" s="104"/>
-      <c r="F53" s="131"/>
-      <c r="G53" s="165"/>
+      <c r="F53" s="135"/>
+      <c r="G53" s="129"/>
       <c r="H53" s="52"/>
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
@@ -7364,17 +7370,17 @@
       <c r="BO53" s="85"/>
     </row>
     <row r="54" spans="1:67" ht="12" customHeight="1">
-      <c r="A54" s="146"/>
+      <c r="A54" s="176"/>
       <c r="B54" s="36"/>
-      <c r="C54" s="156" t="s">
+      <c r="C54" s="200" t="s">
         <v>64</v>
       </c>
-      <c r="D54" s="157"/>
+      <c r="D54" s="159"/>
       <c r="E54" s="102"/>
-      <c r="F54" s="163" t="s">
+      <c r="F54" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="G54" s="164"/>
+      <c r="G54" s="128"/>
       <c r="H54" s="52"/>
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
@@ -7437,13 +7443,13 @@
       <c r="BO54" s="85"/>
     </row>
     <row r="55" spans="1:67" ht="12" customHeight="1">
-      <c r="A55" s="146"/>
+      <c r="A55" s="176"/>
       <c r="B55" s="36"/>
-      <c r="C55" s="158"/>
-      <c r="D55" s="159"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="170"/>
       <c r="E55" s="103"/>
-      <c r="F55" s="131"/>
-      <c r="G55" s="165"/>
+      <c r="F55" s="135"/>
+      <c r="G55" s="129"/>
       <c r="H55" s="52"/>
       <c r="I55" s="24"/>
       <c r="J55" s="24"/>
@@ -7506,17 +7512,17 @@
       <c r="BO55" s="85"/>
     </row>
     <row r="56" spans="1:67" ht="12" customHeight="1">
-      <c r="A56" s="146"/>
+      <c r="A56" s="176"/>
       <c r="B56" s="36"/>
-      <c r="C56" s="156" t="s">
+      <c r="C56" s="200" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="157"/>
+      <c r="D56" s="159"/>
       <c r="E56" s="104"/>
-      <c r="F56" s="163" t="s">
+      <c r="F56" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="G56" s="164"/>
+      <c r="G56" s="128"/>
       <c r="H56" s="52"/>
       <c r="I56" s="24"/>
       <c r="J56" s="24"/>
@@ -7581,13 +7587,13 @@
       <c r="BO56" s="85"/>
     </row>
     <row r="57" spans="1:67" ht="12" customHeight="1">
-      <c r="A57" s="146"/>
+      <c r="A57" s="176"/>
       <c r="B57" s="36"/>
-      <c r="C57" s="158"/>
-      <c r="D57" s="159"/>
+      <c r="C57" s="169"/>
+      <c r="D57" s="170"/>
       <c r="E57" s="104"/>
-      <c r="F57" s="131"/>
-      <c r="G57" s="165"/>
+      <c r="F57" s="135"/>
+      <c r="G57" s="129"/>
       <c r="H57" s="52"/>
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
@@ -7650,21 +7656,21 @@
       <c r="BO57" s="85"/>
     </row>
     <row r="58" spans="1:67" ht="12" customHeight="1">
-      <c r="A58" s="133">
+      <c r="A58" s="156">
         <v>12</v>
       </c>
       <c r="B58" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="148" t="s">
+      <c r="C58" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="D58" s="149"/>
+      <c r="D58" s="202"/>
       <c r="E58" s="105"/>
-      <c r="F58" s="152" t="s">
+      <c r="F58" s="205" t="s">
         <v>66</v>
       </c>
-      <c r="G58" s="154"/>
+      <c r="G58" s="207"/>
       <c r="H58" s="38"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
@@ -7731,13 +7737,13 @@
       <c r="BO58" s="87"/>
     </row>
     <row r="59" spans="1:67" ht="12" customHeight="1">
-      <c r="A59" s="147"/>
+      <c r="A59" s="157"/>
       <c r="B59" s="34"/>
-      <c r="C59" s="150"/>
-      <c r="D59" s="151"/>
+      <c r="C59" s="203"/>
+      <c r="D59" s="204"/>
       <c r="E59" s="115"/>
-      <c r="F59" s="153"/>
-      <c r="G59" s="155"/>
+      <c r="F59" s="206"/>
+      <c r="G59" s="208"/>
       <c r="H59" s="51"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -7800,21 +7806,21 @@
       <c r="BO59" s="88"/>
     </row>
     <row r="60" spans="1:67" ht="12" customHeight="1">
-      <c r="A60" s="133">
+      <c r="A60" s="156">
         <v>14</v>
       </c>
-      <c r="B60" s="135" t="s">
+      <c r="B60" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="137" t="s">
+      <c r="C60" s="194" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="138"/>
+      <c r="D60" s="195"/>
       <c r="E60" s="69"/>
-      <c r="F60" s="141" t="s">
+      <c r="F60" s="217" t="s">
         <v>66</v>
       </c>
-      <c r="G60" s="143"/>
+      <c r="G60" s="219"/>
       <c r="H60" s="38"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
@@ -7879,13 +7885,13 @@
       <c r="BO60" s="87"/>
     </row>
     <row r="61" spans="1:67" ht="12" customHeight="1" thickBot="1">
-      <c r="A61" s="134"/>
-      <c r="B61" s="136"/>
-      <c r="C61" s="139"/>
-      <c r="D61" s="140"/>
+      <c r="A61" s="212"/>
+      <c r="B61" s="214"/>
+      <c r="C61" s="215"/>
+      <c r="D61" s="216"/>
       <c r="E61" s="71"/>
-      <c r="F61" s="142"/>
-      <c r="G61" s="144"/>
+      <c r="F61" s="218"/>
+      <c r="G61" s="220"/>
       <c r="H61" s="39"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
@@ -7965,6 +7971,88 @@
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="A28:A39"/>
+    <mergeCell ref="C28:D39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A8:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="C8:D16"/>
+    <mergeCell ref="C20:D25"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="AL1:BO1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="G56:G57"/>
     <mergeCell ref="H1:AK1"/>
     <mergeCell ref="G40:G41"/>
@@ -7981,88 +8069,6 @@
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="AL1:BO1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A8:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="C8:D16"/>
-    <mergeCell ref="C20:D25"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="C28:D39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="A50:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G32:G33"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -8106,54 +8112,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="206" t="s">
+      <c r="B1" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="209" t="s">
+      <c r="C1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="210"/>
-      <c r="E1" s="215" t="s">
+      <c r="D1" s="145"/>
+      <c r="E1" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="218" t="s">
+      <c r="F1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="200"/>
-      <c r="H1" s="201"/>
-      <c r="I1" s="201"/>
-      <c r="J1" s="201"/>
-      <c r="K1" s="201"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="201"/>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="201"/>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201"/>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="201"/>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="201"/>
-      <c r="AD1" s="202"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="132"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="204"/>
-      <c r="B2" s="207"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="219"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="154"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -8228,12 +8234,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="205"/>
-      <c r="B3" s="208"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="220"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="155"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -8308,20 +8314,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="193">
+      <c r="A4" s="166">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="194" t="s">
+      <c r="C4" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="195"/>
-      <c r="E4" s="226" t="s">
+      <c r="D4" s="168"/>
+      <c r="E4" s="235" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="198"/>
+      <c r="F4" s="173"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -8344,20 +8350,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="228" t="s">
+      <c r="AC4" s="237" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="221" t="s">
+      <c r="AD4" s="230" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="147"/>
+      <c r="A5" s="157"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="227"/>
-      <c r="F5" s="199"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="174"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -8380,22 +8386,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="229"/>
-      <c r="AD5" s="222"/>
+      <c r="AC5" s="238"/>
+      <c r="AD5" s="231"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="133">
+      <c r="A6" s="156">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="170" t="s">
+      <c r="C6" s="158" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="157"/>
-      <c r="E6" s="224" t="s">
+      <c r="D6" s="159"/>
+      <c r="E6" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="191"/>
+      <c r="F6" s="164"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -8418,16 +8424,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="229"/>
-      <c r="AD6" s="222"/>
+      <c r="AC6" s="238"/>
+      <c r="AD6" s="231"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="147"/>
+      <c r="A7" s="157"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="192"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="234"/>
+      <c r="F7" s="165"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -8450,24 +8456,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="229"/>
-      <c r="AD7" s="222"/>
+      <c r="AC7" s="238"/>
+      <c r="AD7" s="231"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="145">
+      <c r="A8" s="175">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="183"/>
-      <c r="E8" s="231" t="s">
+      <c r="D8" s="184"/>
+      <c r="E8" s="240" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="168"/>
+      <c r="F8" s="133"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -8490,16 +8496,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="229"/>
-      <c r="AD8" s="222"/>
+      <c r="AC8" s="238"/>
+      <c r="AD8" s="231"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="166"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="232"/>
-      <c r="F9" s="174"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="225"/>
+      <c r="F9" s="199"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -8522,24 +8528,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="229"/>
-      <c r="AD9" s="222"/>
+      <c r="AC9" s="238"/>
+      <c r="AD9" s="231"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="146">
+      <c r="A10" s="176">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="177" t="s">
+      <c r="C10" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="178"/>
-      <c r="E10" s="233" t="s">
+      <c r="D10" s="179"/>
+      <c r="E10" s="227" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="235"/>
+      <c r="F10" s="228"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -8562,16 +8568,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="229"/>
-      <c r="AD10" s="222"/>
+      <c r="AC10" s="238"/>
+      <c r="AD10" s="231"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="166"/>
+      <c r="A11" s="177"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="179"/>
-      <c r="D11" s="180"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="165"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="224"/>
+      <c r="F11" s="129"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -8594,22 +8600,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="229"/>
-      <c r="AD11" s="222"/>
+      <c r="AC11" s="238"/>
+      <c r="AD11" s="231"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="145">
+      <c r="A12" s="175">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="157"/>
-      <c r="E12" s="236" t="s">
+      <c r="D12" s="159"/>
+      <c r="E12" s="229" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="164"/>
+      <c r="F12" s="128"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -8632,16 +8638,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="229"/>
-      <c r="AD12" s="222"/>
+      <c r="AC12" s="238"/>
+      <c r="AD12" s="231"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="146"/>
+      <c r="A13" s="176"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="233"/>
-      <c r="F13" s="235"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="227"/>
+      <c r="F13" s="228"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -8664,24 +8670,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="229"/>
-      <c r="AD13" s="222"/>
+      <c r="AC13" s="238"/>
+      <c r="AD13" s="231"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="169">
+      <c r="A14" s="193">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="137" t="s">
+      <c r="C14" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="138"/>
-      <c r="E14" s="237" t="s">
+      <c r="D14" s="195"/>
+      <c r="E14" s="226" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="168"/>
+      <c r="F14" s="133"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -8704,16 +8710,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="229"/>
-      <c r="AD14" s="222"/>
+      <c r="AC14" s="238"/>
+      <c r="AD14" s="231"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="169"/>
+      <c r="A15" s="193"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="234"/>
-      <c r="F15" s="165"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="224"/>
+      <c r="F15" s="129"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -8736,22 +8742,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="229"/>
-      <c r="AD15" s="222"/>
+      <c r="AC15" s="238"/>
+      <c r="AD15" s="231"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="169">
+      <c r="A16" s="193">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="170" t="s">
+      <c r="C16" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="157"/>
-      <c r="E16" s="238" t="s">
+      <c r="D16" s="159"/>
+      <c r="E16" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="164"/>
+      <c r="F16" s="128"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -8774,16 +8780,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="229"/>
-      <c r="AD16" s="222"/>
+      <c r="AC16" s="238"/>
+      <c r="AD16" s="231"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="169"/>
+      <c r="A17" s="193"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="234"/>
-      <c r="F17" s="165"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="224"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -8806,22 +8812,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="229"/>
-      <c r="AD17" s="222"/>
+      <c r="AC17" s="238"/>
+      <c r="AD17" s="231"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="169">
+      <c r="A18" s="193">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="170" t="s">
+      <c r="C18" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="157"/>
-      <c r="E18" s="238" t="s">
+      <c r="D18" s="159"/>
+      <c r="E18" s="223" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="164"/>
+      <c r="F18" s="128"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -8844,16 +8850,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="229"/>
-      <c r="AD18" s="222"/>
+      <c r="AC18" s="238"/>
+      <c r="AD18" s="231"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="169"/>
+      <c r="A19" s="193"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="232"/>
-      <c r="F19" s="174"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="199"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -8876,24 +8882,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="229"/>
-      <c r="AD19" s="222"/>
+      <c r="AC19" s="238"/>
+      <c r="AD19" s="231"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="145">
+      <c r="A20" s="175">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="138"/>
-      <c r="E20" s="237" t="s">
+      <c r="D20" s="195"/>
+      <c r="E20" s="226" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="168"/>
+      <c r="F20" s="133"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -8916,18 +8922,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="229"/>
-      <c r="AD20" s="222"/>
+      <c r="AC20" s="238"/>
+      <c r="AD20" s="231"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="166"/>
+      <c r="A21" s="177"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="158"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="234"/>
-      <c r="F21" s="165"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="129"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -8950,22 +8956,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="229"/>
-      <c r="AD21" s="222"/>
+      <c r="AC21" s="238"/>
+      <c r="AD21" s="231"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="145">
+      <c r="A22" s="175">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="156" t="s">
+      <c r="C22" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="157"/>
-      <c r="E22" s="238" t="s">
+      <c r="D22" s="159"/>
+      <c r="E22" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="164"/>
+      <c r="F22" s="128"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -8988,16 +8994,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="229"/>
-      <c r="AD22" s="222"/>
+      <c r="AC22" s="238"/>
+      <c r="AD22" s="231"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="166"/>
+      <c r="A23" s="177"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="234"/>
-      <c r="F23" s="165"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="224"/>
+      <c r="F23" s="129"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -9020,22 +9026,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="229"/>
-      <c r="AD23" s="222"/>
+      <c r="AC23" s="238"/>
+      <c r="AD23" s="231"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="145">
+      <c r="A24" s="175">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="156" t="s">
+      <c r="C24" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="157"/>
-      <c r="E24" s="238" t="s">
+      <c r="D24" s="159"/>
+      <c r="E24" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="164"/>
+      <c r="F24" s="128"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -9058,16 +9064,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="229"/>
-      <c r="AD24" s="222"/>
+      <c r="AC24" s="238"/>
+      <c r="AD24" s="231"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="166"/>
+      <c r="A25" s="177"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="159"/>
-      <c r="E25" s="234"/>
-      <c r="F25" s="174"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="224"/>
+      <c r="F25" s="199"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -9090,24 +9096,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="229"/>
-      <c r="AD25" s="222"/>
+      <c r="AC25" s="238"/>
+      <c r="AD25" s="231"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="133">
+      <c r="A26" s="156">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="148" t="s">
+      <c r="C26" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="149"/>
-      <c r="E26" s="239" t="s">
+      <c r="D26" s="202"/>
+      <c r="E26" s="221" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="154"/>
+      <c r="F26" s="207"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -9130,16 +9136,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="229"/>
-      <c r="AD26" s="222"/>
+      <c r="AC26" s="238"/>
+      <c r="AD26" s="231"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="147"/>
+      <c r="A27" s="157"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="240"/>
-      <c r="F27" s="155"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="204"/>
+      <c r="E27" s="222"/>
+      <c r="F27" s="208"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -9162,24 +9168,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="229"/>
-      <c r="AD27" s="222"/>
+      <c r="AC27" s="238"/>
+      <c r="AD27" s="231"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="133">
+      <c r="A28" s="156">
         <v>14</v>
       </c>
-      <c r="B28" s="135" t="s">
+      <c r="B28" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="137" t="s">
+      <c r="C28" s="194" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="138"/>
-      <c r="E28" s="135" t="s">
+      <c r="D28" s="195"/>
+      <c r="E28" s="213" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="143"/>
+      <c r="F28" s="219"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -9202,16 +9208,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="229"/>
-      <c r="AD28" s="222"/>
+      <c r="AC28" s="238"/>
+      <c r="AD28" s="231"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="134"/>
-      <c r="B29" s="136"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="144"/>
+      <c r="A29" s="212"/>
+      <c r="B29" s="214"/>
+      <c r="C29" s="215"/>
+      <c r="D29" s="216"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="220"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -9234,8 +9240,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="230"/>
-      <c r="AD29" s="223"/>
+      <c r="AC29" s="239"/>
+      <c r="AD29" s="232"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -9255,45 +9261,12 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -9310,12 +9283,45 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
